--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4BA88E-CAE5-4168-9250-AF13F6767206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1423,72 +1432,72 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
@@ -1498,75 +1507,63 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1756,43 +1753,48 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="97.25"/>
-    <col customWidth="1" min="4" max="4" width="55.25"/>
+    <col min="2" max="2" width="97.23046875" customWidth="1"/>
+    <col min="4" max="4" width="55.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1803,11 +1805,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1818,7 +1820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1837,10 +1839,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1848,10 +1850,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1862,7 +1864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1884,7 +1886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -1893,7 +1895,7 @@
       </c>
       <c r="C13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1904,7 +1906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -1915,7 +1917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1926,7 +1928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1937,7 @@
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1946,7 @@
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -1955,7 +1957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
@@ -1977,7 +1979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
@@ -1988,7 +1990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -1999,7 +2001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2010,7 +2012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +2023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2098,7 +2100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6" t="s">
         <v>5</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
@@ -2164,7 +2166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -2175,7 +2177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6" t="s">
         <v>5</v>
       </c>
@@ -2197,21 +2199,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="10"/>
       <c r="C42" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="11"/>
+    <row r="43" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="6"/>
       <c r="B43" s="10"/>
       <c r="C43" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6" t="s">
         <v>46</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
@@ -2233,7 +2235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
@@ -2244,7 +2246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -2255,7 +2257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -2266,7 +2268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6" t="s">
         <v>46</v>
       </c>
@@ -2277,7 +2279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6" t="s">
         <v>46</v>
       </c>
@@ -2288,7 +2290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6" t="s">
         <v>46</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
@@ -2310,7 +2312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6" t="s">
         <v>46</v>
       </c>
@@ -2321,17 +2323,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="11"/>
+    <row r="55" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="6"/>
       <c r="B55" s="10"/>
-      <c r="C55" s="12"/>
-    </row>
-    <row r="56">
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6" t="s">
         <v>57</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -2353,7 +2355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -2364,18 +2366,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -2386,7 +2388,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6" t="s">
         <v>57</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6" t="s">
         <v>57</v>
       </c>
@@ -2408,7 +2410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6" t="s">
         <v>57</v>
       </c>
@@ -2419,7 +2421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6" t="s">
         <v>57</v>
       </c>
@@ -2430,7 +2432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6" t="s">
         <v>57</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6" t="s">
         <v>57</v>
       </c>
@@ -2452,7 +2454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="6" t="s">
         <v>57</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="6" t="s">
         <v>57</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="6" t="s">
         <v>57</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6" t="s">
         <v>57</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
@@ -2507,7 +2509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="6" t="s">
         <v>57</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="6" t="s">
         <v>57</v>
       </c>
@@ -2529,7 +2531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="6" t="s">
         <v>57</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="6" t="s">
         <v>57</v>
       </c>
@@ -2551,7 +2553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="6" t="s">
         <v>57</v>
       </c>
@@ -2562,7 +2564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="6" t="s">
         <v>57</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="6" t="s">
         <v>57</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6" t="s">
         <v>57</v>
       </c>
@@ -2595,7 +2597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="6" t="s">
         <v>57</v>
       </c>
@@ -2606,7 +2608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6" t="s">
         <v>57</v>
       </c>
@@ -2617,7 +2619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="6" t="s">
         <v>57</v>
       </c>
@@ -2628,7 +2630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="6" t="s">
         <v>57</v>
       </c>
@@ -2639,7 +2641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="6" t="s">
         <v>57</v>
       </c>
@@ -2650,7 +2652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="6" t="s">
         <v>57</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6" t="s">
         <v>57</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6" t="s">
         <v>57</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="6" t="s">
         <v>57</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="6" t="s">
         <v>57</v>
       </c>
@@ -2705,7 +2707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="6" t="s">
         <v>57</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6" t="s">
         <v>57</v>
       </c>
@@ -2727,7 +2729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="6" t="s">
         <v>57</v>
       </c>
@@ -2738,7 +2740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="6" t="s">
         <v>57</v>
       </c>
@@ -2749,7 +2751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="6" t="s">
         <v>57</v>
       </c>
@@ -2760,7 +2762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="6" t="s">
         <v>57</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="6" t="s">
         <v>57</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="6" t="s">
         <v>57</v>
       </c>
@@ -2793,7 +2795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6" t="s">
         <v>57</v>
       </c>
@@ -2804,17 +2806,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100">
-      <c r="A100" s="11"/>
+    <row r="100" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="6"/>
       <c r="B100" s="10"/>
-      <c r="C100" s="12"/>
-    </row>
-    <row r="101">
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="6" t="s">
         <v>102</v>
       </c>
@@ -2825,7 +2827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="6" t="s">
         <v>102</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6" t="s">
         <v>102</v>
       </c>
@@ -2847,7 +2849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6" t="s">
         <v>102</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6" t="s">
         <v>102</v>
       </c>
@@ -2869,7 +2871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="6" t="s">
         <v>102</v>
       </c>
@@ -2880,7 +2882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="6" t="s">
         <v>102</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="6" t="s">
         <v>102</v>
       </c>
@@ -2902,7 +2904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="6" t="s">
         <v>102</v>
       </c>
@@ -2913,7 +2915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6" t="s">
         <v>102</v>
       </c>
@@ -2924,7 +2926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6" t="s">
         <v>102</v>
       </c>
@@ -2935,7 +2937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="6" t="s">
         <v>102</v>
       </c>
@@ -2946,7 +2948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="6" t="s">
         <v>102</v>
       </c>
@@ -2957,7 +2959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="6" t="s">
         <v>102</v>
       </c>
@@ -2968,7 +2970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="6" t="s">
         <v>102</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="6" t="s">
         <v>102</v>
       </c>
@@ -2990,7 +2992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="6" t="s">
         <v>102</v>
       </c>
@@ -3001,7 +3003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="6" t="s">
         <v>102</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6" t="s">
         <v>102</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="6" t="s">
         <v>102</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="6" t="s">
         <v>102</v>
       </c>
@@ -3045,7 +3047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6" t="s">
         <v>102</v>
       </c>
@@ -3056,7 +3058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="6" t="s">
         <v>102</v>
       </c>
@@ -3067,7 +3069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="6" t="s">
         <v>102</v>
       </c>
@@ -3078,7 +3080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="6" t="s">
         <v>102</v>
       </c>
@@ -3089,7 +3091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6" t="s">
         <v>102</v>
       </c>
@@ -3100,7 +3102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="6" t="s">
         <v>102</v>
       </c>
@@ -3111,7 +3113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="6" t="s">
         <v>102</v>
       </c>
@@ -3122,7 +3124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="6" t="s">
         <v>102</v>
       </c>
@@ -3133,7 +3135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="6" t="s">
         <v>102</v>
       </c>
@@ -3144,7 +3146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="6" t="s">
         <v>102</v>
       </c>
@@ -3155,7 +3157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="6" t="s">
         <v>102</v>
       </c>
@@ -3166,7 +3168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="6" t="s">
         <v>102</v>
       </c>
@@ -3177,7 +3179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="6" t="s">
         <v>102</v>
       </c>
@@ -3188,7 +3190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="6" t="s">
         <v>102</v>
       </c>
@@ -3199,7 +3201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="6" t="s">
         <v>102</v>
       </c>
@@ -3210,17 +3212,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1"/>
       <c r="B138" s="10"/>
-      <c r="C138" s="12"/>
-    </row>
-    <row r="139">
+      <c r="C138" s="8"/>
+    </row>
+    <row r="139" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="6" t="s">
         <v>139</v>
       </c>
@@ -3231,7 +3233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="6" t="s">
         <v>139</v>
       </c>
@@ -3242,7 +3244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
@@ -3253,7 +3255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="6" t="s">
         <v>139</v>
       </c>
@@ -3264,7 +3266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="6" t="s">
         <v>139</v>
       </c>
@@ -3275,7 +3277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="6" t="s">
         <v>139</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="6" t="s">
         <v>139</v>
       </c>
@@ -3297,7 +3299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="6" t="s">
         <v>139</v>
       </c>
@@ -3308,7 +3310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="6" t="s">
         <v>139</v>
       </c>
@@ -3319,7 +3321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="6" t="s">
         <v>139</v>
       </c>
@@ -3330,7 +3332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="6" t="s">
         <v>139</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="6" t="s">
         <v>139</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="6" t="s">
         <v>139</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="6" t="s">
         <v>139</v>
       </c>
@@ -3374,7 +3376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="6" t="s">
         <v>139</v>
       </c>
@@ -3385,7 +3387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="6" t="s">
         <v>139</v>
       </c>
@@ -3396,7 +3398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="6" t="s">
         <v>139</v>
       </c>
@@ -3407,7 +3409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="6" t="s">
         <v>139</v>
       </c>
@@ -3418,7 +3420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="6" t="s">
         <v>139</v>
       </c>
@@ -3429,7 +3431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="6" t="s">
         <v>139</v>
       </c>
@@ -3440,7 +3442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="6" t="s">
         <v>139</v>
       </c>
@@ -3451,7 +3453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="6" t="s">
         <v>139</v>
       </c>
@@ -3462,7 +3464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="6" t="s">
         <v>139</v>
       </c>
@@ -3473,7 +3475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="6" t="s">
         <v>139</v>
       </c>
@@ -3484,7 +3486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="6" t="s">
         <v>139</v>
       </c>
@@ -3495,29 +3497,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B164" s="10" t="s">
         <v>165</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B165" s="10" t="s">
         <v>166</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="6" t="s">
         <v>139</v>
       </c>
@@ -3528,7 +3530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="6" t="s">
         <v>139</v>
       </c>
@@ -3539,7 +3541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="6" t="s">
         <v>139</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="6" t="s">
         <v>139</v>
       </c>
@@ -3561,7 +3563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="6" t="s">
         <v>139</v>
       </c>
@@ -3572,7 +3574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="6" t="s">
         <v>139</v>
       </c>
@@ -3583,7 +3585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="6" t="s">
         <v>139</v>
       </c>
@@ -3594,7 +3596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="6" t="s">
         <v>139</v>
       </c>
@@ -3605,7 +3607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="6" t="s">
         <v>139</v>
       </c>
@@ -3616,17 +3618,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1"/>
       <c r="B176" s="10"/>
-      <c r="C176" s="12"/>
-    </row>
-    <row r="177">
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="6" t="s">
         <v>176</v>
       </c>
@@ -3637,7 +3639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="6" t="s">
         <v>176</v>
       </c>
@@ -3648,7 +3650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="6" t="s">
         <v>176</v>
       </c>
@@ -3659,7 +3661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="6" t="s">
         <v>176</v>
       </c>
@@ -3670,7 +3672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="6" t="s">
         <v>176</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="6" t="s">
         <v>176</v>
       </c>
@@ -3692,7 +3694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="6" t="s">
         <v>176</v>
       </c>
@@ -3703,7 +3705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="6" t="s">
         <v>176</v>
       </c>
@@ -3714,7 +3716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="6" t="s">
         <v>176</v>
       </c>
@@ -3725,7 +3727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="6" t="s">
         <v>176</v>
       </c>
@@ -3736,7 +3738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="6" t="s">
         <v>176</v>
       </c>
@@ -3747,7 +3749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="6" t="s">
         <v>176</v>
       </c>
@@ -3758,7 +3760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="6" t="s">
         <v>176</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="6" t="s">
         <v>176</v>
       </c>
@@ -3780,7 +3782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="6" t="s">
         <v>176</v>
       </c>
@@ -3791,7 +3793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="6" t="s">
         <v>176</v>
       </c>
@@ -3802,7 +3804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="6" t="s">
         <v>176</v>
       </c>
@@ -3813,7 +3815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="6" t="s">
         <v>176</v>
       </c>
@@ -3824,7 +3826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="6" t="s">
         <v>176</v>
       </c>
@@ -3835,7 +3837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="6" t="s">
         <v>176</v>
       </c>
@@ -3846,7 +3848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="6" t="s">
         <v>176</v>
       </c>
@@ -3857,7 +3859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="6" t="s">
         <v>176</v>
       </c>
@@ -3868,7 +3870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="6" t="s">
         <v>176</v>
       </c>
@@ -3879,7 +3881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="6" t="s">
         <v>176</v>
       </c>
@@ -3890,7 +3892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="6" t="s">
         <v>176</v>
       </c>
@@ -3901,7 +3903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="6" t="s">
         <v>176</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="6" t="s">
         <v>176</v>
       </c>
@@ -3923,7 +3925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="6" t="s">
         <v>176</v>
       </c>
@@ -3934,7 +3936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="6" t="s">
         <v>176</v>
       </c>
@@ -3945,7 +3947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="6" t="s">
         <v>176</v>
       </c>
@@ -3956,7 +3958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="6" t="s">
         <v>176</v>
       </c>
@@ -3967,7 +3969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="6" t="s">
         <v>176</v>
       </c>
@@ -3978,7 +3980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="6" t="s">
         <v>176</v>
       </c>
@@ -3989,7 +3991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="6" t="s">
         <v>176</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="6" t="s">
         <v>176</v>
       </c>
@@ -4011,17 +4013,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="11"/>
+    <row r="212" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="6"/>
       <c r="B212" s="10"/>
-      <c r="C212" s="12"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="11"/>
+      <c r="C212" s="8"/>
+    </row>
+    <row r="213" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="6"/>
       <c r="B213" s="10"/>
-      <c r="C213" s="12"/>
-    </row>
-    <row r="214">
+      <c r="C213" s="8"/>
+    </row>
+    <row r="214" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="6" t="s">
         <v>212</v>
       </c>
@@ -4032,7 +4034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="6" t="s">
         <v>212</v>
       </c>
@@ -4043,7 +4045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="6" t="s">
         <v>212</v>
       </c>
@@ -4054,7 +4056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="6" t="s">
         <v>212</v>
       </c>
@@ -4065,7 +4067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="6" t="s">
         <v>212</v>
       </c>
@@ -4076,7 +4078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="6" t="s">
         <v>212</v>
       </c>
@@ -4087,18 +4089,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B220" s="14" t="s">
+      <c r="B220" s="11" t="s">
         <v>219</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="6" t="s">
         <v>212</v>
       </c>
@@ -4109,7 +4111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="6" t="s">
         <v>212</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="6" t="s">
         <v>212</v>
       </c>
@@ -4131,7 +4133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="6" t="s">
         <v>212</v>
       </c>
@@ -4142,7 +4144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="6" t="s">
         <v>212</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="6" t="s">
         <v>212</v>
       </c>
@@ -4164,7 +4166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="6" t="s">
         <v>212</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="6" t="s">
         <v>212</v>
       </c>
@@ -4186,7 +4188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="6" t="s">
         <v>212</v>
       </c>
@@ -4197,7 +4199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="6" t="s">
         <v>212</v>
       </c>
@@ -4208,7 +4210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="6" t="s">
         <v>212</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="6" t="s">
         <v>212</v>
       </c>
@@ -4230,7 +4232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="6" t="s">
         <v>212</v>
       </c>
@@ -4241,7 +4243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="6" t="s">
         <v>212</v>
       </c>
@@ -4252,7 +4254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="6" t="s">
         <v>212</v>
       </c>
@@ -4263,17 +4265,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="12"/>
-    </row>
-    <row r="237">
+      <c r="C236" s="8"/>
+    </row>
+    <row r="237" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1"/>
       <c r="B237" s="10"/>
-      <c r="C237" s="12"/>
-    </row>
-    <row r="238">
+      <c r="C237" s="8"/>
+    </row>
+    <row r="238" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="6" t="s">
         <v>235</v>
       </c>
@@ -4284,7 +4286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="6" t="s">
         <v>235</v>
       </c>
@@ -4295,7 +4297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="6" t="s">
         <v>235</v>
       </c>
@@ -4306,7 +4308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="6" t="s">
         <v>235</v>
       </c>
@@ -4317,7 +4319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="6" t="s">
         <v>235</v>
       </c>
@@ -4328,7 +4330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="6" t="s">
         <v>235</v>
       </c>
@@ -4339,7 +4341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="6" t="s">
         <v>235</v>
       </c>
@@ -4350,7 +4352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="6" t="s">
         <v>235</v>
       </c>
@@ -4361,7 +4363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="6" t="s">
         <v>235</v>
       </c>
@@ -4372,7 +4374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="6" t="s">
         <v>235</v>
       </c>
@@ -4383,7 +4385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="6" t="s">
         <v>235</v>
       </c>
@@ -4394,7 +4396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="6" t="s">
         <v>235</v>
       </c>
@@ -4405,7 +4407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="6" t="s">
         <v>235</v>
       </c>
@@ -4416,7 +4418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="6" t="s">
         <v>235</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="6" t="s">
         <v>235</v>
       </c>
@@ -4438,7 +4440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="6" t="s">
         <v>235</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="6" t="s">
         <v>235</v>
       </c>
@@ -4460,7 +4462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="6" t="s">
         <v>235</v>
       </c>
@@ -4471,7 +4473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="6" t="s">
         <v>235</v>
       </c>
@@ -4482,7 +4484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="6" t="s">
         <v>235</v>
       </c>
@@ -4493,7 +4495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="6" t="s">
         <v>235</v>
       </c>
@@ -4504,7 +4506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="6" t="s">
         <v>235</v>
       </c>
@@ -4515,7 +4517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="6" t="s">
         <v>235</v>
       </c>
@@ -4526,7 +4528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="6" t="s">
         <v>235</v>
       </c>
@@ -4537,7 +4539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="6" t="s">
         <v>235</v>
       </c>
@@ -4548,7 +4550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="6" t="s">
         <v>235</v>
       </c>
@@ -4559,7 +4561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="6" t="s">
         <v>235</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="6" t="s">
         <v>235</v>
       </c>
@@ -4581,7 +4583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="6" t="s">
         <v>235</v>
       </c>
@@ -4592,7 +4594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="6" t="s">
         <v>235</v>
       </c>
@@ -4603,7 +4605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="6" t="s">
         <v>235</v>
       </c>
@@ -4614,7 +4616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="6" t="s">
         <v>235</v>
       </c>
@@ -4625,7 +4627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="6" t="s">
         <v>235</v>
       </c>
@@ -4636,7 +4638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="6" t="s">
         <v>235</v>
       </c>
@@ -4647,7 +4649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="6" t="s">
         <v>235</v>
       </c>
@@ -4658,17 +4660,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1"/>
       <c r="B273" s="10"/>
-      <c r="C273" s="12"/>
-    </row>
-    <row r="274">
+      <c r="C273" s="8"/>
+    </row>
+    <row r="274" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1"/>
       <c r="B274" s="10"/>
-      <c r="C274" s="12"/>
-    </row>
-    <row r="275">
+      <c r="C274" s="8"/>
+    </row>
+    <row r="275" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="6" t="s">
         <v>270</v>
       </c>
@@ -4679,7 +4681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="6" t="s">
         <v>270</v>
       </c>
@@ -4690,7 +4692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="6" t="s">
         <v>270</v>
       </c>
@@ -4701,7 +4703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="6" t="s">
         <v>270</v>
       </c>
@@ -4712,7 +4714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="6" t="s">
         <v>270</v>
       </c>
@@ -4723,7 +4725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="6" t="s">
         <v>270</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="6" t="s">
         <v>270</v>
       </c>
@@ -4745,7 +4747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="6" t="s">
         <v>270</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="6" t="s">
         <v>270</v>
       </c>
@@ -4767,7 +4769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="6" t="s">
         <v>270</v>
       </c>
@@ -4778,7 +4780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="6" t="s">
         <v>270</v>
       </c>
@@ -4789,7 +4791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="6" t="s">
         <v>270</v>
       </c>
@@ -4800,7 +4802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="6" t="s">
         <v>270</v>
       </c>
@@ -4811,7 +4813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="6" t="s">
         <v>270</v>
       </c>
@@ -4822,7 +4824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="6" t="s">
         <v>270</v>
       </c>
@@ -4833,7 +4835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="6" t="s">
         <v>270</v>
       </c>
@@ -4844,7 +4846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="6" t="s">
         <v>270</v>
       </c>
@@ -4855,7 +4857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="6" t="s">
         <v>270</v>
       </c>
@@ -4866,7 +4868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="6" t="s">
         <v>270</v>
       </c>
@@ -4877,17 +4879,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1"/>
       <c r="B294" s="10"/>
-      <c r="C294" s="12"/>
-    </row>
-    <row r="295">
+      <c r="C294" s="8"/>
+    </row>
+    <row r="295" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1"/>
       <c r="B295" s="10"/>
-      <c r="C295" s="12"/>
-    </row>
-    <row r="296">
+      <c r="C295" s="8"/>
+    </row>
+    <row r="296" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="6" t="s">
         <v>290</v>
       </c>
@@ -4898,7 +4900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="6" t="s">
         <v>290</v>
       </c>
@@ -4909,7 +4911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="6" t="s">
         <v>290</v>
       </c>
@@ -4920,7 +4922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="6" t="s">
         <v>290</v>
       </c>
@@ -4931,7 +4933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="6" t="s">
         <v>290</v>
       </c>
@@ -4942,7 +4944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="6" t="s">
         <v>290</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="6" t="s">
         <v>290</v>
       </c>
@@ -4964,7 +4966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="6" t="s">
         <v>290</v>
       </c>
@@ -4975,7 +4977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="6" t="s">
         <v>290</v>
       </c>
@@ -4986,7 +4988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="6" t="s">
         <v>290</v>
       </c>
@@ -4997,7 +4999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="6" t="s">
         <v>290</v>
       </c>
@@ -5008,7 +5010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="6" t="s">
         <v>290</v>
       </c>
@@ -5019,7 +5021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="6" t="s">
         <v>290</v>
       </c>
@@ -5030,18 +5032,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B309" s="14" t="s">
+      <c r="B309" s="11" t="s">
         <v>304</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="6" t="s">
         <v>290</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="6" t="s">
         <v>290</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="6" t="s">
         <v>290</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="6" t="s">
         <v>290</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="6" t="s">
         <v>290</v>
       </c>
@@ -5096,7 +5098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="6" t="s">
         <v>290</v>
       </c>
@@ -5107,7 +5109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="6" t="s">
         <v>290</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="6" t="s">
         <v>290</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="6" t="s">
         <v>290</v>
       </c>
@@ -5140,7 +5142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="6" t="s">
         <v>290</v>
       </c>
@@ -5151,7 +5153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="6" t="s">
         <v>290</v>
       </c>
@@ -5162,7 +5164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="6" t="s">
         <v>290</v>
       </c>
@@ -5173,7 +5175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="6" t="s">
         <v>290</v>
       </c>
@@ -5184,7 +5186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="6" t="s">
         <v>290</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="6" t="s">
         <v>290</v>
       </c>
@@ -5206,7 +5208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="6" t="s">
         <v>290</v>
       </c>
@@ -5217,7 +5219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="6" t="s">
         <v>290</v>
       </c>
@@ -5228,7 +5230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="6" t="s">
         <v>290</v>
       </c>
@@ -5239,7 +5241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="6" t="s">
         <v>290</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="6" t="s">
         <v>290</v>
       </c>
@@ -5261,7 +5263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="6" t="s">
         <v>290</v>
       </c>
@@ -5272,7 +5274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="6" t="s">
         <v>290</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="6" t="s">
         <v>290</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="6" t="s">
         <v>290</v>
       </c>
@@ -5305,17 +5307,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1"/>
       <c r="B334" s="10"/>
-      <c r="C334" s="12"/>
-    </row>
-    <row r="335">
+      <c r="C334" s="8"/>
+    </row>
+    <row r="335" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1"/>
       <c r="B335" s="10"/>
-      <c r="C335" s="12"/>
-    </row>
-    <row r="336">
+      <c r="C335" s="8"/>
+    </row>
+    <row r="336" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="6" t="s">
         <v>329</v>
       </c>
@@ -5326,7 +5328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="6" t="s">
         <v>329</v>
       </c>
@@ -5337,7 +5339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="6" t="s">
         <v>329</v>
       </c>
@@ -5348,7 +5350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="6" t="s">
         <v>329</v>
       </c>
@@ -5359,7 +5361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="6" t="s">
         <v>329</v>
       </c>
@@ -5370,7 +5372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="6" t="s">
         <v>329</v>
       </c>
@@ -5381,7 +5383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="6" t="s">
         <v>329</v>
       </c>
@@ -5392,7 +5394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="6" t="s">
         <v>329</v>
       </c>
@@ -5403,18 +5405,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B344" s="14" t="s">
+      <c r="B344" s="11" t="s">
         <v>338</v>
       </c>
       <c r="C344" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="6" t="s">
         <v>329</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="6" t="s">
         <v>329</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="6" t="s">
         <v>329</v>
       </c>
@@ -5447,7 +5449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="6" t="s">
         <v>329</v>
       </c>
@@ -5458,7 +5460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="6" t="s">
         <v>329</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="6" t="s">
         <v>329</v>
       </c>
@@ -5480,7 +5482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="6" t="s">
         <v>329</v>
       </c>
@@ -5491,7 +5493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="6" t="s">
         <v>329</v>
       </c>
@@ -5502,7 +5504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="6" t="s">
         <v>329</v>
       </c>
@@ -5513,17 +5515,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1"/>
       <c r="B354" s="10"/>
-      <c r="C354" s="12"/>
-    </row>
-    <row r="355">
+      <c r="C354" s="8"/>
+    </row>
+    <row r="355" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1"/>
       <c r="B355" s="10"/>
-      <c r="C355" s="12"/>
-    </row>
-    <row r="356">
+      <c r="C355" s="8"/>
+    </row>
+    <row r="356" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="6" t="s">
         <v>348</v>
       </c>
@@ -5534,7 +5536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="6" t="s">
         <v>348</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="6" t="s">
         <v>348</v>
       </c>
@@ -5556,7 +5558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="6" t="s">
         <v>348</v>
       </c>
@@ -5567,7 +5569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="6" t="s">
         <v>348</v>
       </c>
@@ -5578,7 +5580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="6" t="s">
         <v>348</v>
       </c>
@@ -5589,7 +5591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="6" t="s">
         <v>348</v>
       </c>
@@ -5600,7 +5602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="6" t="s">
         <v>348</v>
       </c>
@@ -5611,7 +5613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="6" t="s">
         <v>348</v>
       </c>
@@ -5622,7 +5624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="6" t="s">
         <v>348</v>
       </c>
@@ -5633,7 +5635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="6" t="s">
         <v>348</v>
       </c>
@@ -5644,7 +5646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="6" t="s">
         <v>348</v>
       </c>
@@ -5655,7 +5657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="6" t="s">
         <v>348</v>
       </c>
@@ -5666,7 +5668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="6" t="s">
         <v>348</v>
       </c>
@@ -5677,7 +5679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="6" t="s">
         <v>348</v>
       </c>
@@ -5688,7 +5690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="6" t="s">
         <v>348</v>
       </c>
@@ -5699,7 +5701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="6" t="s">
         <v>348</v>
       </c>
@@ -5710,7 +5712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="6" t="s">
         <v>348</v>
       </c>
@@ -5721,7 +5723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="6" t="s">
         <v>348</v>
       </c>
@@ -5732,7 +5734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="6" t="s">
         <v>348</v>
       </c>
@@ -5743,7 +5745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="6" t="s">
         <v>348</v>
       </c>
@@ -5754,7 +5756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="6" t="s">
         <v>348</v>
       </c>
@@ -5765,7 +5767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="6" t="s">
         <v>348</v>
       </c>
@@ -5776,7 +5778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="6" t="s">
         <v>348</v>
       </c>
@@ -5787,7 +5789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="6" t="s">
         <v>348</v>
       </c>
@@ -5798,7 +5800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="6" t="s">
         <v>348</v>
       </c>
@@ -5809,7 +5811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="6" t="s">
         <v>348</v>
       </c>
@@ -5820,7 +5822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="6" t="s">
         <v>348</v>
       </c>
@@ -5831,7 +5833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="6" t="s">
         <v>348</v>
       </c>
@@ -5842,7 +5844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="6" t="s">
         <v>348</v>
       </c>
@@ -5853,7 +5855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="6" t="s">
         <v>348</v>
       </c>
@@ -5864,7 +5866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="6" t="s">
         <v>348</v>
       </c>
@@ -5875,7 +5877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="6" t="s">
         <v>348</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="6" t="s">
         <v>348</v>
       </c>
@@ -5897,7 +5899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="6" t="s">
         <v>348</v>
       </c>
@@ -5908,7 +5910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="6" t="s">
         <v>348</v>
       </c>
@@ -5919,7 +5921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="6" t="s">
         <v>348</v>
       </c>
@@ -5930,7 +5932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="6" t="s">
         <v>348</v>
       </c>
@@ -5941,7 +5943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="6" t="s">
         <v>348</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="6" t="s">
         <v>348</v>
       </c>
@@ -5963,7 +5965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="6" t="s">
         <v>348</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="6" t="s">
         <v>348</v>
       </c>
@@ -5985,7 +5987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="6" t="s">
         <v>348</v>
       </c>
@@ -5996,7 +5998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="6" t="s">
         <v>348</v>
       </c>
@@ -6007,17 +6009,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1"/>
       <c r="B400" s="10"/>
-      <c r="C400" s="12"/>
-    </row>
-    <row r="401">
+      <c r="C400" s="8"/>
+    </row>
+    <row r="401" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1"/>
       <c r="B401" s="10"/>
-      <c r="C401" s="12"/>
-    </row>
-    <row r="402">
+      <c r="C401" s="8"/>
+    </row>
+    <row r="402" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="6" t="s">
         <v>392</v>
       </c>
@@ -6028,7 +6030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="6" t="s">
         <v>392</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="6" t="s">
         <v>392</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="6" t="s">
         <v>392</v>
       </c>
@@ -6061,7 +6063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="6" t="s">
         <v>392</v>
       </c>
@@ -6072,7 +6074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="6" t="s">
         <v>392</v>
       </c>
@@ -6083,17 +6085,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1"/>
       <c r="B408" s="10"/>
-      <c r="C408" s="12"/>
-    </row>
-    <row r="409">
+      <c r="C408" s="8"/>
+    </row>
+    <row r="409" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1"/>
       <c r="B409" s="10"/>
-      <c r="C409" s="12"/>
-    </row>
-    <row r="410">
+      <c r="C409" s="8"/>
+    </row>
+    <row r="410" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="6" t="s">
         <v>398</v>
       </c>
@@ -6104,7 +6106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="6" t="s">
         <v>398</v>
       </c>
@@ -6115,7 +6117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="6" t="s">
         <v>398</v>
       </c>
@@ -6126,7 +6128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="6" t="s">
         <v>398</v>
       </c>
@@ -6137,7 +6139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="6" t="s">
         <v>398</v>
       </c>
@@ -6148,7 +6150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="6" t="s">
         <v>398</v>
       </c>
@@ -6159,7 +6161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="6" t="s">
         <v>398</v>
       </c>
@@ -6170,7 +6172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="6" t="s">
         <v>398</v>
       </c>
@@ -6181,7 +6183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="6" t="s">
         <v>398</v>
       </c>
@@ -6192,7 +6194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="6" t="s">
         <v>398</v>
       </c>
@@ -6203,7 +6205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="6" t="s">
         <v>398</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="6" t="s">
         <v>398</v>
       </c>
@@ -6225,7 +6227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="6" t="s">
         <v>398</v>
       </c>
@@ -6236,7 +6238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="6" t="s">
         <v>398</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="6" t="s">
         <v>398</v>
       </c>
@@ -6258,7 +6260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="6" t="s">
         <v>398</v>
       </c>
@@ -6269,7 +6271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="6" t="s">
         <v>398</v>
       </c>
@@ -6280,7 +6282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="6" t="s">
         <v>398</v>
       </c>
@@ -6291,7 +6293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="6" t="s">
         <v>398</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="6" t="s">
         <v>398</v>
       </c>
@@ -6313,7 +6315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="6" t="s">
         <v>398</v>
       </c>
@@ -6324,7 +6326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="6" t="s">
         <v>398</v>
       </c>
@@ -6335,7 +6337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="6" t="s">
         <v>398</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="6" t="s">
         <v>398</v>
       </c>
@@ -6357,7 +6359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="6" t="s">
         <v>398</v>
       </c>
@@ -6368,7 +6370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="6" t="s">
         <v>398</v>
       </c>
@@ -6379,7 +6381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="6" t="s">
         <v>398</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="6" t="s">
         <v>398</v>
       </c>
@@ -6401,7 +6403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="6" t="s">
         <v>398</v>
       </c>
@@ -6412,7 +6414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="6" t="s">
         <v>398</v>
       </c>
@@ -6423,7 +6425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="6" t="s">
         <v>398</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="6" t="s">
         <v>398</v>
       </c>
@@ -6445,7 +6447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="6" t="s">
         <v>398</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="6" t="s">
         <v>398</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="6" t="s">
         <v>398</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="6" t="s">
         <v>398</v>
       </c>
@@ -6489,7 +6491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="6" t="s">
         <v>398</v>
       </c>
@@ -6500,7 +6502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="6" t="s">
         <v>398</v>
       </c>
@@ -6511,7 +6513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="6" t="s">
         <v>398</v>
       </c>
@@ -6522,7 +6524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="6" t="s">
         <v>398</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="6" t="s">
         <v>398</v>
       </c>
@@ -6544,7 +6546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="6" t="s">
         <v>398</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="6" t="s">
         <v>398</v>
       </c>
@@ -6566,7 +6568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="6" t="s">
         <v>398</v>
       </c>
@@ -6577,7 +6579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="6" t="s">
         <v>398</v>
       </c>
@@ -6588,7 +6590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="6" t="s">
         <v>398</v>
       </c>
@@ -6599,7 +6601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="6" t="s">
         <v>398</v>
       </c>
@@ -6610,7 +6612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="6" t="s">
         <v>398</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="6" t="s">
         <v>398</v>
       </c>
@@ -6632,7 +6634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="6" t="s">
         <v>398</v>
       </c>
@@ -6643,7 +6645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="6" t="s">
         <v>398</v>
       </c>
@@ -6654,7 +6656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="6" t="s">
         <v>398</v>
       </c>
@@ -6665,7 +6667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="6" t="s">
         <v>398</v>
       </c>
@@ -6676,7 +6678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="6" t="s">
         <v>398</v>
       </c>
@@ -6687,7 +6689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="6" t="s">
         <v>398</v>
       </c>
@@ -6698,7 +6700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="6" t="s">
         <v>398</v>
       </c>
@@ -6709,7 +6711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="6" t="s">
         <v>398</v>
       </c>
@@ -6720,7 +6722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="6" t="s">
         <v>398</v>
       </c>
@@ -6731,7 +6733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="6" t="s">
         <v>398</v>
       </c>
@@ -6742,7 +6744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="6" t="s">
         <v>398</v>
       </c>
@@ -6753,17 +6755,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1"/>
       <c r="B470" s="10"/>
-      <c r="C470" s="12"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="11"/>
+      <c r="C470" s="8"/>
+    </row>
+    <row r="471" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A471" s="6"/>
       <c r="B471" s="10"/>
-      <c r="C471" s="12"/>
-    </row>
-    <row r="472">
+      <c r="C471" s="8"/>
+    </row>
+    <row r="472" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="6" t="s">
         <v>458</v>
       </c>
@@ -6774,7 +6776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="6" t="s">
         <v>458</v>
       </c>
@@ -6785,7 +6787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="6" t="s">
         <v>458</v>
       </c>
@@ -6796,7 +6798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="6" t="s">
         <v>458</v>
       </c>
@@ -6807,7 +6809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="6" t="s">
         <v>458</v>
       </c>
@@ -6818,7 +6820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="6" t="s">
         <v>458</v>
       </c>
@@ -6829,7 +6831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="6" t="s">
         <v>458</v>
       </c>
@@ -6840,7 +6842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="6" t="s">
         <v>458</v>
       </c>
@@ -6851,7 +6853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="6" t="s">
         <v>458</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="6" t="s">
         <v>458</v>
       </c>
@@ -6875,453 +6877,453 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B6"/>
-    <hyperlink r:id="rId3" ref="B7"/>
-    <hyperlink r:id="rId4" ref="B8"/>
-    <hyperlink r:id="rId5" ref="B9"/>
-    <hyperlink r:id="rId6" ref="B10"/>
-    <hyperlink r:id="rId7" ref="B11"/>
-    <hyperlink r:id="rId8" ref="B12"/>
-    <hyperlink r:id="rId9" ref="B13"/>
-    <hyperlink r:id="rId10" ref="B14"/>
-    <hyperlink r:id="rId11" ref="B15"/>
-    <hyperlink r:id="rId12" ref="B16"/>
-    <hyperlink r:id="rId13" ref="B17"/>
-    <hyperlink r:id="rId14" ref="B18"/>
-    <hyperlink r:id="rId15" ref="B19"/>
-    <hyperlink r:id="rId16" ref="B20"/>
-    <hyperlink r:id="rId17" ref="B21"/>
-    <hyperlink r:id="rId18" ref="B22"/>
-    <hyperlink r:id="rId19" ref="B23"/>
-    <hyperlink r:id="rId20" ref="B24"/>
-    <hyperlink r:id="rId21" ref="B25"/>
-    <hyperlink r:id="rId22" ref="B26"/>
-    <hyperlink r:id="rId23" ref="B27"/>
-    <hyperlink r:id="rId24" ref="B28"/>
-    <hyperlink r:id="rId25" ref="B29"/>
-    <hyperlink r:id="rId26" ref="B30"/>
-    <hyperlink r:id="rId27" ref="B31"/>
-    <hyperlink r:id="rId28" ref="B32"/>
-    <hyperlink r:id="rId29" ref="B33"/>
-    <hyperlink r:id="rId30" ref="B34"/>
-    <hyperlink r:id="rId31" ref="B35"/>
-    <hyperlink r:id="rId32" ref="B36"/>
-    <hyperlink r:id="rId33" ref="B37"/>
-    <hyperlink r:id="rId34" ref="B38"/>
-    <hyperlink r:id="rId35" ref="B39"/>
-    <hyperlink r:id="rId36" ref="B40"/>
-    <hyperlink r:id="rId37" ref="B41"/>
-    <hyperlink r:id="rId38" ref="B44"/>
-    <hyperlink r:id="rId39" ref="B45"/>
-    <hyperlink r:id="rId40" ref="B46"/>
-    <hyperlink r:id="rId41" ref="B47"/>
-    <hyperlink r:id="rId42" ref="B48"/>
-    <hyperlink r:id="rId43" ref="B49"/>
-    <hyperlink r:id="rId44" ref="B50"/>
-    <hyperlink r:id="rId45" ref="B51"/>
-    <hyperlink r:id="rId46" ref="B52"/>
-    <hyperlink r:id="rId47" ref="B53"/>
-    <hyperlink r:id="rId48" ref="B56"/>
-    <hyperlink r:id="rId49" ref="B57"/>
-    <hyperlink r:id="rId50" ref="B58"/>
-    <hyperlink r:id="rId51" ref="B60"/>
-    <hyperlink r:id="rId52" ref="B61"/>
-    <hyperlink r:id="rId53" ref="B62"/>
-    <hyperlink r:id="rId54" ref="B63"/>
-    <hyperlink r:id="rId55" ref="B64"/>
-    <hyperlink r:id="rId56" ref="B65"/>
-    <hyperlink r:id="rId57" ref="B66"/>
-    <hyperlink r:id="rId58" ref="B67"/>
-    <hyperlink r:id="rId59" ref="B68"/>
-    <hyperlink r:id="rId60" ref="B69"/>
-    <hyperlink r:id="rId61" ref="B70"/>
-    <hyperlink r:id="rId62" ref="B71"/>
-    <hyperlink r:id="rId63" ref="B72"/>
-    <hyperlink r:id="rId64" ref="B73"/>
-    <hyperlink r:id="rId65" ref="B74"/>
-    <hyperlink r:id="rId66" ref="B75"/>
-    <hyperlink r:id="rId67" ref="B76"/>
-    <hyperlink r:id="rId68" ref="B77"/>
-    <hyperlink r:id="rId69" ref="B78"/>
-    <hyperlink r:id="rId70" ref="B79"/>
-    <hyperlink r:id="rId71" ref="B80"/>
-    <hyperlink r:id="rId72" ref="B81"/>
-    <hyperlink r:id="rId73" ref="B82"/>
-    <hyperlink r:id="rId74" ref="B83"/>
-    <hyperlink r:id="rId75" ref="B84"/>
-    <hyperlink r:id="rId76" ref="B85"/>
-    <hyperlink r:id="rId77" ref="B86"/>
-    <hyperlink r:id="rId78" ref="B87"/>
-    <hyperlink r:id="rId79" ref="B88"/>
-    <hyperlink r:id="rId80" ref="B89"/>
-    <hyperlink r:id="rId81" ref="B90"/>
-    <hyperlink r:id="rId82" ref="B91"/>
-    <hyperlink r:id="rId83" ref="B92"/>
-    <hyperlink r:id="rId84" ref="B93"/>
-    <hyperlink r:id="rId85" ref="B94"/>
-    <hyperlink r:id="rId86" ref="B95"/>
-    <hyperlink r:id="rId87" ref="B96"/>
-    <hyperlink r:id="rId88" ref="B97"/>
-    <hyperlink r:id="rId89" ref="B98"/>
-    <hyperlink r:id="rId90" ref="B101"/>
-    <hyperlink r:id="rId91" ref="B102"/>
-    <hyperlink r:id="rId92" ref="B103"/>
-    <hyperlink r:id="rId93" ref="B104"/>
-    <hyperlink r:id="rId94" ref="B105"/>
-    <hyperlink r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." ref="B106"/>
-    <hyperlink r:id="rId96" ref="B107"/>
-    <hyperlink r:id="rId97" ref="B108"/>
-    <hyperlink r:id="rId98" ref="B109"/>
-    <hyperlink r:id="rId99" ref="B110"/>
-    <hyperlink r:id="rId100" ref="B111"/>
-    <hyperlink r:id="rId101" ref="B112"/>
-    <hyperlink r:id="rId102" ref="B113"/>
-    <hyperlink r:id="rId103" ref="B114"/>
-    <hyperlink r:id="rId104" ref="B115"/>
-    <hyperlink r:id="rId105" ref="B116"/>
-    <hyperlink r:id="rId106" ref="B117"/>
-    <hyperlink r:id="rId107" ref="B118"/>
-    <hyperlink r:id="rId108" ref="B119"/>
-    <hyperlink r:id="rId109" ref="B120"/>
-    <hyperlink r:id="rId110" ref="B121"/>
-    <hyperlink r:id="rId111" ref="B122"/>
-    <hyperlink r:id="rId112" ref="B123"/>
-    <hyperlink r:id="rId113" ref="B124"/>
-    <hyperlink r:id="rId114" ref="B125"/>
-    <hyperlink r:id="rId115" ref="B126"/>
-    <hyperlink r:id="rId116" ref="B127"/>
-    <hyperlink r:id="rId117" ref="B128"/>
-    <hyperlink r:id="rId118" ref="B129"/>
-    <hyperlink r:id="rId119" ref="B130"/>
-    <hyperlink r:id="rId120" ref="B131"/>
-    <hyperlink r:id="rId121" ref="B132"/>
-    <hyperlink r:id="rId122" ref="B133"/>
-    <hyperlink r:id="rId123" ref="B134"/>
-    <hyperlink r:id="rId124" ref="B135"/>
-    <hyperlink r:id="rId125" ref="B136"/>
-    <hyperlink r:id="rId126" ref="B139"/>
-    <hyperlink r:id="rId127" ref="B140"/>
-    <hyperlink r:id="rId128" ref="B141"/>
-    <hyperlink r:id="rId129" ref="B142"/>
-    <hyperlink r:id="rId130" ref="B143"/>
-    <hyperlink r:id="rId131" ref="B144"/>
-    <hyperlink r:id="rId132" ref="B145"/>
-    <hyperlink r:id="rId133" ref="B146"/>
-    <hyperlink r:id="rId134" ref="B147"/>
-    <hyperlink r:id="rId135" ref="B148"/>
-    <hyperlink r:id="rId136" ref="B149"/>
-    <hyperlink r:id="rId137" ref="B150"/>
-    <hyperlink r:id="rId138" ref="B151"/>
-    <hyperlink r:id="rId139" ref="B152"/>
-    <hyperlink r:id="rId140" ref="B153"/>
-    <hyperlink r:id="rId141" ref="B154"/>
-    <hyperlink r:id="rId142" ref="B155"/>
-    <hyperlink r:id="rId143" ref="B156"/>
-    <hyperlink r:id="rId144" ref="B157"/>
-    <hyperlink r:id="rId145" ref="B158"/>
-    <hyperlink r:id="rId146" ref="B159"/>
-    <hyperlink r:id="rId147" ref="B160"/>
-    <hyperlink r:id="rId148" ref="B161"/>
-    <hyperlink r:id="rId149" ref="B162"/>
-    <hyperlink r:id="rId150" ref="B163"/>
-    <hyperlink r:id="rId151" ref="B166"/>
-    <hyperlink r:id="rId152" ref="B167"/>
-    <hyperlink r:id="rId153" ref="B168"/>
-    <hyperlink r:id="rId154" ref="B169"/>
-    <hyperlink r:id="rId155" ref="B170"/>
-    <hyperlink r:id="rId156" ref="B171"/>
-    <hyperlink r:id="rId157" ref="B172"/>
-    <hyperlink r:id="rId158" ref="B173"/>
-    <hyperlink r:id="rId159" ref="B174"/>
-    <hyperlink r:id="rId160" ref="B177"/>
-    <hyperlink r:id="rId161" ref="B178"/>
-    <hyperlink r:id="rId162" ref="B179"/>
-    <hyperlink r:id="rId163" ref="B180"/>
-    <hyperlink r:id="rId164" ref="B181"/>
-    <hyperlink r:id="rId165" ref="B182"/>
-    <hyperlink r:id="rId166" ref="B183"/>
-    <hyperlink r:id="rId167" ref="B184"/>
-    <hyperlink r:id="rId168" ref="B185"/>
-    <hyperlink r:id="rId169" ref="B186"/>
-    <hyperlink r:id="rId170" ref="B187"/>
-    <hyperlink r:id="rId171" ref="B188"/>
-    <hyperlink r:id="rId172" ref="B189"/>
-    <hyperlink r:id="rId173" ref="B190"/>
-    <hyperlink r:id="rId174" ref="B191"/>
-    <hyperlink r:id="rId175" ref="B192"/>
-    <hyperlink r:id="rId176" ref="B193"/>
-    <hyperlink r:id="rId177" ref="B194"/>
-    <hyperlink r:id="rId178" ref="B195"/>
-    <hyperlink r:id="rId179" ref="B196"/>
-    <hyperlink r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." ref="B197"/>
-    <hyperlink r:id="rId181" ref="B198"/>
-    <hyperlink r:id="rId182" ref="B199"/>
-    <hyperlink r:id="rId183" ref="B200"/>
-    <hyperlink r:id="rId184" ref="B201"/>
-    <hyperlink r:id="rId185" ref="B202"/>
-    <hyperlink r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." ref="B203"/>
-    <hyperlink r:id="rId187" ref="B204"/>
-    <hyperlink r:id="rId188" ref="B205"/>
-    <hyperlink r:id="rId189" ref="B206"/>
-    <hyperlink r:id="rId190" ref="B207"/>
-    <hyperlink r:id="rId191" ref="B208"/>
-    <hyperlink r:id="rId192" ref="B209"/>
-    <hyperlink r:id="rId193" ref="B210"/>
-    <hyperlink r:id="rId194" ref="B211"/>
-    <hyperlink r:id="rId195" ref="B214"/>
-    <hyperlink r:id="rId196" ref="B215"/>
-    <hyperlink r:id="rId197" ref="B216"/>
-    <hyperlink r:id="rId198" ref="B217"/>
-    <hyperlink r:id="rId199" ref="B218"/>
-    <hyperlink r:id="rId200" ref="B219"/>
-    <hyperlink r:id="rId201" ref="B220"/>
-    <hyperlink r:id="rId202" ref="B221"/>
-    <hyperlink r:id="rId203" ref="B222"/>
-    <hyperlink r:id="rId204" ref="B223"/>
-    <hyperlink r:id="rId205" ref="B224"/>
-    <hyperlink r:id="rId206" ref="B225"/>
-    <hyperlink r:id="rId207" ref="B226"/>
-    <hyperlink r:id="rId208" ref="B227"/>
-    <hyperlink r:id="rId209" ref="B228"/>
-    <hyperlink r:id="rId210" ref="B229"/>
-    <hyperlink r:id="rId211" ref="B230"/>
-    <hyperlink r:id="rId212" ref="B231"/>
-    <hyperlink r:id="rId213" ref="B232"/>
-    <hyperlink r:id="rId214" ref="B233"/>
-    <hyperlink r:id="rId215" ref="B234"/>
-    <hyperlink r:id="rId216" ref="B235"/>
-    <hyperlink r:id="rId217" ref="B238"/>
-    <hyperlink r:id="rId218" ref="B239"/>
-    <hyperlink r:id="rId219" ref="B240"/>
-    <hyperlink r:id="rId220" ref="B241"/>
-    <hyperlink r:id="rId221" ref="B242"/>
-    <hyperlink r:id="rId222" ref="B243"/>
-    <hyperlink r:id="rId223" ref="B244"/>
-    <hyperlink r:id="rId224" ref="B245"/>
-    <hyperlink r:id="rId225" ref="B246"/>
-    <hyperlink r:id="rId226" ref="B247"/>
-    <hyperlink r:id="rId227" ref="B248"/>
-    <hyperlink r:id="rId228" ref="B249"/>
-    <hyperlink r:id="rId229" ref="B250"/>
-    <hyperlink r:id="rId230" ref="B251"/>
-    <hyperlink r:id="rId231" ref="B252"/>
-    <hyperlink r:id="rId232" ref="B253"/>
-    <hyperlink r:id="rId233" ref="B254"/>
-    <hyperlink r:id="rId234" ref="B255"/>
-    <hyperlink r:id="rId235" ref="B256"/>
-    <hyperlink r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." ref="B257"/>
-    <hyperlink r:id="rId237" ref="B258"/>
-    <hyperlink r:id="rId238" ref="B259"/>
-    <hyperlink r:id="rId239" ref="B260"/>
-    <hyperlink r:id="rId240" ref="B261"/>
-    <hyperlink r:id="rId241" ref="B262"/>
-    <hyperlink r:id="rId242" ref="B263"/>
-    <hyperlink r:id="rId243" ref="B264"/>
-    <hyperlink r:id="rId244" ref="B265"/>
-    <hyperlink r:id="rId245" ref="B266"/>
-    <hyperlink r:id="rId246" ref="B267"/>
-    <hyperlink r:id="rId247" ref="B268"/>
-    <hyperlink r:id="rId248" ref="B269"/>
-    <hyperlink r:id="rId249" ref="B270"/>
-    <hyperlink r:id="rId250" ref="B271"/>
-    <hyperlink r:id="rId251" ref="B272"/>
-    <hyperlink r:id="rId252" ref="B275"/>
-    <hyperlink r:id="rId253" ref="B276"/>
-    <hyperlink r:id="rId254" ref="B277"/>
-    <hyperlink r:id="rId255" ref="B278"/>
-    <hyperlink r:id="rId256" ref="B279"/>
-    <hyperlink r:id="rId257" ref="B280"/>
-    <hyperlink r:id="rId258" ref="B281"/>
-    <hyperlink r:id="rId259" ref="B282"/>
-    <hyperlink r:id="rId260" ref="B283"/>
-    <hyperlink r:id="rId261" ref="B284"/>
-    <hyperlink r:id="rId262" ref="B285"/>
-    <hyperlink r:id="rId263" ref="B286"/>
-    <hyperlink r:id="rId264" ref="B287"/>
-    <hyperlink r:id="rId265" ref="B288"/>
-    <hyperlink r:id="rId266" ref="B289"/>
-    <hyperlink r:id="rId267" ref="B290"/>
-    <hyperlink r:id="rId268" ref="B291"/>
-    <hyperlink r:id="rId269" ref="B292"/>
-    <hyperlink r:id="rId270" ref="B293"/>
-    <hyperlink r:id="rId271" ref="B296"/>
-    <hyperlink r:id="rId272" ref="B297"/>
-    <hyperlink r:id="rId273" ref="B298"/>
-    <hyperlink r:id="rId274" ref="B299"/>
-    <hyperlink r:id="rId275" ref="B300"/>
-    <hyperlink r:id="rId276" ref="B301"/>
-    <hyperlink r:id="rId277" ref="B302"/>
-    <hyperlink r:id="rId278" ref="B303"/>
-    <hyperlink r:id="rId279" ref="B304"/>
-    <hyperlink r:id="rId280" ref="B305"/>
-    <hyperlink r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." ref="B306"/>
-    <hyperlink r:id="rId282" ref="B307"/>
-    <hyperlink r:id="rId283" ref="B308"/>
-    <hyperlink r:id="rId284" ref="B309"/>
-    <hyperlink r:id="rId285" ref="B310"/>
-    <hyperlink r:id="rId286" ref="B311"/>
-    <hyperlink r:id="rId287" ref="B312"/>
-    <hyperlink r:id="rId288" ref="B313"/>
-    <hyperlink r:id="rId289" ref="B314"/>
-    <hyperlink r:id="rId290" ref="B315"/>
-    <hyperlink r:id="rId291" ref="B316"/>
-    <hyperlink r:id="rId292" ref="B317"/>
-    <hyperlink r:id="rId293" ref="B318"/>
-    <hyperlink r:id="rId294" ref="B319"/>
-    <hyperlink r:id="rId295" ref="B320"/>
-    <hyperlink r:id="rId296" ref="B321"/>
-    <hyperlink r:id="rId297" ref="B322"/>
-    <hyperlink r:id="rId298" ref="B323"/>
-    <hyperlink r:id="rId299" ref="B324"/>
-    <hyperlink r:id="rId300" ref="B325"/>
-    <hyperlink r:id="rId301" ref="B326"/>
-    <hyperlink r:id="rId302" ref="B327"/>
-    <hyperlink r:id="rId303" ref="B328"/>
-    <hyperlink r:id="rId304" ref="B329"/>
-    <hyperlink r:id="rId305" ref="B330"/>
-    <hyperlink r:id="rId306" ref="B331"/>
-    <hyperlink r:id="rId307" ref="B332"/>
-    <hyperlink r:id="rId308" ref="B333"/>
-    <hyperlink r:id="rId309" ref="B336"/>
-    <hyperlink r:id="rId310" ref="B337"/>
-    <hyperlink r:id="rId311" ref="B338"/>
-    <hyperlink r:id="rId312" ref="B339"/>
-    <hyperlink r:id="rId313" ref="B340"/>
-    <hyperlink r:id="rId314" ref="B341"/>
-    <hyperlink r:id="rId315" ref="B342"/>
-    <hyperlink r:id="rId316" ref="B343"/>
-    <hyperlink r:id="rId317" ref="B344"/>
-    <hyperlink r:id="rId318" ref="B345"/>
-    <hyperlink r:id="rId319" ref="B346"/>
-    <hyperlink r:id="rId320" ref="B347"/>
-    <hyperlink r:id="rId321" ref="B348"/>
-    <hyperlink r:id="rId322" ref="B349"/>
-    <hyperlink r:id="rId323" ref="B350"/>
-    <hyperlink r:id="rId324" ref="B351"/>
-    <hyperlink r:id="rId325" ref="B352"/>
-    <hyperlink r:id="rId326" ref="B353"/>
-    <hyperlink r:id="rId327" ref="B356"/>
-    <hyperlink r:id="rId328" ref="B357"/>
-    <hyperlink r:id="rId329" ref="B358"/>
-    <hyperlink r:id="rId330" ref="B359"/>
-    <hyperlink r:id="rId331" ref="B360"/>
-    <hyperlink r:id="rId332" ref="B361"/>
-    <hyperlink r:id="rId333" ref="B362"/>
-    <hyperlink r:id="rId334" ref="B363"/>
-    <hyperlink r:id="rId335" ref="B364"/>
-    <hyperlink r:id="rId336" ref="B365"/>
-    <hyperlink r:id="rId337" ref="B366"/>
-    <hyperlink r:id="rId338" ref="B367"/>
-    <hyperlink r:id="rId339" ref="B368"/>
-    <hyperlink r:id="rId340" ref="B369"/>
-    <hyperlink r:id="rId341" ref="B370"/>
-    <hyperlink r:id="rId342" ref="B371"/>
-    <hyperlink r:id="rId343" ref="B372"/>
-    <hyperlink r:id="rId344" ref="B373"/>
-    <hyperlink r:id="rId345" ref="B374"/>
-    <hyperlink r:id="rId346" ref="B375"/>
-    <hyperlink r:id="rId347" ref="B376"/>
-    <hyperlink r:id="rId348" ref="B377"/>
-    <hyperlink r:id="rId349" ref="B378"/>
-    <hyperlink r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." ref="B379"/>
-    <hyperlink r:id="rId351" ref="B380"/>
-    <hyperlink r:id="rId352" ref="B381"/>
-    <hyperlink r:id="rId353" ref="B382"/>
-    <hyperlink r:id="rId354" ref="B383"/>
-    <hyperlink r:id="rId355" ref="B384"/>
-    <hyperlink r:id="rId356" ref="B385"/>
-    <hyperlink r:id="rId357" ref="B386"/>
-    <hyperlink r:id="rId358" ref="B387"/>
-    <hyperlink r:id="rId359" ref="B388"/>
-    <hyperlink r:id="rId360" ref="B389"/>
-    <hyperlink r:id="rId361" ref="B390"/>
-    <hyperlink r:id="rId362" ref="B391"/>
-    <hyperlink r:id="rId363" ref="B392"/>
-    <hyperlink r:id="rId364" ref="B393"/>
-    <hyperlink r:id="rId365" ref="B394"/>
-    <hyperlink r:id="rId366" ref="B395"/>
-    <hyperlink r:id="rId367" ref="B396"/>
-    <hyperlink r:id="rId368" ref="B397"/>
-    <hyperlink r:id="rId369" ref="B398"/>
-    <hyperlink r:id="rId370" ref="B399"/>
-    <hyperlink r:id="rId371" ref="B402"/>
-    <hyperlink r:id="rId372" ref="B403"/>
-    <hyperlink r:id="rId373" ref="B404"/>
-    <hyperlink r:id="rId374" ref="B405"/>
-    <hyperlink r:id="rId375" ref="B406"/>
-    <hyperlink r:id="rId376" ref="B407"/>
-    <hyperlink r:id="rId377" ref="B410"/>
-    <hyperlink r:id="rId378" ref="B411"/>
-    <hyperlink r:id="rId379" ref="B412"/>
-    <hyperlink r:id="rId380" ref="B413"/>
-    <hyperlink r:id="rId381" ref="B414"/>
-    <hyperlink r:id="rId382" ref="B415"/>
-    <hyperlink r:id="rId383" ref="B416"/>
-    <hyperlink r:id="rId384" ref="B417"/>
-    <hyperlink r:id="rId385" ref="B418"/>
-    <hyperlink r:id="rId386" ref="B419"/>
-    <hyperlink r:id="rId387" ref="B420"/>
-    <hyperlink r:id="rId388" ref="B421"/>
-    <hyperlink r:id="rId389" ref="B422"/>
-    <hyperlink r:id="rId390" ref="B423"/>
-    <hyperlink r:id="rId391" ref="B424"/>
-    <hyperlink r:id="rId392" ref="B425"/>
-    <hyperlink r:id="rId393" ref="B426"/>
-    <hyperlink r:id="rId394" ref="B427"/>
-    <hyperlink r:id="rId395" ref="B428"/>
-    <hyperlink r:id="rId396" ref="B429"/>
-    <hyperlink r:id="rId397" ref="B430"/>
-    <hyperlink r:id="rId398" ref="B431"/>
-    <hyperlink r:id="rId399" ref="B432"/>
-    <hyperlink r:id="rId400" ref="B433"/>
-    <hyperlink r:id="rId401" ref="B434"/>
-    <hyperlink r:id="rId402" ref="B435"/>
-    <hyperlink r:id="rId403" ref="B436"/>
-    <hyperlink r:id="rId404" ref="B437"/>
-    <hyperlink r:id="rId405" ref="B438"/>
-    <hyperlink r:id="rId406" ref="B439"/>
-    <hyperlink r:id="rId407" ref="B440"/>
-    <hyperlink r:id="rId408" ref="B441"/>
-    <hyperlink r:id="rId409" ref="B442"/>
-    <hyperlink r:id="rId410" ref="B443"/>
-    <hyperlink r:id="rId411" ref="B444"/>
-    <hyperlink r:id="rId412" ref="B445"/>
-    <hyperlink r:id="rId413" ref="B446"/>
-    <hyperlink r:id="rId414" ref="B447"/>
-    <hyperlink r:id="rId415" ref="B448"/>
-    <hyperlink r:id="rId416" ref="B449"/>
-    <hyperlink r:id="rId417" ref="B450"/>
-    <hyperlink r:id="rId418" ref="B451"/>
-    <hyperlink r:id="rId419" ref="B452"/>
-    <hyperlink r:id="rId420" ref="B453"/>
-    <hyperlink r:id="rId421" ref="B454"/>
-    <hyperlink r:id="rId422" ref="B455"/>
-    <hyperlink r:id="rId423" ref="B456"/>
-    <hyperlink r:id="rId424" ref="B457"/>
-    <hyperlink r:id="rId425" ref="B458"/>
-    <hyperlink r:id="rId426" ref="B459"/>
-    <hyperlink r:id="rId427" ref="B460"/>
-    <hyperlink r:id="rId428" ref="B461"/>
-    <hyperlink r:id="rId429" ref="B462"/>
-    <hyperlink r:id="rId430" ref="B463"/>
-    <hyperlink r:id="rId431" ref="B464"/>
-    <hyperlink r:id="rId432" ref="B465"/>
-    <hyperlink r:id="rId433" ref="B466"/>
-    <hyperlink r:id="rId434" ref="B467"/>
-    <hyperlink r:id="rId435" ref="B468"/>
-    <hyperlink r:id="rId436" ref="B469"/>
-    <hyperlink r:id="rId437" ref="B472"/>
-    <hyperlink r:id="rId438" ref="B473"/>
-    <hyperlink r:id="rId439" ref="B474"/>
-    <hyperlink r:id="rId440" ref="B475"/>
-    <hyperlink r:id="rId441" ref="B476"/>
-    <hyperlink r:id="rId442" ref="B477"/>
-    <hyperlink r:id="rId443" ref="B478"/>
-    <hyperlink r:id="rId444" ref="B479"/>
-    <hyperlink r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." ref="B480"/>
-    <hyperlink r:id="rId446" ref="B481"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
-  <drawing r:id="rId447"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4BA88E-CAE5-4168-9250-AF13F6767206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FFC6DA-E6FA-4D16-AE92-03843F29D570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1765,8 +1765,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1861,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1872,7 +1872,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FFC6DA-E6FA-4D16-AE92-03843F29D570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623C6469-3A69-411B-8143-11AECFF9B90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1766,7 +1766,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623C6469-3A69-411B-8143-11AECFF9B90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A8BEB5-B342-448E-947D-4BC5C1C26480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1765,8 +1765,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2363,7 +2363,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A8BEB5-B342-448E-947D-4BC5C1C26480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FC1A60-017F-4347-BE70-2F58B570BA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t>Yes(N)</t>
   </si>
   <si>
     <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
@@ -1765,8 +1762,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2374,7 +2371,7 @@
         <v>61</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2385,7 +2382,7 @@
         <v>62</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2393,18 +2390,16 @@
         <v>57</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>23</v>
@@ -2415,7 +2410,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>23</v>
@@ -2426,7 +2421,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>23</v>
@@ -2437,7 +2432,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>23</v>
@@ -2448,7 +2443,7 @@
         <v>57</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>23</v>
@@ -2459,7 +2454,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>23</v>
@@ -2470,7 +2465,7 @@
         <v>57</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>23</v>
@@ -2481,7 +2476,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>23</v>
@@ -2492,7 +2487,7 @@
         <v>57</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>23</v>
@@ -2503,7 +2498,7 @@
         <v>57</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>23</v>
@@ -2514,7 +2509,7 @@
         <v>57</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>23</v>
@@ -2525,7 +2520,7 @@
         <v>57</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>23</v>
@@ -2536,7 +2531,7 @@
         <v>57</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>23</v>
@@ -2547,7 +2542,7 @@
         <v>57</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>23</v>
@@ -2558,7 +2553,7 @@
         <v>57</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>23</v>
@@ -2569,7 +2564,7 @@
         <v>57</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>23</v>
@@ -2580,7 +2575,7 @@
         <v>57</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>23</v>
@@ -2591,7 +2586,7 @@
         <v>57</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>23</v>
@@ -2602,7 +2597,7 @@
         <v>57</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>23</v>
@@ -2613,7 +2608,7 @@
         <v>57</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>23</v>
@@ -2624,7 +2619,7 @@
         <v>57</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>23</v>
@@ -2635,7 +2630,7 @@
         <v>57</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>23</v>
@@ -2646,7 +2641,7 @@
         <v>57</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>23</v>
@@ -2657,7 +2652,7 @@
         <v>57</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>23</v>
@@ -2668,7 +2663,7 @@
         <v>57</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>23</v>
@@ -2679,7 +2674,7 @@
         <v>57</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>23</v>
@@ -2690,7 +2685,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>23</v>
@@ -2701,7 +2696,7 @@
         <v>57</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>23</v>
@@ -2712,7 +2707,7 @@
         <v>57</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>23</v>
@@ -2723,7 +2718,7 @@
         <v>57</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>23</v>
@@ -2734,7 +2729,7 @@
         <v>57</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>23</v>
@@ -2745,7 +2740,7 @@
         <v>57</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>23</v>
@@ -2756,7 +2751,7 @@
         <v>57</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>23</v>
@@ -2767,7 +2762,7 @@
         <v>57</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>23</v>
@@ -2778,7 +2773,7 @@
         <v>57</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>23</v>
@@ -2789,7 +2784,7 @@
         <v>57</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>23</v>
@@ -2800,7 +2795,7 @@
         <v>57</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>23</v>
@@ -2818,10 +2813,10 @@
     </row>
     <row r="101" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>7</v>
@@ -2829,10 +2824,10 @@
     </row>
     <row r="102" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>7</v>
@@ -2840,10 +2835,10 @@
     </row>
     <row r="103" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>7</v>
@@ -2851,10 +2846,10 @@
     </row>
     <row r="104" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>10</v>
@@ -2862,10 +2857,10 @@
     </row>
     <row r="105" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>23</v>
@@ -2873,10 +2868,10 @@
     </row>
     <row r="106" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>23</v>
@@ -2884,10 +2879,10 @@
     </row>
     <row r="107" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>23</v>
@@ -2895,10 +2890,10 @@
     </row>
     <row r="108" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>23</v>
@@ -2906,10 +2901,10 @@
     </row>
     <row r="109" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>23</v>
@@ -2917,10 +2912,10 @@
     </row>
     <row r="110" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>23</v>
@@ -2928,10 +2923,10 @@
     </row>
     <row r="111" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>23</v>
@@ -2939,10 +2934,10 @@
     </row>
     <row r="112" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>23</v>
@@ -2950,10 +2945,10 @@
     </row>
     <row r="113" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>23</v>
@@ -2961,10 +2956,10 @@
     </row>
     <row r="114" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>23</v>
@@ -2972,10 +2967,10 @@
     </row>
     <row r="115" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>23</v>
@@ -2983,10 +2978,10 @@
     </row>
     <row r="116" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>23</v>
@@ -2994,10 +2989,10 @@
     </row>
     <row r="117" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>23</v>
@@ -3005,10 +3000,10 @@
     </row>
     <row r="118" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>23</v>
@@ -3016,10 +3011,10 @@
     </row>
     <row r="119" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>23</v>
@@ -3027,10 +3022,10 @@
     </row>
     <row r="120" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>23</v>
@@ -3038,10 +3033,10 @@
     </row>
     <row r="121" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>23</v>
@@ -3049,10 +3044,10 @@
     </row>
     <row r="122" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>23</v>
@@ -3060,10 +3055,10 @@
     </row>
     <row r="123" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>23</v>
@@ -3071,10 +3066,10 @@
     </row>
     <row r="124" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>23</v>
@@ -3082,10 +3077,10 @@
     </row>
     <row r="125" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>23</v>
@@ -3093,10 +3088,10 @@
     </row>
     <row r="126" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>23</v>
@@ -3104,10 +3099,10 @@
     </row>
     <row r="127" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>23</v>
@@ -3115,10 +3110,10 @@
     </row>
     <row r="128" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>23</v>
@@ -3126,10 +3121,10 @@
     </row>
     <row r="129" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>23</v>
@@ -3137,10 +3132,10 @@
     </row>
     <row r="130" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>23</v>
@@ -3148,10 +3143,10 @@
     </row>
     <row r="131" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>23</v>
@@ -3159,10 +3154,10 @@
     </row>
     <row r="132" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>23</v>
@@ -3170,10 +3165,10 @@
     </row>
     <row r="133" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>23</v>
@@ -3181,10 +3176,10 @@
     </row>
     <row r="134" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>23</v>
@@ -3192,10 +3187,10 @@
     </row>
     <row r="135" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>23</v>
@@ -3203,10 +3198,10 @@
     </row>
     <row r="136" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>23</v>
@@ -3224,10 +3219,10 @@
     </row>
     <row r="139" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>7</v>
@@ -3235,10 +3230,10 @@
     </row>
     <row r="140" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>7</v>
@@ -3246,10 +3241,10 @@
     </row>
     <row r="141" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>10</v>
@@ -3257,10 +3252,10 @@
     </row>
     <row r="142" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>10</v>
@@ -3268,10 +3263,10 @@
     </row>
     <row r="143" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>23</v>
@@ -3279,10 +3274,10 @@
     </row>
     <row r="144" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>23</v>
@@ -3290,10 +3285,10 @@
     </row>
     <row r="145" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>23</v>
@@ -3301,10 +3296,10 @@
     </row>
     <row r="146" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>23</v>
@@ -3312,10 +3307,10 @@
     </row>
     <row r="147" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>23</v>
@@ -3323,10 +3318,10 @@
     </row>
     <row r="148" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>23</v>
@@ -3334,10 +3329,10 @@
     </row>
     <row r="149" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>23</v>
@@ -3345,10 +3340,10 @@
     </row>
     <row r="150" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>23</v>
@@ -3356,10 +3351,10 @@
     </row>
     <row r="151" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>23</v>
@@ -3367,10 +3362,10 @@
     </row>
     <row r="152" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>23</v>
@@ -3378,10 +3373,10 @@
     </row>
     <row r="153" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>23</v>
@@ -3389,10 +3384,10 @@
     </row>
     <row r="154" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>23</v>
@@ -3400,10 +3395,10 @@
     </row>
     <row r="155" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>23</v>
@@ -3411,10 +3406,10 @@
     </row>
     <row r="156" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>23</v>
@@ -3422,10 +3417,10 @@
     </row>
     <row r="157" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>23</v>
@@ -3433,10 +3428,10 @@
     </row>
     <row r="158" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>23</v>
@@ -3444,10 +3439,10 @@
     </row>
     <row r="159" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>23</v>
@@ -3455,10 +3450,10 @@
     </row>
     <row r="160" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>23</v>
@@ -3466,10 +3461,10 @@
     </row>
     <row r="161" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>23</v>
@@ -3477,10 +3472,10 @@
     </row>
     <row r="162" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>23</v>
@@ -3488,10 +3483,10 @@
     </row>
     <row r="163" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>23</v>
@@ -3499,10 +3494,10 @@
     </row>
     <row r="164" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>23</v>
@@ -3510,10 +3505,10 @@
     </row>
     <row r="165" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>23</v>
@@ -3521,10 +3516,10 @@
     </row>
     <row r="166" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>23</v>
@@ -3532,10 +3527,10 @@
     </row>
     <row r="167" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>23</v>
@@ -3543,10 +3538,10 @@
     </row>
     <row r="168" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>23</v>
@@ -3554,10 +3549,10 @@
     </row>
     <row r="169" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>23</v>
@@ -3565,10 +3560,10 @@
     </row>
     <row r="170" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>23</v>
@@ -3576,10 +3571,10 @@
     </row>
     <row r="171" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>23</v>
@@ -3587,10 +3582,10 @@
     </row>
     <row r="172" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>23</v>
@@ -3598,10 +3593,10 @@
     </row>
     <row r="173" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>23</v>
@@ -3609,10 +3604,10 @@
     </row>
     <row r="174" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>23</v>
@@ -3630,10 +3625,10 @@
     </row>
     <row r="177" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>23</v>
@@ -3641,10 +3636,10 @@
     </row>
     <row r="178" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>23</v>
@@ -3652,10 +3647,10 @@
     </row>
     <row r="179" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>23</v>
@@ -3663,10 +3658,10 @@
     </row>
     <row r="180" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>23</v>
@@ -3674,10 +3669,10 @@
     </row>
     <row r="181" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>23</v>
@@ -3685,10 +3680,10 @@
     </row>
     <row r="182" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>23</v>
@@ -3696,10 +3691,10 @@
     </row>
     <row r="183" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>23</v>
@@ -3707,10 +3702,10 @@
     </row>
     <row r="184" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>23</v>
@@ -3718,10 +3713,10 @@
     </row>
     <row r="185" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>23</v>
@@ -3729,10 +3724,10 @@
     </row>
     <row r="186" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>23</v>
@@ -3740,10 +3735,10 @@
     </row>
     <row r="187" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>23</v>
@@ -3751,10 +3746,10 @@
     </row>
     <row r="188" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>23</v>
@@ -3762,10 +3757,10 @@
     </row>
     <row r="189" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>23</v>
@@ -3773,10 +3768,10 @@
     </row>
     <row r="190" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>23</v>
@@ -3784,10 +3779,10 @@
     </row>
     <row r="191" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>23</v>
@@ -3795,10 +3790,10 @@
     </row>
     <row r="192" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>23</v>
@@ -3806,10 +3801,10 @@
     </row>
     <row r="193" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>23</v>
@@ -3817,10 +3812,10 @@
     </row>
     <row r="194" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>23</v>
@@ -3828,10 +3823,10 @@
     </row>
     <row r="195" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>23</v>
@@ -3839,10 +3834,10 @@
     </row>
     <row r="196" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>23</v>
@@ -3850,10 +3845,10 @@
     </row>
     <row r="197" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>23</v>
@@ -3861,10 +3856,10 @@
     </row>
     <row r="198" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>23</v>
@@ -3872,10 +3867,10 @@
     </row>
     <row r="199" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>23</v>
@@ -3883,10 +3878,10 @@
     </row>
     <row r="200" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>23</v>
@@ -3894,10 +3889,10 @@
     </row>
     <row r="201" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>23</v>
@@ -3905,10 +3900,10 @@
     </row>
     <row r="202" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>23</v>
@@ -3916,10 +3911,10 @@
     </row>
     <row r="203" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>23</v>
@@ -3927,10 +3922,10 @@
     </row>
     <row r="204" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>23</v>
@@ -3938,10 +3933,10 @@
     </row>
     <row r="205" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>23</v>
@@ -3949,10 +3944,10 @@
     </row>
     <row r="206" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>23</v>
@@ -3960,10 +3955,10 @@
     </row>
     <row r="207" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>23</v>
@@ -3971,10 +3966,10 @@
     </row>
     <row r="208" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>23</v>
@@ -3982,10 +3977,10 @@
     </row>
     <row r="209" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>23</v>
@@ -3993,10 +3988,10 @@
     </row>
     <row r="210" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>23</v>
@@ -4004,10 +3999,10 @@
     </row>
     <row r="211" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>23</v>
@@ -4025,10 +4020,10 @@
     </row>
     <row r="214" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B214" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>23</v>
@@ -4036,10 +4031,10 @@
     </row>
     <row r="215" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>23</v>
@@ -4047,10 +4042,10 @@
     </row>
     <row r="216" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>23</v>
@@ -4058,10 +4053,10 @@
     </row>
     <row r="217" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>23</v>
@@ -4069,10 +4064,10 @@
     </row>
     <row r="218" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>23</v>
@@ -4080,10 +4075,10 @@
     </row>
     <row r="219" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>23</v>
@@ -4091,10 +4086,10 @@
     </row>
     <row r="220" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>23</v>
@@ -4102,10 +4097,10 @@
     </row>
     <row r="221" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>23</v>
@@ -4113,10 +4108,10 @@
     </row>
     <row r="222" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>23</v>
@@ -4124,10 +4119,10 @@
     </row>
     <row r="223" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>23</v>
@@ -4135,10 +4130,10 @@
     </row>
     <row r="224" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>23</v>
@@ -4146,10 +4141,10 @@
     </row>
     <row r="225" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>23</v>
@@ -4157,10 +4152,10 @@
     </row>
     <row r="226" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>23</v>
@@ -4168,10 +4163,10 @@
     </row>
     <row r="227" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>23</v>
@@ -4179,10 +4174,10 @@
     </row>
     <row r="228" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>23</v>
@@ -4190,10 +4185,10 @@
     </row>
     <row r="229" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>23</v>
@@ -4201,10 +4196,10 @@
     </row>
     <row r="230" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>23</v>
@@ -4212,10 +4207,10 @@
     </row>
     <row r="231" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>23</v>
@@ -4223,10 +4218,10 @@
     </row>
     <row r="232" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>23</v>
@@ -4234,10 +4229,10 @@
     </row>
     <row r="233" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>23</v>
@@ -4245,10 +4240,10 @@
     </row>
     <row r="234" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>23</v>
@@ -4256,10 +4251,10 @@
     </row>
     <row r="235" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>23</v>
@@ -4277,10 +4272,10 @@
     </row>
     <row r="238" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B238" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>23</v>
@@ -4288,10 +4283,10 @@
     </row>
     <row r="239" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>23</v>
@@ -4299,10 +4294,10 @@
     </row>
     <row r="240" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>23</v>
@@ -4310,10 +4305,10 @@
     </row>
     <row r="241" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>23</v>
@@ -4321,10 +4316,10 @@
     </row>
     <row r="242" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>23</v>
@@ -4332,10 +4327,10 @@
     </row>
     <row r="243" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>23</v>
@@ -4343,10 +4338,10 @@
     </row>
     <row r="244" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>23</v>
@@ -4354,10 +4349,10 @@
     </row>
     <row r="245" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>23</v>
@@ -4365,10 +4360,10 @@
     </row>
     <row r="246" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>23</v>
@@ -4376,10 +4371,10 @@
     </row>
     <row r="247" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>23</v>
@@ -4387,10 +4382,10 @@
     </row>
     <row r="248" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>23</v>
@@ -4398,10 +4393,10 @@
     </row>
     <row r="249" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>23</v>
@@ -4409,10 +4404,10 @@
     </row>
     <row r="250" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>23</v>
@@ -4420,10 +4415,10 @@
     </row>
     <row r="251" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>23</v>
@@ -4431,10 +4426,10 @@
     </row>
     <row r="252" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>23</v>
@@ -4442,10 +4437,10 @@
     </row>
     <row r="253" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>23</v>
@@ -4453,10 +4448,10 @@
     </row>
     <row r="254" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>23</v>
@@ -4464,10 +4459,10 @@
     </row>
     <row r="255" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>23</v>
@@ -4475,10 +4470,10 @@
     </row>
     <row r="256" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>23</v>
@@ -4486,10 +4481,10 @@
     </row>
     <row r="257" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>23</v>
@@ -4497,10 +4492,10 @@
     </row>
     <row r="258" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>23</v>
@@ -4508,10 +4503,10 @@
     </row>
     <row r="259" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>23</v>
@@ -4519,10 +4514,10 @@
     </row>
     <row r="260" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>23</v>
@@ -4530,10 +4525,10 @@
     </row>
     <row r="261" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>23</v>
@@ -4541,10 +4536,10 @@
     </row>
     <row r="262" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>23</v>
@@ -4552,10 +4547,10 @@
     </row>
     <row r="263" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>23</v>
@@ -4563,10 +4558,10 @@
     </row>
     <row r="264" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>23</v>
@@ -4574,10 +4569,10 @@
     </row>
     <row r="265" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>23</v>
@@ -4585,10 +4580,10 @@
     </row>
     <row r="266" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C266" s="8" t="s">
         <v>23</v>
@@ -4596,10 +4591,10 @@
     </row>
     <row r="267" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C267" s="8" t="s">
         <v>23</v>
@@ -4607,10 +4602,10 @@
     </row>
     <row r="268" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>23</v>
@@ -4618,10 +4613,10 @@
     </row>
     <row r="269" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>23</v>
@@ -4629,10 +4624,10 @@
     </row>
     <row r="270" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>23</v>
@@ -4640,10 +4635,10 @@
     </row>
     <row r="271" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>23</v>
@@ -4651,10 +4646,10 @@
     </row>
     <row r="272" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>23</v>
@@ -4672,10 +4667,10 @@
     </row>
     <row r="275" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B275" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>23</v>
@@ -4683,10 +4678,10 @@
     </row>
     <row r="276" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>23</v>
@@ -4694,10 +4689,10 @@
     </row>
     <row r="277" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C277" s="8" t="s">
         <v>23</v>
@@ -4705,10 +4700,10 @@
     </row>
     <row r="278" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>23</v>
@@ -4716,10 +4711,10 @@
     </row>
     <row r="279" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>23</v>
@@ -4727,10 +4722,10 @@
     </row>
     <row r="280" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>23</v>
@@ -4738,10 +4733,10 @@
     </row>
     <row r="281" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>23</v>
@@ -4749,10 +4744,10 @@
     </row>
     <row r="282" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>23</v>
@@ -4760,10 +4755,10 @@
     </row>
     <row r="283" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>23</v>
@@ -4771,10 +4766,10 @@
     </row>
     <row r="284" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>23</v>
@@ -4782,10 +4777,10 @@
     </row>
     <row r="285" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>23</v>
@@ -4793,10 +4788,10 @@
     </row>
     <row r="286" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>23</v>
@@ -4804,10 +4799,10 @@
     </row>
     <row r="287" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>23</v>
@@ -4815,10 +4810,10 @@
     </row>
     <row r="288" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>23</v>
@@ -4826,10 +4821,10 @@
     </row>
     <row r="289" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>23</v>
@@ -4837,10 +4832,10 @@
     </row>
     <row r="290" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>23</v>
@@ -4848,10 +4843,10 @@
     </row>
     <row r="291" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C291" s="8" t="s">
         <v>23</v>
@@ -4859,10 +4854,10 @@
     </row>
     <row r="292" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C292" s="8" t="s">
         <v>23</v>
@@ -4870,10 +4865,10 @@
     </row>
     <row r="293" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>23</v>
@@ -4891,10 +4886,10 @@
     </row>
     <row r="296" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B296" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="B296" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="C296" s="8" t="s">
         <v>7</v>
@@ -4902,10 +4897,10 @@
     </row>
     <row r="297" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C297" s="8" t="s">
         <v>7</v>
@@ -4913,10 +4908,10 @@
     </row>
     <row r="298" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>7</v>
@@ -4924,10 +4919,10 @@
     </row>
     <row r="299" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>23</v>
@@ -4935,10 +4930,10 @@
     </row>
     <row r="300" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C300" s="8" t="s">
         <v>23</v>
@@ -4946,10 +4941,10 @@
     </row>
     <row r="301" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C301" s="8" t="s">
         <v>23</v>
@@ -4957,10 +4952,10 @@
     </row>
     <row r="302" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C302" s="8" t="s">
         <v>23</v>
@@ -4968,10 +4963,10 @@
     </row>
     <row r="303" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C303" s="8" t="s">
         <v>23</v>
@@ -4979,10 +4974,10 @@
     </row>
     <row r="304" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C304" s="8" t="s">
         <v>23</v>
@@ -4990,10 +4985,10 @@
     </row>
     <row r="305" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C305" s="8" t="s">
         <v>23</v>
@@ -5001,10 +4996,10 @@
     </row>
     <row r="306" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C306" s="8" t="s">
         <v>23</v>
@@ -5012,10 +5007,10 @@
     </row>
     <row r="307" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C307" s="8" t="s">
         <v>23</v>
@@ -5023,10 +5018,10 @@
     </row>
     <row r="308" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C308" s="8" t="s">
         <v>23</v>
@@ -5034,10 +5029,10 @@
     </row>
     <row r="309" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>23</v>
@@ -5045,10 +5040,10 @@
     </row>
     <row r="310" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>23</v>
@@ -5056,10 +5051,10 @@
     </row>
     <row r="311" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C311" s="8" t="s">
         <v>23</v>
@@ -5067,10 +5062,10 @@
     </row>
     <row r="312" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C312" s="8" t="s">
         <v>23</v>
@@ -5078,10 +5073,10 @@
     </row>
     <row r="313" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>23</v>
@@ -5089,10 +5084,10 @@
     </row>
     <row r="314" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C314" s="8" t="s">
         <v>23</v>
@@ -5100,10 +5095,10 @@
     </row>
     <row r="315" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C315" s="8" t="s">
         <v>23</v>
@@ -5111,10 +5106,10 @@
     </row>
     <row r="316" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>23</v>
@@ -5122,10 +5117,10 @@
     </row>
     <row r="317" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C317" s="8" t="s">
         <v>23</v>
@@ -5133,10 +5128,10 @@
     </row>
     <row r="318" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C318" s="8" t="s">
         <v>23</v>
@@ -5144,10 +5139,10 @@
     </row>
     <row r="319" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C319" s="8" t="s">
         <v>23</v>
@@ -5155,10 +5150,10 @@
     </row>
     <row r="320" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C320" s="8" t="s">
         <v>23</v>
@@ -5166,10 +5161,10 @@
     </row>
     <row r="321" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C321" s="8" t="s">
         <v>23</v>
@@ -5177,10 +5172,10 @@
     </row>
     <row r="322" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C322" s="8" t="s">
         <v>23</v>
@@ -5188,10 +5183,10 @@
     </row>
     <row r="323" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C323" s="8" t="s">
         <v>23</v>
@@ -5199,10 +5194,10 @@
     </row>
     <row r="324" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C324" s="8" t="s">
         <v>23</v>
@@ -5210,10 +5205,10 @@
     </row>
     <row r="325" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C325" s="8" t="s">
         <v>23</v>
@@ -5221,10 +5216,10 @@
     </row>
     <row r="326" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C326" s="8" t="s">
         <v>23</v>
@@ -5232,10 +5227,10 @@
     </row>
     <row r="327" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>23</v>
@@ -5243,10 +5238,10 @@
     </row>
     <row r="328" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C328" s="8" t="s">
         <v>23</v>
@@ -5254,10 +5249,10 @@
     </row>
     <row r="329" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C329" s="8" t="s">
         <v>23</v>
@@ -5265,10 +5260,10 @@
     </row>
     <row r="330" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C330" s="8" t="s">
         <v>23</v>
@@ -5276,10 +5271,10 @@
     </row>
     <row r="331" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C331" s="8" t="s">
         <v>23</v>
@@ -5287,10 +5282,10 @@
     </row>
     <row r="332" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C332" s="8" t="s">
         <v>23</v>
@@ -5298,10 +5293,10 @@
     </row>
     <row r="333" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C333" s="8" t="s">
         <v>23</v>
@@ -5319,10 +5314,10 @@
     </row>
     <row r="336" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B336" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="B336" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="C336" s="8" t="s">
         <v>23</v>
@@ -5330,10 +5325,10 @@
     </row>
     <row r="337" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C337" s="8" t="s">
         <v>23</v>
@@ -5341,10 +5336,10 @@
     </row>
     <row r="338" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C338" s="8" t="s">
         <v>23</v>
@@ -5352,10 +5347,10 @@
     </row>
     <row r="339" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C339" s="8" t="s">
         <v>23</v>
@@ -5363,10 +5358,10 @@
     </row>
     <row r="340" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C340" s="8" t="s">
         <v>23</v>
@@ -5374,10 +5369,10 @@
     </row>
     <row r="341" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C341" s="8" t="s">
         <v>23</v>
@@ -5385,10 +5380,10 @@
     </row>
     <row r="342" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C342" s="8" t="s">
         <v>23</v>
@@ -5396,10 +5391,10 @@
     </row>
     <row r="343" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C343" s="8" t="s">
         <v>23</v>
@@ -5407,10 +5402,10 @@
     </row>
     <row r="344" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C344" s="8" t="s">
         <v>23</v>
@@ -5418,10 +5413,10 @@
     </row>
     <row r="345" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C345" s="8" t="s">
         <v>23</v>
@@ -5429,10 +5424,10 @@
     </row>
     <row r="346" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C346" s="8" t="s">
         <v>23</v>
@@ -5440,10 +5435,10 @@
     </row>
     <row r="347" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C347" s="8" t="s">
         <v>23</v>
@@ -5451,10 +5446,10 @@
     </row>
     <row r="348" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C348" s="8" t="s">
         <v>23</v>
@@ -5462,10 +5457,10 @@
     </row>
     <row r="349" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C349" s="8" t="s">
         <v>23</v>
@@ -5473,10 +5468,10 @@
     </row>
     <row r="350" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C350" s="8" t="s">
         <v>23</v>
@@ -5484,10 +5479,10 @@
     </row>
     <row r="351" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C351" s="8" t="s">
         <v>23</v>
@@ -5495,10 +5490,10 @@
     </row>
     <row r="352" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C352" s="8" t="s">
         <v>23</v>
@@ -5506,10 +5501,10 @@
     </row>
     <row r="353" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C353" s="8" t="s">
         <v>23</v>
@@ -5527,10 +5522,10 @@
     </row>
     <row r="356" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B356" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="B356" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="C356" s="8" t="s">
         <v>23</v>
@@ -5538,10 +5533,10 @@
     </row>
     <row r="357" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C357" s="8" t="s">
         <v>23</v>
@@ -5549,10 +5544,10 @@
     </row>
     <row r="358" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C358" s="8" t="s">
         <v>23</v>
@@ -5560,10 +5555,10 @@
     </row>
     <row r="359" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C359" s="8" t="s">
         <v>23</v>
@@ -5571,10 +5566,10 @@
     </row>
     <row r="360" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C360" s="8" t="s">
         <v>23</v>
@@ -5582,10 +5577,10 @@
     </row>
     <row r="361" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C361" s="8" t="s">
         <v>23</v>
@@ -5593,10 +5588,10 @@
     </row>
     <row r="362" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C362" s="8" t="s">
         <v>23</v>
@@ -5604,10 +5599,10 @@
     </row>
     <row r="363" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C363" s="8" t="s">
         <v>23</v>
@@ -5615,10 +5610,10 @@
     </row>
     <row r="364" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C364" s="8" t="s">
         <v>23</v>
@@ -5626,10 +5621,10 @@
     </row>
     <row r="365" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C365" s="8" t="s">
         <v>23</v>
@@ -5637,10 +5632,10 @@
     </row>
     <row r="366" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C366" s="8" t="s">
         <v>23</v>
@@ -5648,10 +5643,10 @@
     </row>
     <row r="367" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C367" s="8" t="s">
         <v>23</v>
@@ -5659,10 +5654,10 @@
     </row>
     <row r="368" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C368" s="8" t="s">
         <v>23</v>
@@ -5670,10 +5665,10 @@
     </row>
     <row r="369" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C369" s="8" t="s">
         <v>23</v>
@@ -5681,10 +5676,10 @@
     </row>
     <row r="370" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C370" s="8" t="s">
         <v>23</v>
@@ -5692,10 +5687,10 @@
     </row>
     <row r="371" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C371" s="8" t="s">
         <v>23</v>
@@ -5703,10 +5698,10 @@
     </row>
     <row r="372" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C372" s="8" t="s">
         <v>23</v>
@@ -5714,10 +5709,10 @@
     </row>
     <row r="373" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C373" s="8" t="s">
         <v>23</v>
@@ -5725,10 +5720,10 @@
     </row>
     <row r="374" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C374" s="8" t="s">
         <v>23</v>
@@ -5736,10 +5731,10 @@
     </row>
     <row r="375" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C375" s="8" t="s">
         <v>23</v>
@@ -5747,10 +5742,10 @@
     </row>
     <row r="376" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C376" s="8" t="s">
         <v>23</v>
@@ -5758,10 +5753,10 @@
     </row>
     <row r="377" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C377" s="8" t="s">
         <v>23</v>
@@ -5769,10 +5764,10 @@
     </row>
     <row r="378" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C378" s="8" t="s">
         <v>23</v>
@@ -5780,10 +5775,10 @@
     </row>
     <row r="379" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C379" s="8" t="s">
         <v>23</v>
@@ -5791,10 +5786,10 @@
     </row>
     <row r="380" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C380" s="8" t="s">
         <v>23</v>
@@ -5802,10 +5797,10 @@
     </row>
     <row r="381" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C381" s="8" t="s">
         <v>23</v>
@@ -5813,10 +5808,10 @@
     </row>
     <row r="382" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C382" s="8" t="s">
         <v>23</v>
@@ -5824,10 +5819,10 @@
     </row>
     <row r="383" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C383" s="8" t="s">
         <v>23</v>
@@ -5835,10 +5830,10 @@
     </row>
     <row r="384" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C384" s="8" t="s">
         <v>23</v>
@@ -5846,10 +5841,10 @@
     </row>
     <row r="385" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C385" s="8" t="s">
         <v>23</v>
@@ -5857,10 +5852,10 @@
     </row>
     <row r="386" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C386" s="8" t="s">
         <v>23</v>
@@ -5868,10 +5863,10 @@
     </row>
     <row r="387" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C387" s="8" t="s">
         <v>23</v>
@@ -5879,10 +5874,10 @@
     </row>
     <row r="388" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C388" s="8" t="s">
         <v>23</v>
@@ -5890,10 +5885,10 @@
     </row>
     <row r="389" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C389" s="8" t="s">
         <v>23</v>
@@ -5901,10 +5896,10 @@
     </row>
     <row r="390" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C390" s="8" t="s">
         <v>23</v>
@@ -5912,10 +5907,10 @@
     </row>
     <row r="391" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C391" s="8" t="s">
         <v>23</v>
@@ -5923,10 +5918,10 @@
     </row>
     <row r="392" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C392" s="8" t="s">
         <v>23</v>
@@ -5934,10 +5929,10 @@
     </row>
     <row r="393" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C393" s="8" t="s">
         <v>23</v>
@@ -5945,10 +5940,10 @@
     </row>
     <row r="394" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C394" s="8" t="s">
         <v>23</v>
@@ -5956,10 +5951,10 @@
     </row>
     <row r="395" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C395" s="8" t="s">
         <v>23</v>
@@ -5967,10 +5962,10 @@
     </row>
     <row r="396" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C396" s="8" t="s">
         <v>23</v>
@@ -5978,10 +5973,10 @@
     </row>
     <row r="397" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C397" s="8" t="s">
         <v>23</v>
@@ -5989,10 +5984,10 @@
     </row>
     <row r="398" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C398" s="8" t="s">
         <v>23</v>
@@ -6000,10 +5995,10 @@
     </row>
     <row r="399" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C399" s="8" t="s">
         <v>23</v>
@@ -6021,10 +6016,10 @@
     </row>
     <row r="402" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B402" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="B402" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="C402" s="8" t="s">
         <v>23</v>
@@ -6032,10 +6027,10 @@
     </row>
     <row r="403" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C403" s="8" t="s">
         <v>23</v>
@@ -6043,10 +6038,10 @@
     </row>
     <row r="404" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C404" s="8" t="s">
         <v>23</v>
@@ -6054,10 +6049,10 @@
     </row>
     <row r="405" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C405" s="8" t="s">
         <v>23</v>
@@ -6065,10 +6060,10 @@
     </row>
     <row r="406" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C406" s="8" t="s">
         <v>23</v>
@@ -6076,10 +6071,10 @@
     </row>
     <row r="407" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C407" s="8" t="s">
         <v>23</v>
@@ -6097,10 +6092,10 @@
     </row>
     <row r="410" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B410" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="B410" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="C410" s="8" t="s">
         <v>23</v>
@@ -6108,10 +6103,10 @@
     </row>
     <row r="411" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C411" s="8" t="s">
         <v>23</v>
@@ -6119,10 +6114,10 @@
     </row>
     <row r="412" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C412" s="8" t="s">
         <v>23</v>
@@ -6130,10 +6125,10 @@
     </row>
     <row r="413" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C413" s="8" t="s">
         <v>23</v>
@@ -6141,10 +6136,10 @@
     </row>
     <row r="414" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C414" s="8" t="s">
         <v>23</v>
@@ -6152,10 +6147,10 @@
     </row>
     <row r="415" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C415" s="8" t="s">
         <v>23</v>
@@ -6163,10 +6158,10 @@
     </row>
     <row r="416" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C416" s="8" t="s">
         <v>23</v>
@@ -6174,10 +6169,10 @@
     </row>
     <row r="417" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C417" s="8" t="s">
         <v>23</v>
@@ -6185,10 +6180,10 @@
     </row>
     <row r="418" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C418" s="8" t="s">
         <v>23</v>
@@ -6196,10 +6191,10 @@
     </row>
     <row r="419" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C419" s="8" t="s">
         <v>23</v>
@@ -6207,10 +6202,10 @@
     </row>
     <row r="420" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C420" s="8" t="s">
         <v>23</v>
@@ -6218,10 +6213,10 @@
     </row>
     <row r="421" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C421" s="8" t="s">
         <v>23</v>
@@ -6229,10 +6224,10 @@
     </row>
     <row r="422" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C422" s="8" t="s">
         <v>23</v>
@@ -6240,10 +6235,10 @@
     </row>
     <row r="423" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C423" s="8" t="s">
         <v>23</v>
@@ -6251,10 +6246,10 @@
     </row>
     <row r="424" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C424" s="8" t="s">
         <v>23</v>
@@ -6262,10 +6257,10 @@
     </row>
     <row r="425" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C425" s="8" t="s">
         <v>23</v>
@@ -6273,10 +6268,10 @@
     </row>
     <row r="426" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C426" s="8" t="s">
         <v>23</v>
@@ -6284,10 +6279,10 @@
     </row>
     <row r="427" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C427" s="8" t="s">
         <v>23</v>
@@ -6295,10 +6290,10 @@
     </row>
     <row r="428" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C428" s="8" t="s">
         <v>23</v>
@@ -6306,10 +6301,10 @@
     </row>
     <row r="429" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C429" s="8" t="s">
         <v>23</v>
@@ -6317,10 +6312,10 @@
     </row>
     <row r="430" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C430" s="8" t="s">
         <v>23</v>
@@ -6328,10 +6323,10 @@
     </row>
     <row r="431" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C431" s="8" t="s">
         <v>23</v>
@@ -6339,10 +6334,10 @@
     </row>
     <row r="432" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C432" s="8" t="s">
         <v>23</v>
@@ -6350,10 +6345,10 @@
     </row>
     <row r="433" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C433" s="8" t="s">
         <v>23</v>
@@ -6361,10 +6356,10 @@
     </row>
     <row r="434" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C434" s="8" t="s">
         <v>23</v>
@@ -6372,10 +6367,10 @@
     </row>
     <row r="435" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C435" s="8" t="s">
         <v>23</v>
@@ -6383,10 +6378,10 @@
     </row>
     <row r="436" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C436" s="8" t="s">
         <v>23</v>
@@ -6394,10 +6389,10 @@
     </row>
     <row r="437" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C437" s="8" t="s">
         <v>23</v>
@@ -6405,10 +6400,10 @@
     </row>
     <row r="438" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C438" s="8" t="s">
         <v>23</v>
@@ -6416,10 +6411,10 @@
     </row>
     <row r="439" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C439" s="8" t="s">
         <v>23</v>
@@ -6427,10 +6422,10 @@
     </row>
     <row r="440" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C440" s="8" t="s">
         <v>23</v>
@@ -6438,10 +6433,10 @@
     </row>
     <row r="441" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C441" s="8" t="s">
         <v>23</v>
@@ -6449,10 +6444,10 @@
     </row>
     <row r="442" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C442" s="8" t="s">
         <v>23</v>
@@ -6460,10 +6455,10 @@
     </row>
     <row r="443" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C443" s="8" t="s">
         <v>23</v>
@@ -6471,10 +6466,10 @@
     </row>
     <row r="444" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C444" s="8" t="s">
         <v>23</v>
@@ -6482,10 +6477,10 @@
     </row>
     <row r="445" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C445" s="8" t="s">
         <v>23</v>
@@ -6493,10 +6488,10 @@
     </row>
     <row r="446" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C446" s="8" t="s">
         <v>23</v>
@@ -6504,10 +6499,10 @@
     </row>
     <row r="447" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C447" s="8" t="s">
         <v>23</v>
@@ -6515,10 +6510,10 @@
     </row>
     <row r="448" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C448" s="8" t="s">
         <v>23</v>
@@ -6526,10 +6521,10 @@
     </row>
     <row r="449" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C449" s="8" t="s">
         <v>23</v>
@@ -6537,10 +6532,10 @@
     </row>
     <row r="450" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C450" s="8" t="s">
         <v>23</v>
@@ -6548,10 +6543,10 @@
     </row>
     <row r="451" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C451" s="8" t="s">
         <v>23</v>
@@ -6559,10 +6554,10 @@
     </row>
     <row r="452" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C452" s="8" t="s">
         <v>23</v>
@@ -6570,10 +6565,10 @@
     </row>
     <row r="453" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C453" s="8" t="s">
         <v>23</v>
@@ -6581,10 +6576,10 @@
     </row>
     <row r="454" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C454" s="8" t="s">
         <v>23</v>
@@ -6592,10 +6587,10 @@
     </row>
     <row r="455" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>23</v>
@@ -6603,10 +6598,10 @@
     </row>
     <row r="456" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C456" s="8" t="s">
         <v>23</v>
@@ -6614,10 +6609,10 @@
     </row>
     <row r="457" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C457" s="8" t="s">
         <v>23</v>
@@ -6625,10 +6620,10 @@
     </row>
     <row r="458" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C458" s="8" t="s">
         <v>23</v>
@@ -6636,10 +6631,10 @@
     </row>
     <row r="459" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C459" s="8" t="s">
         <v>23</v>
@@ -6647,10 +6642,10 @@
     </row>
     <row r="460" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C460" s="8" t="s">
         <v>23</v>
@@ -6658,10 +6653,10 @@
     </row>
     <row r="461" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C461" s="8" t="s">
         <v>23</v>
@@ -6669,10 +6664,10 @@
     </row>
     <row r="462" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C462" s="8" t="s">
         <v>23</v>
@@ -6680,10 +6675,10 @@
     </row>
     <row r="463" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C463" s="8" t="s">
         <v>23</v>
@@ -6691,10 +6686,10 @@
     </row>
     <row r="464" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C464" s="8" t="s">
         <v>23</v>
@@ -6702,10 +6697,10 @@
     </row>
     <row r="465" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C465" s="8" t="s">
         <v>23</v>
@@ -6713,10 +6708,10 @@
     </row>
     <row r="466" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C466" s="8" t="s">
         <v>23</v>
@@ -6724,10 +6719,10 @@
     </row>
     <row r="467" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C467" s="8" t="s">
         <v>23</v>
@@ -6735,10 +6730,10 @@
     </row>
     <row r="468" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C468" s="8" t="s">
         <v>23</v>
@@ -6746,10 +6741,10 @@
     </row>
     <row r="469" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C469" s="8" t="s">
         <v>23</v>
@@ -6767,10 +6762,10 @@
     </row>
     <row r="472" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B472" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="B472" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="C472" s="8" t="s">
         <v>23</v>
@@ -6778,10 +6773,10 @@
     </row>
     <row r="473" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C473" s="8" t="s">
         <v>23</v>
@@ -6789,10 +6784,10 @@
     </row>
     <row r="474" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C474" s="8" t="s">
         <v>23</v>
@@ -6800,10 +6795,10 @@
     </row>
     <row r="475" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C475" s="8" t="s">
         <v>23</v>
@@ -6811,10 +6806,10 @@
     </row>
     <row r="476" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C476" s="8" t="s">
         <v>23</v>
@@ -6822,10 +6817,10 @@
     </row>
     <row r="477" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C477" s="8" t="s">
         <v>23</v>
@@ -6833,10 +6828,10 @@
     </row>
     <row r="478" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C478" s="8" t="s">
         <v>23</v>
@@ -6844,10 +6839,10 @@
     </row>
     <row r="479" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C479" s="8" t="s">
         <v>23</v>
@@ -6855,10 +6850,10 @@
     </row>
     <row r="480" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C480" s="8" t="s">
         <v>23</v>
@@ -6866,10 +6861,10 @@
     </row>
     <row r="481" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C481" s="8" t="s">
         <v>23</v>

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FC1A60-017F-4347-BE70-2F58B570BA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB82D30-6F52-477A-850C-622D7D26CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1762,8 +1762,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2392,7 +2392,9 @@
       <c r="B61" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="8"/>
+      <c r="C61" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6" t="s">

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB82D30-6F52-477A-850C-622D7D26CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C84ED6-B43D-43DA-BEBE-A0033D4A6C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1762,8 +1762,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1890,7 +1890,9 @@
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C84ED6-B43D-43DA-BEBE-A0033D4A6C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08559B07-2027-4EBA-ACE7-4C1C16466A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>Minimum no. of Jumps to reach end of an array</t>
@@ -1763,7 +1760,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1902,7 +1899,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1910,7 +1907,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
@@ -1921,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
@@ -1932,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="8"/>
     </row>
@@ -1941,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="8"/>
     </row>
@@ -1950,10 +1947,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1961,10 +1958,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1972,10 +1969,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1983,10 +1980,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1994,10 +1991,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2005,10 +2002,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2016,10 +2013,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2027,10 +2024,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2038,10 +2035,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2049,10 +2046,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2060,10 +2057,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2071,10 +2068,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2082,10 +2079,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2093,10 +2090,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2104,10 +2101,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2115,10 +2112,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2126,10 +2123,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2137,10 +2134,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2148,10 +2145,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2159,10 +2156,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2170,10 +2167,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2181,10 +2178,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -2192,134 +2189,134 @@
         <v>5</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="10"/>
       <c r="C42" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6"/>
       <c r="B43" s="10"/>
       <c r="C43" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="C44" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
@@ -2334,10 +2331,10 @@
     </row>
     <row r="56" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>7</v>
@@ -2345,10 +2342,10 @@
     </row>
     <row r="57" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>7</v>
@@ -2356,10 +2353,10 @@
     </row>
     <row r="58" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>7</v>
@@ -2367,10 +2364,10 @@
     </row>
     <row r="59" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>7</v>
@@ -2378,10 +2375,10 @@
     </row>
     <row r="60" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>7</v>
@@ -2389,10 +2386,10 @@
     </row>
     <row r="61" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>7</v>
@@ -2400,409 +2397,409 @@
     </row>
     <row r="62" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
@@ -2817,10 +2814,10 @@
     </row>
     <row r="101" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>7</v>
@@ -2828,10 +2825,10 @@
     </row>
     <row r="102" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>7</v>
@@ -2839,10 +2836,10 @@
     </row>
     <row r="103" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>7</v>
@@ -2850,10 +2847,10 @@
     </row>
     <row r="104" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>10</v>
@@ -2861,354 +2858,354 @@
     </row>
     <row r="105" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
@@ -3223,10 +3220,10 @@
     </row>
     <row r="139" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>7</v>
@@ -3234,10 +3231,10 @@
     </row>
     <row r="140" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>7</v>
@@ -3245,10 +3242,10 @@
     </row>
     <row r="141" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>10</v>
@@ -3256,10 +3253,10 @@
     </row>
     <row r="142" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>10</v>
@@ -3267,354 +3264,354 @@
     </row>
     <row r="143" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
@@ -3629,387 +3626,387 @@
     </row>
     <row r="177" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B177" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="C177" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -4024,244 +4021,244 @@
     </row>
     <row r="214" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B214" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B214" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="C214" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -4276,387 +4273,387 @@
     </row>
     <row r="238" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B238" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B238" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="C238" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -4671,211 +4668,211 @@
     </row>
     <row r="275" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B275" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B275" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="C275" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -4890,10 +4887,10 @@
     </row>
     <row r="296" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B296" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="B296" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="C296" s="8" t="s">
         <v>7</v>
@@ -4901,10 +4898,10 @@
     </row>
     <row r="297" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C297" s="8" t="s">
         <v>7</v>
@@ -4912,10 +4909,10 @@
     </row>
     <row r="298" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>7</v>
@@ -4923,387 +4920,387 @@
     </row>
     <row r="299" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -5318,200 +5315,200 @@
     </row>
     <row r="336" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B336" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B336" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="C336" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C342" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C343" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C348" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -5526,486 +5523,486 @@
     </row>
     <row r="356" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B356" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B356" s="7" t="s">
-        <v>348</v>
-      </c>
       <c r="C356" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -6020,68 +6017,68 @@
     </row>
     <row r="402" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B402" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B402" s="7" t="s">
-        <v>392</v>
-      </c>
       <c r="C402" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -6096,662 +6093,662 @@
     </row>
     <row r="410" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B410" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B410" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="C410" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -6766,112 +6763,112 @@
     </row>
     <row r="472" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B472" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B472" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="C472" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08559B07-2027-4EBA-ACE7-4C1C16466A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33A4EC-ABB9-436F-9750-E373AA62B7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1760,7 +1760,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1910,7 +1910,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1921,7 +1921,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33A4EC-ABB9-436F-9750-E373AA62B7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DC376D-78D6-4EE7-8C04-B3A4C462D027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1421,6 +1421,9 @@
   </si>
   <si>
     <t>Power Set</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1763,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1931,7 +1934,9 @@
       <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DC376D-78D6-4EE7-8C04-B3A4C462D027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7B3F29-97BC-4CF5-A519-8048AE0F3793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1421,9 +1421,6 @@
   </si>
   <si>
     <t>Power Set</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1760,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1935,7 +1932,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>467</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1945,7 +1942,9 @@
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7B3F29-97BC-4CF5-A519-8048AE0F3793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16130655-019A-4561-A61E-FC04E0A2DCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1760,7 +1760,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1954,7 +1954,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16130655-019A-4561-A61E-FC04E0A2DCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EEA45F-FEF1-43B5-8AFC-57ACC2504410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1760,7 +1760,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1965,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1976,7 +1976,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1987,7 +1987,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Codes\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EEA45F-FEF1-43B5-8AFC-57ACC2504410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D882E09B-BAA5-4C7B-9BD7-F8ED6A1F4720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23550" windowHeight="13342" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1759,14 +1759,14 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="97.23046875" customWidth="1"/>
-    <col min="4" max="4" width="55.23046875" customWidth="1"/>
+    <col min="2" max="2" width="97.25" customWidth="1"/>
+    <col min="4" max="4" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1776,19 +1776,19 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1799,11 +1799,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A37" s="6" t="s">
         <v>5</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A41" s="6" t="s">
         <v>5</v>
       </c>
@@ -2199,21 +2199,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="B42" s="10"/>
       <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A43" s="6"/>
       <c r="B43" s="10"/>
       <c r="C43" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A48" s="6" t="s">
         <v>45</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A51" s="6" t="s">
         <v>45</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A52" s="6" t="s">
         <v>45</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A53" s="6" t="s">
         <v>45</v>
       </c>
@@ -2323,17 +2323,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A55" s="6"/>
       <c r="B55" s="10"/>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A59" s="6" t="s">
         <v>56</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A60" s="6" t="s">
         <v>56</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A61" s="6" t="s">
         <v>56</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -2407,10 +2407,10 @@
         <v>63</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A63" s="6" t="s">
         <v>56</v>
       </c>
@@ -2418,10 +2418,10 @@
         <v>64</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A64" s="6" t="s">
         <v>56</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A65" s="6" t="s">
         <v>56</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A66" s="6" t="s">
         <v>56</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A69" s="6" t="s">
         <v>56</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A70" s="6" t="s">
         <v>56</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A71" s="6" t="s">
         <v>56</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A72" s="6" t="s">
         <v>56</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A73" s="6" t="s">
         <v>56</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A74" s="6" t="s">
         <v>56</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A75" s="6" t="s">
         <v>56</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A76" s="6" t="s">
         <v>56</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A77" s="6" t="s">
         <v>56</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A78" s="6" t="s">
         <v>56</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A79" s="6" t="s">
         <v>56</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A80" s="6" t="s">
         <v>56</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A81" s="6" t="s">
         <v>56</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A82" s="6" t="s">
         <v>56</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A83" s="6" t="s">
         <v>56</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A84" s="6" t="s">
         <v>56</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A85" s="6" t="s">
         <v>56</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A86" s="6" t="s">
         <v>56</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A87" s="6" t="s">
         <v>56</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A88" s="6" t="s">
         <v>56</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A89" s="6" t="s">
         <v>56</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A90" s="6" t="s">
         <v>56</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A91" s="6" t="s">
         <v>56</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A92" s="6" t="s">
         <v>56</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A93" s="6" t="s">
         <v>56</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A94" s="6" t="s">
         <v>56</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A95" s="6" t="s">
         <v>56</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A96" s="6" t="s">
         <v>56</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A97" s="6" t="s">
         <v>56</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A98" s="6" t="s">
         <v>56</v>
       </c>
@@ -2806,17 +2806,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A100" s="6"/>
       <c r="B100" s="10"/>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A103" s="6" t="s">
         <v>100</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A104" s="6" t="s">
         <v>100</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A105" s="6" t="s">
         <v>100</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A107" s="6" t="s">
         <v>100</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A108" s="6" t="s">
         <v>100</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A109" s="6" t="s">
         <v>100</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A110" s="6" t="s">
         <v>100</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A111" s="6" t="s">
         <v>100</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A112" s="6" t="s">
         <v>100</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A113" s="6" t="s">
         <v>100</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A115" s="6" t="s">
         <v>100</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A116" s="6" t="s">
         <v>100</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A117" s="6" t="s">
         <v>100</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A118" s="6" t="s">
         <v>100</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A119" s="6" t="s">
         <v>100</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A120" s="6" t="s">
         <v>100</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A121" s="6" t="s">
         <v>100</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A122" s="6" t="s">
         <v>100</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A123" s="6" t="s">
         <v>100</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A124" s="6" t="s">
         <v>100</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A125" s="6" t="s">
         <v>100</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A126" s="6" t="s">
         <v>100</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A127" s="6" t="s">
         <v>100</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A128" s="6" t="s">
         <v>100</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A129" s="6" t="s">
         <v>100</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A130" s="6" t="s">
         <v>100</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A131" s="6" t="s">
         <v>100</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A132" s="6" t="s">
         <v>100</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A133" s="6" t="s">
         <v>100</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A134" s="6" t="s">
         <v>100</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A135" s="6" t="s">
         <v>100</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A136" s="6" t="s">
         <v>100</v>
       </c>
@@ -3212,17 +3212,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="B138" s="10"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A140" s="6" t="s">
         <v>137</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A141" s="6" t="s">
         <v>137</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A142" s="6" t="s">
         <v>137</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A143" s="6" t="s">
         <v>137</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A144" s="6" t="s">
         <v>137</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A145" s="6" t="s">
         <v>137</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A146" s="6" t="s">
         <v>137</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A147" s="6" t="s">
         <v>137</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A148" s="6" t="s">
         <v>137</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A149" s="6" t="s">
         <v>137</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A150" s="6" t="s">
         <v>137</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A151" s="6" t="s">
         <v>137</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A152" s="6" t="s">
         <v>137</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A153" s="6" t="s">
         <v>137</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A154" s="6" t="s">
         <v>137</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A155" s="6" t="s">
         <v>137</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A156" s="6" t="s">
         <v>137</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A157" s="6" t="s">
         <v>137</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A158" s="6" t="s">
         <v>137</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A159" s="6" t="s">
         <v>137</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A160" s="6" t="s">
         <v>137</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A161" s="6" t="s">
         <v>137</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A162" s="6" t="s">
         <v>137</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A163" s="6" t="s">
         <v>137</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A164" s="6" t="s">
         <v>137</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A165" s="6" t="s">
         <v>137</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A166" s="6" t="s">
         <v>137</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A167" s="6" t="s">
         <v>137</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A168" s="6" t="s">
         <v>137</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A169" s="6" t="s">
         <v>137</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A170" s="6" t="s">
         <v>137</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A171" s="6" t="s">
         <v>137</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A172" s="6" t="s">
         <v>137</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A173" s="6" t="s">
         <v>137</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A174" s="6" t="s">
         <v>137</v>
       </c>
@@ -3618,17 +3618,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A176" s="1"/>
       <c r="B176" s="10"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A177" s="6" t="s">
         <v>174</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A178" s="6" t="s">
         <v>174</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A179" s="6" t="s">
         <v>174</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A180" s="6" t="s">
         <v>174</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A181" s="6" t="s">
         <v>174</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A182" s="6" t="s">
         <v>174</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A183" s="6" t="s">
         <v>174</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A184" s="6" t="s">
         <v>174</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A185" s="6" t="s">
         <v>174</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A186" s="6" t="s">
         <v>174</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A187" s="6" t="s">
         <v>174</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A188" s="6" t="s">
         <v>174</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A189" s="6" t="s">
         <v>174</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A190" s="6" t="s">
         <v>174</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A191" s="6" t="s">
         <v>174</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A192" s="6" t="s">
         <v>174</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A194" s="6" t="s">
         <v>174</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A195" s="6" t="s">
         <v>174</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A196" s="6" t="s">
         <v>174</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A197" s="6" t="s">
         <v>174</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A198" s="6" t="s">
         <v>174</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A199" s="6" t="s">
         <v>174</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A200" s="6" t="s">
         <v>174</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A201" s="6" t="s">
         <v>174</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A202" s="6" t="s">
         <v>174</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A203" s="6" t="s">
         <v>174</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A204" s="6" t="s">
         <v>174</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A205" s="6" t="s">
         <v>174</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A206" s="6" t="s">
         <v>174</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A207" s="6" t="s">
         <v>174</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A208" s="6" t="s">
         <v>174</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A209" s="6" t="s">
         <v>174</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A210" s="6" t="s">
         <v>174</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A211" s="6" t="s">
         <v>174</v>
       </c>
@@ -4013,17 +4013,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A212" s="6"/>
       <c r="B212" s="10"/>
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A213" s="6"/>
       <c r="B213" s="10"/>
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A214" s="6" t="s">
         <v>210</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A215" s="6" t="s">
         <v>210</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A216" s="6" t="s">
         <v>210</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A217" s="6" t="s">
         <v>210</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A218" s="6" t="s">
         <v>210</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A219" s="6" t="s">
         <v>210</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A220" s="6" t="s">
         <v>210</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A221" s="6" t="s">
         <v>210</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A222" s="6" t="s">
         <v>210</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A223" s="6" t="s">
         <v>210</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A224" s="6" t="s">
         <v>210</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A225" s="6" t="s">
         <v>210</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A226" s="6" t="s">
         <v>210</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A227" s="6" t="s">
         <v>210</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A228" s="6" t="s">
         <v>210</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A229" s="6" t="s">
         <v>210</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A230" s="6" t="s">
         <v>210</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A231" s="6" t="s">
         <v>210</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A232" s="6" t="s">
         <v>210</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A233" s="6" t="s">
         <v>210</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A234" s="6" t="s">
         <v>210</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A235" s="6" t="s">
         <v>210</v>
       </c>
@@ -4265,17 +4265,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="B237" s="10"/>
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A238" s="6" t="s">
         <v>233</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A239" s="6" t="s">
         <v>233</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A240" s="6" t="s">
         <v>233</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A241" s="6" t="s">
         <v>233</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A242" s="6" t="s">
         <v>233</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A243" s="6" t="s">
         <v>233</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A244" s="6" t="s">
         <v>233</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A245" s="6" t="s">
         <v>233</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A246" s="6" t="s">
         <v>233</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A247" s="6" t="s">
         <v>233</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A248" s="6" t="s">
         <v>233</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A249" s="6" t="s">
         <v>233</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A250" s="6" t="s">
         <v>233</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A251" s="6" t="s">
         <v>233</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A252" s="6" t="s">
         <v>233</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A253" s="6" t="s">
         <v>233</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A254" s="6" t="s">
         <v>233</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A255" s="6" t="s">
         <v>233</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A256" s="6" t="s">
         <v>233</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A257" s="6" t="s">
         <v>233</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A258" s="6" t="s">
         <v>233</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A259" s="6" t="s">
         <v>233</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A260" s="6" t="s">
         <v>233</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A261" s="6" t="s">
         <v>233</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A262" s="6" t="s">
         <v>233</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A263" s="6" t="s">
         <v>233</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A264" s="6" t="s">
         <v>233</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A265" s="6" t="s">
         <v>233</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A266" s="6" t="s">
         <v>233</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A267" s="6" t="s">
         <v>233</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A268" s="6" t="s">
         <v>233</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A269" s="6" t="s">
         <v>233</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A270" s="6" t="s">
         <v>233</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A271" s="6" t="s">
         <v>233</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A272" s="6" t="s">
         <v>233</v>
       </c>
@@ -4660,17 +4660,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A273" s="1"/>
       <c r="B273" s="10"/>
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A274" s="1"/>
       <c r="B274" s="10"/>
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A275" s="6" t="s">
         <v>268</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A276" s="6" t="s">
         <v>268</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A277" s="6" t="s">
         <v>268</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A278" s="6" t="s">
         <v>268</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A279" s="6" t="s">
         <v>268</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A280" s="6" t="s">
         <v>268</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A281" s="6" t="s">
         <v>268</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A282" s="6" t="s">
         <v>268</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A283" s="6" t="s">
         <v>268</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A284" s="6" t="s">
         <v>268</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A285" s="6" t="s">
         <v>268</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A286" s="6" t="s">
         <v>268</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A287" s="6" t="s">
         <v>268</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A288" s="6" t="s">
         <v>268</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A289" s="6" t="s">
         <v>268</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A290" s="6" t="s">
         <v>268</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A291" s="6" t="s">
         <v>268</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A292" s="6" t="s">
         <v>268</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A293" s="6" t="s">
         <v>268</v>
       </c>
@@ -4879,17 +4879,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A294" s="1"/>
       <c r="B294" s="10"/>
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A295" s="1"/>
       <c r="B295" s="10"/>
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A296" s="6" t="s">
         <v>288</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A297" s="6" t="s">
         <v>288</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A298" s="6" t="s">
         <v>288</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A299" s="6" t="s">
         <v>288</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A300" s="6" t="s">
         <v>288</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A301" s="6" t="s">
         <v>288</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A302" s="6" t="s">
         <v>288</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A303" s="6" t="s">
         <v>288</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A304" s="6" t="s">
         <v>288</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A305" s="6" t="s">
         <v>288</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A306" s="6" t="s">
         <v>288</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A307" s="6" t="s">
         <v>288</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A308" s="6" t="s">
         <v>288</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A309" s="6" t="s">
         <v>288</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A310" s="6" t="s">
         <v>288</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A311" s="6" t="s">
         <v>288</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A312" s="6" t="s">
         <v>288</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A313" s="6" t="s">
         <v>288</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A314" s="6" t="s">
         <v>288</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A315" s="6" t="s">
         <v>288</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A316" s="6" t="s">
         <v>288</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A317" s="6" t="s">
         <v>288</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A318" s="6" t="s">
         <v>288</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A319" s="6" t="s">
         <v>288</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A320" s="6" t="s">
         <v>288</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A321" s="6" t="s">
         <v>288</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A322" s="6" t="s">
         <v>288</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A323" s="6" t="s">
         <v>288</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A324" s="6" t="s">
         <v>288</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A325" s="6" t="s">
         <v>288</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A326" s="6" t="s">
         <v>288</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A327" s="6" t="s">
         <v>288</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A328" s="6" t="s">
         <v>288</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A329" s="6" t="s">
         <v>288</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A330" s="6" t="s">
         <v>288</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A331" s="6" t="s">
         <v>288</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A332" s="6" t="s">
         <v>288</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A333" s="6" t="s">
         <v>288</v>
       </c>
@@ -5307,17 +5307,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A334" s="1"/>
       <c r="B334" s="10"/>
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A335" s="1"/>
       <c r="B335" s="10"/>
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A336" s="6" t="s">
         <v>327</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A337" s="6" t="s">
         <v>327</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A338" s="6" t="s">
         <v>327</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A339" s="6" t="s">
         <v>327</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A340" s="6" t="s">
         <v>327</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A341" s="6" t="s">
         <v>327</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A342" s="6" t="s">
         <v>327</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A343" s="6" t="s">
         <v>327</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A344" s="6" t="s">
         <v>327</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A345" s="6" t="s">
         <v>327</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A346" s="6" t="s">
         <v>327</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A347" s="6" t="s">
         <v>327</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A348" s="6" t="s">
         <v>327</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A349" s="6" t="s">
         <v>327</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A350" s="6" t="s">
         <v>327</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A351" s="6" t="s">
         <v>327</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A352" s="6" t="s">
         <v>327</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A353" s="6" t="s">
         <v>327</v>
       </c>
@@ -5515,17 +5515,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A354" s="1"/>
       <c r="B354" s="10"/>
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A355" s="1"/>
       <c r="B355" s="10"/>
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A356" s="6" t="s">
         <v>346</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A357" s="6" t="s">
         <v>346</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A358" s="6" t="s">
         <v>346</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A359" s="6" t="s">
         <v>346</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A360" s="6" t="s">
         <v>346</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A361" s="6" t="s">
         <v>346</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A362" s="6" t="s">
         <v>346</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A363" s="6" t="s">
         <v>346</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A364" s="6" t="s">
         <v>346</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A365" s="6" t="s">
         <v>346</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A366" s="6" t="s">
         <v>346</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A367" s="6" t="s">
         <v>346</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A368" s="6" t="s">
         <v>346</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A369" s="6" t="s">
         <v>346</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A370" s="6" t="s">
         <v>346</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A371" s="6" t="s">
         <v>346</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A372" s="6" t="s">
         <v>346</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A373" s="6" t="s">
         <v>346</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A374" s="6" t="s">
         <v>346</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A375" s="6" t="s">
         <v>346</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A376" s="6" t="s">
         <v>346</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A377" s="6" t="s">
         <v>346</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A378" s="6" t="s">
         <v>346</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A379" s="6" t="s">
         <v>346</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A380" s="6" t="s">
         <v>346</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A381" s="6" t="s">
         <v>346</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A382" s="6" t="s">
         <v>346</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A383" s="6" t="s">
         <v>346</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A384" s="6" t="s">
         <v>346</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A385" s="6" t="s">
         <v>346</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A386" s="6" t="s">
         <v>346</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A387" s="6" t="s">
         <v>346</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A388" s="6" t="s">
         <v>346</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A389" s="6" t="s">
         <v>346</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A390" s="6" t="s">
         <v>346</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A391" s="6" t="s">
         <v>346</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A392" s="6" t="s">
         <v>346</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A393" s="6" t="s">
         <v>346</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A394" s="6" t="s">
         <v>346</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A395" s="6" t="s">
         <v>346</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A396" s="6" t="s">
         <v>346</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A397" s="6" t="s">
         <v>346</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A398" s="6" t="s">
         <v>346</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A399" s="6" t="s">
         <v>346</v>
       </c>
@@ -6009,17 +6009,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A400" s="1"/>
       <c r="B400" s="10"/>
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A401" s="1"/>
       <c r="B401" s="10"/>
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A402" s="6" t="s">
         <v>390</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A403" s="6" t="s">
         <v>390</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A404" s="6" t="s">
         <v>390</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A405" s="6" t="s">
         <v>390</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A406" s="6" t="s">
         <v>390</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A407" s="6" t="s">
         <v>390</v>
       </c>
@@ -6085,17 +6085,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A408" s="1"/>
       <c r="B408" s="10"/>
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A409" s="1"/>
       <c r="B409" s="10"/>
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A410" s="6" t="s">
         <v>396</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A411" s="6" t="s">
         <v>396</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A412" s="6" t="s">
         <v>396</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A413" s="6" t="s">
         <v>396</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A414" s="6" t="s">
         <v>396</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A415" s="6" t="s">
         <v>396</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A416" s="6" t="s">
         <v>396</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A417" s="6" t="s">
         <v>396</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A418" s="6" t="s">
         <v>396</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A419" s="6" t="s">
         <v>396</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A420" s="6" t="s">
         <v>396</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A421" s="6" t="s">
         <v>396</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A422" s="6" t="s">
         <v>396</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A423" s="6" t="s">
         <v>396</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A424" s="6" t="s">
         <v>396</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A425" s="6" t="s">
         <v>396</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A426" s="6" t="s">
         <v>396</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A427" s="6" t="s">
         <v>396</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A428" s="6" t="s">
         <v>396</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A429" s="6" t="s">
         <v>396</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A430" s="6" t="s">
         <v>396</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A431" s="6" t="s">
         <v>396</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A432" s="6" t="s">
         <v>396</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A433" s="6" t="s">
         <v>396</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A434" s="6" t="s">
         <v>396</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A435" s="6" t="s">
         <v>396</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A436" s="6" t="s">
         <v>396</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A437" s="6" t="s">
         <v>396</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A438" s="6" t="s">
         <v>396</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A439" s="6" t="s">
         <v>396</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A440" s="6" t="s">
         <v>396</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A441" s="6" t="s">
         <v>396</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A442" s="6" t="s">
         <v>396</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A443" s="6" t="s">
         <v>396</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A444" s="6" t="s">
         <v>396</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A445" s="6" t="s">
         <v>396</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A446" s="6" t="s">
         <v>396</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A447" s="6" t="s">
         <v>396</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A448" s="6" t="s">
         <v>396</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A449" s="6" t="s">
         <v>396</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A450" s="6" t="s">
         <v>396</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A451" s="6" t="s">
         <v>396</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A452" s="6" t="s">
         <v>396</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A453" s="6" t="s">
         <v>396</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A454" s="6" t="s">
         <v>396</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A455" s="6" t="s">
         <v>396</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A456" s="6" t="s">
         <v>396</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A457" s="6" t="s">
         <v>396</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A458" s="6" t="s">
         <v>396</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A459" s="6" t="s">
         <v>396</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A460" s="6" t="s">
         <v>396</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A461" s="6" t="s">
         <v>396</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A462" s="6" t="s">
         <v>396</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A463" s="6" t="s">
         <v>396</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A464" s="6" t="s">
         <v>396</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A465" s="6" t="s">
         <v>396</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A466" s="6" t="s">
         <v>396</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A467" s="6" t="s">
         <v>396</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A468" s="6" t="s">
         <v>396</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A469" s="6" t="s">
         <v>396</v>
       </c>
@@ -6755,17 +6755,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A470" s="1"/>
       <c r="B470" s="10"/>
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A471" s="6"/>
       <c r="B471" s="10"/>
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A472" s="6" t="s">
         <v>456</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A473" s="6" t="s">
         <v>456</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A474" s="6" t="s">
         <v>456</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A475" s="6" t="s">
         <v>456</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A476" s="6" t="s">
         <v>456</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A477" s="6" t="s">
         <v>456</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A478" s="6" t="s">
         <v>456</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A479" s="6" t="s">
         <v>456</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A480" s="6" t="s">
         <v>456</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A481" s="6" t="s">
         <v>456</v>
       </c>

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Codes\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D882E09B-BAA5-4C7B-9BD7-F8ED6A1F4720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23550" windowHeight="13342" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23556" windowHeight="13344"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1426,7 +1425,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1753,42 +1752,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="97.25" customWidth="1"/>
-    <col min="4" max="4" width="55.25" customWidth="1"/>
+    <col min="2" max="2" width="97.21875" customWidth="1"/>
+    <col min="4" max="4" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1799,11 +1798,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1924,7 +1923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +2000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +2022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -2122,7 +2121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>5</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
@@ -2166,7 +2165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>5</v>
       </c>
@@ -2199,21 +2198,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="10"/>
       <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A43" s="6"/>
       <c r="B43" s="10"/>
       <c r="C43" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
         <v>45</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
@@ -2290,7 +2289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
         <v>45</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
         <v>45</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
         <v>45</v>
       </c>
@@ -2323,17 +2322,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A55" s="6"/>
       <c r="B55" s="10"/>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
         <v>56</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
         <v>56</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
         <v>56</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
         <v>56</v>
       </c>
@@ -2421,7 +2420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
         <v>56</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
         <v>56</v>
       </c>
@@ -2440,10 +2439,10 @@
         <v>66</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
         <v>56</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
@@ -2465,7 +2464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
         <v>56</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
         <v>56</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
         <v>56</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
         <v>56</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
         <v>56</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
         <v>56</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
         <v>56</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
         <v>56</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
         <v>56</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
         <v>56</v>
       </c>
@@ -2586,7 +2585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
         <v>56</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
         <v>56</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>56</v>
       </c>
@@ -2619,7 +2618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>56</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>56</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>56</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>56</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>56</v>
       </c>
@@ -2674,7 +2673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>56</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>56</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>56</v>
       </c>
@@ -2707,7 +2706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>56</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>56</v>
       </c>
@@ -2729,7 +2728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>56</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>56</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>56</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>56</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>56</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
         <v>56</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
         <v>56</v>
       </c>
@@ -2806,17 +2805,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A100" s="6"/>
       <c r="B100" s="10"/>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
         <v>100</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
         <v>100</v>
       </c>
@@ -2860,7 +2859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
         <v>100</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
@@ -2882,7 +2881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A107" s="6" t="s">
         <v>100</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A108" s="6" t="s">
         <v>100</v>
       </c>
@@ -2904,7 +2903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
         <v>100</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A110" s="6" t="s">
         <v>100</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A111" s="6" t="s">
         <v>100</v>
       </c>
@@ -2937,7 +2936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
         <v>100</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A113" s="6" t="s">
         <v>100</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A115" s="6" t="s">
         <v>100</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A116" s="6" t="s">
         <v>100</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A117" s="6" t="s">
         <v>100</v>
       </c>
@@ -3003,7 +3002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A118" s="6" t="s">
         <v>100</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A119" s="6" t="s">
         <v>100</v>
       </c>
@@ -3025,7 +3024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A120" s="6" t="s">
         <v>100</v>
       </c>
@@ -3036,7 +3035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
         <v>100</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A122" s="6" t="s">
         <v>100</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A123" s="6" t="s">
         <v>100</v>
       </c>
@@ -3069,7 +3068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A124" s="6" t="s">
         <v>100</v>
       </c>
@@ -3080,7 +3079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A125" s="6" t="s">
         <v>100</v>
       </c>
@@ -3091,7 +3090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A126" s="6" t="s">
         <v>100</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A127" s="6" t="s">
         <v>100</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A128" s="6" t="s">
         <v>100</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A129" s="6" t="s">
         <v>100</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A130" s="6" t="s">
         <v>100</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A131" s="6" t="s">
         <v>100</v>
       </c>
@@ -3157,7 +3156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A132" s="6" t="s">
         <v>100</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A133" s="6" t="s">
         <v>100</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A134" s="6" t="s">
         <v>100</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A135" s="6" t="s">
         <v>100</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A136" s="6" t="s">
         <v>100</v>
       </c>
@@ -3212,17 +3211,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
       <c r="B138" s="10"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A140" s="6" t="s">
         <v>137</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A141" s="6" t="s">
         <v>137</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A142" s="6" t="s">
         <v>137</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A143" s="6" t="s">
         <v>137</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A144" s="6" t="s">
         <v>137</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A145" s="6" t="s">
         <v>137</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A146" s="6" t="s">
         <v>137</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A147" s="6" t="s">
         <v>137</v>
       </c>
@@ -3321,7 +3320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A148" s="6" t="s">
         <v>137</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A149" s="6" t="s">
         <v>137</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A150" s="6" t="s">
         <v>137</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A151" s="6" t="s">
         <v>137</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A152" s="6" t="s">
         <v>137</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A153" s="6" t="s">
         <v>137</v>
       </c>
@@ -3387,7 +3386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A154" s="6" t="s">
         <v>137</v>
       </c>
@@ -3398,7 +3397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A155" s="6" t="s">
         <v>137</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A156" s="6" t="s">
         <v>137</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A157" s="6" t="s">
         <v>137</v>
       </c>
@@ -3431,7 +3430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A158" s="6" t="s">
         <v>137</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A159" s="6" t="s">
         <v>137</v>
       </c>
@@ -3453,7 +3452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A160" s="6" t="s">
         <v>137</v>
       </c>
@@ -3464,7 +3463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A161" s="6" t="s">
         <v>137</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A162" s="6" t="s">
         <v>137</v>
       </c>
@@ -3486,7 +3485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A163" s="6" t="s">
         <v>137</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A164" s="6" t="s">
         <v>137</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A165" s="6" t="s">
         <v>137</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A166" s="6" t="s">
         <v>137</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A167" s="6" t="s">
         <v>137</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A168" s="6" t="s">
         <v>137</v>
       </c>
@@ -3552,7 +3551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A169" s="6" t="s">
         <v>137</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A170" s="6" t="s">
         <v>137</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A171" s="6" t="s">
         <v>137</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A172" s="6" t="s">
         <v>137</v>
       </c>
@@ -3596,7 +3595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A173" s="6" t="s">
         <v>137</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A174" s="6" t="s">
         <v>137</v>
       </c>
@@ -3618,17 +3617,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A176" s="1"/>
       <c r="B176" s="10"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A177" s="6" t="s">
         <v>174</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A178" s="6" t="s">
         <v>174</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A179" s="6" t="s">
         <v>174</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A180" s="6" t="s">
         <v>174</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A181" s="6" t="s">
         <v>174</v>
       </c>
@@ -3683,7 +3682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A182" s="6" t="s">
         <v>174</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A183" s="6" t="s">
         <v>174</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A184" s="6" t="s">
         <v>174</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A185" s="6" t="s">
         <v>174</v>
       </c>
@@ -3727,7 +3726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A186" s="6" t="s">
         <v>174</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A187" s="6" t="s">
         <v>174</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A188" s="6" t="s">
         <v>174</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A189" s="6" t="s">
         <v>174</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A190" s="6" t="s">
         <v>174</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A191" s="6" t="s">
         <v>174</v>
       </c>
@@ -3793,7 +3792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A192" s="6" t="s">
         <v>174</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A194" s="6" t="s">
         <v>174</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A195" s="6" t="s">
         <v>174</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A196" s="6" t="s">
         <v>174</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A197" s="6" t="s">
         <v>174</v>
       </c>
@@ -3859,7 +3858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A198" s="6" t="s">
         <v>174</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A199" s="6" t="s">
         <v>174</v>
       </c>
@@ -3881,7 +3880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A200" s="6" t="s">
         <v>174</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A201" s="6" t="s">
         <v>174</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A202" s="6" t="s">
         <v>174</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A203" s="6" t="s">
         <v>174</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A204" s="6" t="s">
         <v>174</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A205" s="6" t="s">
         <v>174</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A206" s="6" t="s">
         <v>174</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A207" s="6" t="s">
         <v>174</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A208" s="6" t="s">
         <v>174</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A209" s="6" t="s">
         <v>174</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A210" s="6" t="s">
         <v>174</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A211" s="6" t="s">
         <v>174</v>
       </c>
@@ -4013,17 +4012,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A212" s="6"/>
       <c r="B212" s="10"/>
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A213" s="6"/>
       <c r="B213" s="10"/>
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A214" s="6" t="s">
         <v>210</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A215" s="6" t="s">
         <v>210</v>
       </c>
@@ -4045,7 +4044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A216" s="6" t="s">
         <v>210</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A217" s="6" t="s">
         <v>210</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A218" s="6" t="s">
         <v>210</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A219" s="6" t="s">
         <v>210</v>
       </c>
@@ -4089,7 +4088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A220" s="6" t="s">
         <v>210</v>
       </c>
@@ -4100,7 +4099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A221" s="6" t="s">
         <v>210</v>
       </c>
@@ -4111,7 +4110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A222" s="6" t="s">
         <v>210</v>
       </c>
@@ -4122,7 +4121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A223" s="6" t="s">
         <v>210</v>
       </c>
@@ -4133,7 +4132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A224" s="6" t="s">
         <v>210</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A225" s="6" t="s">
         <v>210</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A226" s="6" t="s">
         <v>210</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A227" s="6" t="s">
         <v>210</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A228" s="6" t="s">
         <v>210</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A229" s="6" t="s">
         <v>210</v>
       </c>
@@ -4199,7 +4198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A230" s="6" t="s">
         <v>210</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A231" s="6" t="s">
         <v>210</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A232" s="6" t="s">
         <v>210</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A233" s="6" t="s">
         <v>210</v>
       </c>
@@ -4243,7 +4242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A234" s="6" t="s">
         <v>210</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A235" s="6" t="s">
         <v>210</v>
       </c>
@@ -4265,17 +4264,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A237" s="1"/>
       <c r="B237" s="10"/>
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A238" s="6" t="s">
         <v>233</v>
       </c>
@@ -4286,7 +4285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A239" s="6" t="s">
         <v>233</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A240" s="6" t="s">
         <v>233</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A241" s="6" t="s">
         <v>233</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A242" s="6" t="s">
         <v>233</v>
       </c>
@@ -4330,7 +4329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A243" s="6" t="s">
         <v>233</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A244" s="6" t="s">
         <v>233</v>
       </c>
@@ -4352,7 +4351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A245" s="6" t="s">
         <v>233</v>
       </c>
@@ -4363,7 +4362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A246" s="6" t="s">
         <v>233</v>
       </c>
@@ -4374,7 +4373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A247" s="6" t="s">
         <v>233</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A248" s="6" t="s">
         <v>233</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A249" s="6" t="s">
         <v>233</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A250" s="6" t="s">
         <v>233</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A251" s="6" t="s">
         <v>233</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A252" s="6" t="s">
         <v>233</v>
       </c>
@@ -4440,7 +4439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A253" s="6" t="s">
         <v>233</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A254" s="6" t="s">
         <v>233</v>
       </c>
@@ -4462,7 +4461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A255" s="6" t="s">
         <v>233</v>
       </c>
@@ -4473,7 +4472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A256" s="6" t="s">
         <v>233</v>
       </c>
@@ -4484,7 +4483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A257" s="6" t="s">
         <v>233</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A258" s="6" t="s">
         <v>233</v>
       </c>
@@ -4506,7 +4505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A259" s="6" t="s">
         <v>233</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A260" s="6" t="s">
         <v>233</v>
       </c>
@@ -4528,7 +4527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A261" s="6" t="s">
         <v>233</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A262" s="6" t="s">
         <v>233</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A263" s="6" t="s">
         <v>233</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A264" s="6" t="s">
         <v>233</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A265" s="6" t="s">
         <v>233</v>
       </c>
@@ -4583,7 +4582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A266" s="6" t="s">
         <v>233</v>
       </c>
@@ -4594,7 +4593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A267" s="6" t="s">
         <v>233</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A268" s="6" t="s">
         <v>233</v>
       </c>
@@ -4616,7 +4615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A269" s="6" t="s">
         <v>233</v>
       </c>
@@ -4627,7 +4626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A270" s="6" t="s">
         <v>233</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A271" s="6" t="s">
         <v>233</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A272" s="6" t="s">
         <v>233</v>
       </c>
@@ -4660,17 +4659,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A273" s="1"/>
       <c r="B273" s="10"/>
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A274" s="1"/>
       <c r="B274" s="10"/>
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A275" s="6" t="s">
         <v>268</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A276" s="6" t="s">
         <v>268</v>
       </c>
@@ -4692,7 +4691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A277" s="6" t="s">
         <v>268</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A278" s="6" t="s">
         <v>268</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A279" s="6" t="s">
         <v>268</v>
       </c>
@@ -4725,7 +4724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A280" s="6" t="s">
         <v>268</v>
       </c>
@@ -4736,7 +4735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A281" s="6" t="s">
         <v>268</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A282" s="6" t="s">
         <v>268</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A283" s="6" t="s">
         <v>268</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A284" s="6" t="s">
         <v>268</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A285" s="6" t="s">
         <v>268</v>
       </c>
@@ -4791,7 +4790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A286" s="6" t="s">
         <v>268</v>
       </c>
@@ -4802,7 +4801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A287" s="6" t="s">
         <v>268</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A288" s="6" t="s">
         <v>268</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A289" s="6" t="s">
         <v>268</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A290" s="6" t="s">
         <v>268</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A291" s="6" t="s">
         <v>268</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A292" s="6" t="s">
         <v>268</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A293" s="6" t="s">
         <v>268</v>
       </c>
@@ -4879,17 +4878,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A294" s="1"/>
       <c r="B294" s="10"/>
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A295" s="1"/>
       <c r="B295" s="10"/>
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A296" s="6" t="s">
         <v>288</v>
       </c>
@@ -4900,7 +4899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A297" s="6" t="s">
         <v>288</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A298" s="6" t="s">
         <v>288</v>
       </c>
@@ -4922,7 +4921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A299" s="6" t="s">
         <v>288</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A300" s="6" t="s">
         <v>288</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A301" s="6" t="s">
         <v>288</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A302" s="6" t="s">
         <v>288</v>
       </c>
@@ -4966,7 +4965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A303" s="6" t="s">
         <v>288</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A304" s="6" t="s">
         <v>288</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A305" s="6" t="s">
         <v>288</v>
       </c>
@@ -4999,7 +4998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A306" s="6" t="s">
         <v>288</v>
       </c>
@@ -5010,7 +5009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A307" s="6" t="s">
         <v>288</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A308" s="6" t="s">
         <v>288</v>
       </c>
@@ -5032,7 +5031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A309" s="6" t="s">
         <v>288</v>
       </c>
@@ -5043,7 +5042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A310" s="6" t="s">
         <v>288</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A311" s="6" t="s">
         <v>288</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A312" s="6" t="s">
         <v>288</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A313" s="6" t="s">
         <v>288</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A314" s="6" t="s">
         <v>288</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A315" s="6" t="s">
         <v>288</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A316" s="6" t="s">
         <v>288</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A317" s="6" t="s">
         <v>288</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A318" s="6" t="s">
         <v>288</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A319" s="6" t="s">
         <v>288</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A320" s="6" t="s">
         <v>288</v>
       </c>
@@ -5164,7 +5163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A321" s="6" t="s">
         <v>288</v>
       </c>
@@ -5175,7 +5174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A322" s="6" t="s">
         <v>288</v>
       </c>
@@ -5186,7 +5185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A323" s="6" t="s">
         <v>288</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A324" s="6" t="s">
         <v>288</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A325" s="6" t="s">
         <v>288</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A326" s="6" t="s">
         <v>288</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A327" s="6" t="s">
         <v>288</v>
       </c>
@@ -5241,7 +5240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A328" s="6" t="s">
         <v>288</v>
       </c>
@@ -5252,7 +5251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A329" s="6" t="s">
         <v>288</v>
       </c>
@@ -5263,7 +5262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A330" s="6" t="s">
         <v>288</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A331" s="6" t="s">
         <v>288</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A332" s="6" t="s">
         <v>288</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A333" s="6" t="s">
         <v>288</v>
       </c>
@@ -5307,17 +5306,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A334" s="1"/>
       <c r="B334" s="10"/>
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A335" s="1"/>
       <c r="B335" s="10"/>
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A336" s="6" t="s">
         <v>327</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A337" s="6" t="s">
         <v>327</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A338" s="6" t="s">
         <v>327</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A339" s="6" t="s">
         <v>327</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A340" s="6" t="s">
         <v>327</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A341" s="6" t="s">
         <v>327</v>
       </c>
@@ -5383,7 +5382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A342" s="6" t="s">
         <v>327</v>
       </c>
@@ -5394,7 +5393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A343" s="6" t="s">
         <v>327</v>
       </c>
@@ -5405,7 +5404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A344" s="6" t="s">
         <v>327</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A345" s="6" t="s">
         <v>327</v>
       </c>
@@ -5427,7 +5426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A346" s="6" t="s">
         <v>327</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A347" s="6" t="s">
         <v>327</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A348" s="6" t="s">
         <v>327</v>
       </c>
@@ -5460,7 +5459,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A349" s="6" t="s">
         <v>327</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A350" s="6" t="s">
         <v>327</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A351" s="6" t="s">
         <v>327</v>
       </c>
@@ -5493,7 +5492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A352" s="6" t="s">
         <v>327</v>
       </c>
@@ -5504,7 +5503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A353" s="6" t="s">
         <v>327</v>
       </c>
@@ -5515,17 +5514,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A354" s="1"/>
       <c r="B354" s="10"/>
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A355" s="1"/>
       <c r="B355" s="10"/>
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A356" s="6" t="s">
         <v>346</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A357" s="6" t="s">
         <v>346</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A358" s="6" t="s">
         <v>346</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A359" s="6" t="s">
         <v>346</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A360" s="6" t="s">
         <v>346</v>
       </c>
@@ -5580,7 +5579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A361" s="6" t="s">
         <v>346</v>
       </c>
@@ -5591,7 +5590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A362" s="6" t="s">
         <v>346</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A363" s="6" t="s">
         <v>346</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A364" s="6" t="s">
         <v>346</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A365" s="6" t="s">
         <v>346</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A366" s="6" t="s">
         <v>346</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A367" s="6" t="s">
         <v>346</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A368" s="6" t="s">
         <v>346</v>
       </c>
@@ -5668,7 +5667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A369" s="6" t="s">
         <v>346</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A370" s="6" t="s">
         <v>346</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A371" s="6" t="s">
         <v>346</v>
       </c>
@@ -5701,7 +5700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A372" s="6" t="s">
         <v>346</v>
       </c>
@@ -5712,7 +5711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A373" s="6" t="s">
         <v>346</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A374" s="6" t="s">
         <v>346</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A375" s="6" t="s">
         <v>346</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A376" s="6" t="s">
         <v>346</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A377" s="6" t="s">
         <v>346</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A378" s="6" t="s">
         <v>346</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A379" s="6" t="s">
         <v>346</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A380" s="6" t="s">
         <v>346</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A381" s="6" t="s">
         <v>346</v>
       </c>
@@ -5811,7 +5810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A382" s="6" t="s">
         <v>346</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A383" s="6" t="s">
         <v>346</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A384" s="6" t="s">
         <v>346</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A385" s="6" t="s">
         <v>346</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A386" s="6" t="s">
         <v>346</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A387" s="6" t="s">
         <v>346</v>
       </c>
@@ -5877,7 +5876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A388" s="6" t="s">
         <v>346</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A389" s="6" t="s">
         <v>346</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A390" s="6" t="s">
         <v>346</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A391" s="6" t="s">
         <v>346</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A392" s="6" t="s">
         <v>346</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A393" s="6" t="s">
         <v>346</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A394" s="6" t="s">
         <v>346</v>
       </c>
@@ -5954,7 +5953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A395" s="6" t="s">
         <v>346</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A396" s="6" t="s">
         <v>346</v>
       </c>
@@ -5976,7 +5975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A397" s="6" t="s">
         <v>346</v>
       </c>
@@ -5987,7 +5986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A398" s="6" t="s">
         <v>346</v>
       </c>
@@ -5998,7 +5997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A399" s="6" t="s">
         <v>346</v>
       </c>
@@ -6009,17 +6008,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A400" s="1"/>
       <c r="B400" s="10"/>
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A401" s="1"/>
       <c r="B401" s="10"/>
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A402" s="6" t="s">
         <v>390</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A403" s="6" t="s">
         <v>390</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A404" s="6" t="s">
         <v>390</v>
       </c>
@@ -6052,7 +6051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A405" s="6" t="s">
         <v>390</v>
       </c>
@@ -6063,7 +6062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A406" s="6" t="s">
         <v>390</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A407" s="6" t="s">
         <v>390</v>
       </c>
@@ -6085,17 +6084,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A408" s="1"/>
       <c r="B408" s="10"/>
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A409" s="1"/>
       <c r="B409" s="10"/>
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A410" s="6" t="s">
         <v>396</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A411" s="6" t="s">
         <v>396</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A412" s="6" t="s">
         <v>396</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A413" s="6" t="s">
         <v>396</v>
       </c>
@@ -6139,7 +6138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A414" s="6" t="s">
         <v>396</v>
       </c>
@@ -6150,7 +6149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A415" s="6" t="s">
         <v>396</v>
       </c>
@@ -6161,7 +6160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A416" s="6" t="s">
         <v>396</v>
       </c>
@@ -6172,7 +6171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A417" s="6" t="s">
         <v>396</v>
       </c>
@@ -6183,7 +6182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A418" s="6" t="s">
         <v>396</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A419" s="6" t="s">
         <v>396</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A420" s="6" t="s">
         <v>396</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A421" s="6" t="s">
         <v>396</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A422" s="6" t="s">
         <v>396</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A423" s="6" t="s">
         <v>396</v>
       </c>
@@ -6249,7 +6248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A424" s="6" t="s">
         <v>396</v>
       </c>
@@ -6260,7 +6259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A425" s="6" t="s">
         <v>396</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A426" s="6" t="s">
         <v>396</v>
       </c>
@@ -6282,7 +6281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A427" s="6" t="s">
         <v>396</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A428" s="6" t="s">
         <v>396</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A429" s="6" t="s">
         <v>396</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A430" s="6" t="s">
         <v>396</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A431" s="6" t="s">
         <v>396</v>
       </c>
@@ -6337,7 +6336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A432" s="6" t="s">
         <v>396</v>
       </c>
@@ -6348,7 +6347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A433" s="6" t="s">
         <v>396</v>
       </c>
@@ -6359,7 +6358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A434" s="6" t="s">
         <v>396</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A435" s="6" t="s">
         <v>396</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A436" s="6" t="s">
         <v>396</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A437" s="6" t="s">
         <v>396</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A438" s="6" t="s">
         <v>396</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A439" s="6" t="s">
         <v>396</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A440" s="6" t="s">
         <v>396</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A441" s="6" t="s">
         <v>396</v>
       </c>
@@ -6447,7 +6446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A442" s="6" t="s">
         <v>396</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A443" s="6" t="s">
         <v>396</v>
       </c>
@@ -6469,7 +6468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A444" s="6" t="s">
         <v>396</v>
       </c>
@@ -6480,7 +6479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A445" s="6" t="s">
         <v>396</v>
       </c>
@@ -6491,7 +6490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A446" s="6" t="s">
         <v>396</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A447" s="6" t="s">
         <v>396</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A448" s="6" t="s">
         <v>396</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A449" s="6" t="s">
         <v>396</v>
       </c>
@@ -6535,7 +6534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A450" s="6" t="s">
         <v>396</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A451" s="6" t="s">
         <v>396</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A452" s="6" t="s">
         <v>396</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A453" s="6" t="s">
         <v>396</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A454" s="6" t="s">
         <v>396</v>
       </c>
@@ -6590,7 +6589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A455" s="6" t="s">
         <v>396</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A456" s="6" t="s">
         <v>396</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A457" s="6" t="s">
         <v>396</v>
       </c>
@@ -6623,7 +6622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A458" s="6" t="s">
         <v>396</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A459" s="6" t="s">
         <v>396</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A460" s="6" t="s">
         <v>396</v>
       </c>
@@ -6656,7 +6655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A461" s="6" t="s">
         <v>396</v>
       </c>
@@ -6667,7 +6666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A462" s="6" t="s">
         <v>396</v>
       </c>
@@ -6678,7 +6677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A463" s="6" t="s">
         <v>396</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A464" s="6" t="s">
         <v>396</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A465" s="6" t="s">
         <v>396</v>
       </c>
@@ -6711,7 +6710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A466" s="6" t="s">
         <v>396</v>
       </c>
@@ -6722,7 +6721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A467" s="6" t="s">
         <v>396</v>
       </c>
@@ -6733,7 +6732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A468" s="6" t="s">
         <v>396</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A469" s="6" t="s">
         <v>396</v>
       </c>
@@ -6755,17 +6754,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A470" s="1"/>
       <c r="B470" s="10"/>
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A471" s="6"/>
       <c r="B471" s="10"/>
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A472" s="6" t="s">
         <v>456</v>
       </c>
@@ -6776,7 +6775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A473" s="6" t="s">
         <v>456</v>
       </c>
@@ -6787,7 +6786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A474" s="6" t="s">
         <v>456</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A475" s="6" t="s">
         <v>456</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A476" s="6" t="s">
         <v>456</v>
       </c>
@@ -6820,7 +6819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A477" s="6" t="s">
         <v>456</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A478" s="6" t="s">
         <v>456</v>
       </c>
@@ -6842,7 +6841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A479" s="6" t="s">
         <v>456</v>
       </c>
@@ -6853,7 +6852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A480" s="6" t="s">
         <v>456</v>
       </c>
@@ -6864,7 +6863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A481" s="6" t="s">
         <v>456</v>
       </c>
@@ -6877,452 +6876,452 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="B24" r:id="rId20"/>
+    <hyperlink ref="B25" r:id="rId21"/>
+    <hyperlink ref="B26" r:id="rId22"/>
+    <hyperlink ref="B27" r:id="rId23"/>
+    <hyperlink ref="B28" r:id="rId24"/>
+    <hyperlink ref="B29" r:id="rId25"/>
+    <hyperlink ref="B30" r:id="rId26"/>
+    <hyperlink ref="B31" r:id="rId27"/>
+    <hyperlink ref="B32" r:id="rId28"/>
+    <hyperlink ref="B33" r:id="rId29"/>
+    <hyperlink ref="B34" r:id="rId30"/>
+    <hyperlink ref="B35" r:id="rId31"/>
+    <hyperlink ref="B36" r:id="rId32"/>
+    <hyperlink ref="B37" r:id="rId33"/>
+    <hyperlink ref="B38" r:id="rId34"/>
+    <hyperlink ref="B39" r:id="rId35"/>
+    <hyperlink ref="B40" r:id="rId36"/>
+    <hyperlink ref="B41" r:id="rId37"/>
+    <hyperlink ref="B44" r:id="rId38"/>
+    <hyperlink ref="B45" r:id="rId39"/>
+    <hyperlink ref="B46" r:id="rId40"/>
+    <hyperlink ref="B47" r:id="rId41"/>
+    <hyperlink ref="B48" r:id="rId42"/>
+    <hyperlink ref="B49" r:id="rId43"/>
+    <hyperlink ref="B50" r:id="rId44"/>
+    <hyperlink ref="B51" r:id="rId45"/>
+    <hyperlink ref="B52" r:id="rId46"/>
+    <hyperlink ref="B53" r:id="rId47"/>
+    <hyperlink ref="B56" r:id="rId48"/>
+    <hyperlink ref="B57" r:id="rId49"/>
+    <hyperlink ref="B58" r:id="rId50"/>
+    <hyperlink ref="B60" r:id="rId51"/>
+    <hyperlink ref="B61" r:id="rId52"/>
+    <hyperlink ref="B62" r:id="rId53"/>
+    <hyperlink ref="B63" r:id="rId54"/>
+    <hyperlink ref="B64" r:id="rId55"/>
+    <hyperlink ref="B65" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="B67" r:id="rId58"/>
+    <hyperlink ref="B68" r:id="rId59"/>
+    <hyperlink ref="B69" r:id="rId60"/>
+    <hyperlink ref="B70" r:id="rId61"/>
+    <hyperlink ref="B71" r:id="rId62"/>
+    <hyperlink ref="B72" r:id="rId63"/>
+    <hyperlink ref="B73" r:id="rId64"/>
+    <hyperlink ref="B74" r:id="rId65"/>
+    <hyperlink ref="B75" r:id="rId66"/>
+    <hyperlink ref="B76" r:id="rId67"/>
+    <hyperlink ref="B77" r:id="rId68"/>
+    <hyperlink ref="B78" r:id="rId69"/>
+    <hyperlink ref="B79" r:id="rId70"/>
+    <hyperlink ref="B80" r:id="rId71"/>
+    <hyperlink ref="B81" r:id="rId72"/>
+    <hyperlink ref="B82" r:id="rId73"/>
+    <hyperlink ref="B83" r:id="rId74"/>
+    <hyperlink ref="B84" r:id="rId75"/>
+    <hyperlink ref="B85" r:id="rId76"/>
+    <hyperlink ref="B86" r:id="rId77"/>
+    <hyperlink ref="B87" r:id="rId78"/>
+    <hyperlink ref="B88" r:id="rId79"/>
+    <hyperlink ref="B89" r:id="rId80"/>
+    <hyperlink ref="B90" r:id="rId81"/>
+    <hyperlink ref="B91" r:id="rId82"/>
+    <hyperlink ref="B92" r:id="rId83"/>
+    <hyperlink ref="B93" r:id="rId84"/>
+    <hyperlink ref="B94" r:id="rId85"/>
+    <hyperlink ref="B95" r:id="rId86"/>
+    <hyperlink ref="B96" r:id="rId87"/>
+    <hyperlink ref="B97" r:id="rId88"/>
+    <hyperlink ref="B98" r:id="rId89"/>
+    <hyperlink ref="B101" r:id="rId90"/>
+    <hyperlink ref="B102" r:id="rId91"/>
+    <hyperlink ref="B103" r:id="rId92"/>
+    <hyperlink ref="B104" r:id="rId93"/>
+    <hyperlink ref="B105" r:id="rId94"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B107" r:id="rId96"/>
+    <hyperlink ref="B108" r:id="rId97"/>
+    <hyperlink ref="B109" r:id="rId98"/>
+    <hyperlink ref="B110" r:id="rId99"/>
+    <hyperlink ref="B111" r:id="rId100"/>
+    <hyperlink ref="B112" r:id="rId101"/>
+    <hyperlink ref="B113" r:id="rId102"/>
+    <hyperlink ref="B114" r:id="rId103"/>
+    <hyperlink ref="B115" r:id="rId104"/>
+    <hyperlink ref="B116" r:id="rId105"/>
+    <hyperlink ref="B117" r:id="rId106"/>
+    <hyperlink ref="B118" r:id="rId107"/>
+    <hyperlink ref="B119" r:id="rId108"/>
+    <hyperlink ref="B120" r:id="rId109"/>
+    <hyperlink ref="B121" r:id="rId110"/>
+    <hyperlink ref="B122" r:id="rId111"/>
+    <hyperlink ref="B123" r:id="rId112"/>
+    <hyperlink ref="B124" r:id="rId113"/>
+    <hyperlink ref="B125" r:id="rId114"/>
+    <hyperlink ref="B126" r:id="rId115"/>
+    <hyperlink ref="B127" r:id="rId116"/>
+    <hyperlink ref="B128" r:id="rId117"/>
+    <hyperlink ref="B129" r:id="rId118"/>
+    <hyperlink ref="B130" r:id="rId119"/>
+    <hyperlink ref="B131" r:id="rId120"/>
+    <hyperlink ref="B132" r:id="rId121"/>
+    <hyperlink ref="B133" r:id="rId122"/>
+    <hyperlink ref="B134" r:id="rId123"/>
+    <hyperlink ref="B135" r:id="rId124"/>
+    <hyperlink ref="B136" r:id="rId125"/>
+    <hyperlink ref="B139" r:id="rId126"/>
+    <hyperlink ref="B140" r:id="rId127"/>
+    <hyperlink ref="B141" r:id="rId128"/>
+    <hyperlink ref="B142" r:id="rId129"/>
+    <hyperlink ref="B143" r:id="rId130"/>
+    <hyperlink ref="B144" r:id="rId131"/>
+    <hyperlink ref="B145" r:id="rId132"/>
+    <hyperlink ref="B146" r:id="rId133"/>
+    <hyperlink ref="B147" r:id="rId134"/>
+    <hyperlink ref="B148" r:id="rId135"/>
+    <hyperlink ref="B149" r:id="rId136"/>
+    <hyperlink ref="B150" r:id="rId137"/>
+    <hyperlink ref="B151" r:id="rId138"/>
+    <hyperlink ref="B152" r:id="rId139"/>
+    <hyperlink ref="B153" r:id="rId140"/>
+    <hyperlink ref="B154" r:id="rId141"/>
+    <hyperlink ref="B155" r:id="rId142"/>
+    <hyperlink ref="B156" r:id="rId143"/>
+    <hyperlink ref="B157" r:id="rId144"/>
+    <hyperlink ref="B158" r:id="rId145"/>
+    <hyperlink ref="B159" r:id="rId146"/>
+    <hyperlink ref="B160" r:id="rId147"/>
+    <hyperlink ref="B161" r:id="rId148"/>
+    <hyperlink ref="B162" r:id="rId149"/>
+    <hyperlink ref="B163" r:id="rId150"/>
+    <hyperlink ref="B166" r:id="rId151"/>
+    <hyperlink ref="B167" r:id="rId152"/>
+    <hyperlink ref="B168" r:id="rId153"/>
+    <hyperlink ref="B169" r:id="rId154"/>
+    <hyperlink ref="B170" r:id="rId155"/>
+    <hyperlink ref="B171" r:id="rId156"/>
+    <hyperlink ref="B172" r:id="rId157"/>
+    <hyperlink ref="B173" r:id="rId158"/>
+    <hyperlink ref="B174" r:id="rId159"/>
+    <hyperlink ref="B177" r:id="rId160"/>
+    <hyperlink ref="B178" r:id="rId161"/>
+    <hyperlink ref="B179" r:id="rId162"/>
+    <hyperlink ref="B180" r:id="rId163"/>
+    <hyperlink ref="B181" r:id="rId164"/>
+    <hyperlink ref="B182" r:id="rId165"/>
+    <hyperlink ref="B183" r:id="rId166"/>
+    <hyperlink ref="B184" r:id="rId167"/>
+    <hyperlink ref="B185" r:id="rId168"/>
+    <hyperlink ref="B186" r:id="rId169"/>
+    <hyperlink ref="B187" r:id="rId170"/>
+    <hyperlink ref="B188" r:id="rId171"/>
+    <hyperlink ref="B189" r:id="rId172"/>
+    <hyperlink ref="B190" r:id="rId173"/>
+    <hyperlink ref="B191" r:id="rId174"/>
+    <hyperlink ref="B192" r:id="rId175"/>
+    <hyperlink ref="B193" r:id="rId176"/>
+    <hyperlink ref="B194" r:id="rId177"/>
+    <hyperlink ref="B195" r:id="rId178"/>
+    <hyperlink ref="B196" r:id="rId179"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B198" r:id="rId181"/>
+    <hyperlink ref="B199" r:id="rId182"/>
+    <hyperlink ref="B200" r:id="rId183"/>
+    <hyperlink ref="B201" r:id="rId184"/>
+    <hyperlink ref="B202" r:id="rId185"/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B204" r:id="rId187"/>
+    <hyperlink ref="B205" r:id="rId188"/>
+    <hyperlink ref="B206" r:id="rId189"/>
+    <hyperlink ref="B207" r:id="rId190"/>
+    <hyperlink ref="B208" r:id="rId191"/>
+    <hyperlink ref="B209" r:id="rId192"/>
+    <hyperlink ref="B210" r:id="rId193"/>
+    <hyperlink ref="B211" r:id="rId194"/>
+    <hyperlink ref="B214" r:id="rId195"/>
+    <hyperlink ref="B215" r:id="rId196"/>
+    <hyperlink ref="B216" r:id="rId197"/>
+    <hyperlink ref="B217" r:id="rId198"/>
+    <hyperlink ref="B218" r:id="rId199"/>
+    <hyperlink ref="B219" r:id="rId200"/>
+    <hyperlink ref="B220" r:id="rId201"/>
+    <hyperlink ref="B221" r:id="rId202"/>
+    <hyperlink ref="B222" r:id="rId203"/>
+    <hyperlink ref="B223" r:id="rId204"/>
+    <hyperlink ref="B224" r:id="rId205"/>
+    <hyperlink ref="B225" r:id="rId206"/>
+    <hyperlink ref="B226" r:id="rId207"/>
+    <hyperlink ref="B227" r:id="rId208"/>
+    <hyperlink ref="B228" r:id="rId209"/>
+    <hyperlink ref="B229" r:id="rId210"/>
+    <hyperlink ref="B230" r:id="rId211"/>
+    <hyperlink ref="B231" r:id="rId212"/>
+    <hyperlink ref="B232" r:id="rId213"/>
+    <hyperlink ref="B233" r:id="rId214"/>
+    <hyperlink ref="B234" r:id="rId215"/>
+    <hyperlink ref="B235" r:id="rId216"/>
+    <hyperlink ref="B238" r:id="rId217"/>
+    <hyperlink ref="B239" r:id="rId218"/>
+    <hyperlink ref="B240" r:id="rId219"/>
+    <hyperlink ref="B241" r:id="rId220"/>
+    <hyperlink ref="B242" r:id="rId221"/>
+    <hyperlink ref="B243" r:id="rId222"/>
+    <hyperlink ref="B244" r:id="rId223"/>
+    <hyperlink ref="B245" r:id="rId224"/>
+    <hyperlink ref="B246" r:id="rId225"/>
+    <hyperlink ref="B247" r:id="rId226"/>
+    <hyperlink ref="B248" r:id="rId227"/>
+    <hyperlink ref="B249" r:id="rId228"/>
+    <hyperlink ref="B250" r:id="rId229"/>
+    <hyperlink ref="B251" r:id="rId230"/>
+    <hyperlink ref="B252" r:id="rId231"/>
+    <hyperlink ref="B253" r:id="rId232"/>
+    <hyperlink ref="B254" r:id="rId233"/>
+    <hyperlink ref="B255" r:id="rId234"/>
+    <hyperlink ref="B256" r:id="rId235"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B258" r:id="rId237"/>
+    <hyperlink ref="B259" r:id="rId238"/>
+    <hyperlink ref="B260" r:id="rId239"/>
+    <hyperlink ref="B261" r:id="rId240"/>
+    <hyperlink ref="B262" r:id="rId241"/>
+    <hyperlink ref="B263" r:id="rId242"/>
+    <hyperlink ref="B264" r:id="rId243"/>
+    <hyperlink ref="B265" r:id="rId244"/>
+    <hyperlink ref="B266" r:id="rId245"/>
+    <hyperlink ref="B267" r:id="rId246"/>
+    <hyperlink ref="B268" r:id="rId247"/>
+    <hyperlink ref="B269" r:id="rId248"/>
+    <hyperlink ref="B270" r:id="rId249"/>
+    <hyperlink ref="B271" r:id="rId250"/>
+    <hyperlink ref="B272" r:id="rId251"/>
+    <hyperlink ref="B275" r:id="rId252"/>
+    <hyperlink ref="B276" r:id="rId253"/>
+    <hyperlink ref="B277" r:id="rId254"/>
+    <hyperlink ref="B278" r:id="rId255"/>
+    <hyperlink ref="B279" r:id="rId256"/>
+    <hyperlink ref="B280" r:id="rId257"/>
+    <hyperlink ref="B281" r:id="rId258"/>
+    <hyperlink ref="B282" r:id="rId259"/>
+    <hyperlink ref="B283" r:id="rId260"/>
+    <hyperlink ref="B284" r:id="rId261"/>
+    <hyperlink ref="B285" r:id="rId262"/>
+    <hyperlink ref="B286" r:id="rId263"/>
+    <hyperlink ref="B287" r:id="rId264"/>
+    <hyperlink ref="B288" r:id="rId265"/>
+    <hyperlink ref="B289" r:id="rId266"/>
+    <hyperlink ref="B290" r:id="rId267"/>
+    <hyperlink ref="B291" r:id="rId268"/>
+    <hyperlink ref="B292" r:id="rId269"/>
+    <hyperlink ref="B293" r:id="rId270"/>
+    <hyperlink ref="B296" r:id="rId271"/>
+    <hyperlink ref="B297" r:id="rId272"/>
+    <hyperlink ref="B298" r:id="rId273"/>
+    <hyperlink ref="B299" r:id="rId274"/>
+    <hyperlink ref="B300" r:id="rId275"/>
+    <hyperlink ref="B301" r:id="rId276"/>
+    <hyperlink ref="B302" r:id="rId277"/>
+    <hyperlink ref="B303" r:id="rId278"/>
+    <hyperlink ref="B304" r:id="rId279"/>
+    <hyperlink ref="B305" r:id="rId280"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B307" r:id="rId282"/>
+    <hyperlink ref="B308" r:id="rId283"/>
+    <hyperlink ref="B309" r:id="rId284"/>
+    <hyperlink ref="B310" r:id="rId285"/>
+    <hyperlink ref="B311" r:id="rId286"/>
+    <hyperlink ref="B312" r:id="rId287"/>
+    <hyperlink ref="B313" r:id="rId288"/>
+    <hyperlink ref="B314" r:id="rId289"/>
+    <hyperlink ref="B315" r:id="rId290"/>
+    <hyperlink ref="B316" r:id="rId291"/>
+    <hyperlink ref="B317" r:id="rId292"/>
+    <hyperlink ref="B318" r:id="rId293"/>
+    <hyperlink ref="B319" r:id="rId294"/>
+    <hyperlink ref="B320" r:id="rId295"/>
+    <hyperlink ref="B321" r:id="rId296"/>
+    <hyperlink ref="B322" r:id="rId297"/>
+    <hyperlink ref="B323" r:id="rId298"/>
+    <hyperlink ref="B324" r:id="rId299"/>
+    <hyperlink ref="B325" r:id="rId300"/>
+    <hyperlink ref="B326" r:id="rId301"/>
+    <hyperlink ref="B327" r:id="rId302"/>
+    <hyperlink ref="B328" r:id="rId303"/>
+    <hyperlink ref="B329" r:id="rId304"/>
+    <hyperlink ref="B330" r:id="rId305"/>
+    <hyperlink ref="B331" r:id="rId306"/>
+    <hyperlink ref="B332" r:id="rId307"/>
+    <hyperlink ref="B333" r:id="rId308"/>
+    <hyperlink ref="B336" r:id="rId309"/>
+    <hyperlink ref="B337" r:id="rId310"/>
+    <hyperlink ref="B338" r:id="rId311"/>
+    <hyperlink ref="B339" r:id="rId312"/>
+    <hyperlink ref="B340" r:id="rId313"/>
+    <hyperlink ref="B341" r:id="rId314"/>
+    <hyperlink ref="B342" r:id="rId315"/>
+    <hyperlink ref="B343" r:id="rId316"/>
+    <hyperlink ref="B344" r:id="rId317"/>
+    <hyperlink ref="B345" r:id="rId318"/>
+    <hyperlink ref="B346" r:id="rId319"/>
+    <hyperlink ref="B347" r:id="rId320"/>
+    <hyperlink ref="B348" r:id="rId321"/>
+    <hyperlink ref="B349" r:id="rId322"/>
+    <hyperlink ref="B350" r:id="rId323"/>
+    <hyperlink ref="B351" r:id="rId324"/>
+    <hyperlink ref="B352" r:id="rId325"/>
+    <hyperlink ref="B353" r:id="rId326"/>
+    <hyperlink ref="B356" r:id="rId327"/>
+    <hyperlink ref="B357" r:id="rId328"/>
+    <hyperlink ref="B358" r:id="rId329"/>
+    <hyperlink ref="B359" r:id="rId330"/>
+    <hyperlink ref="B360" r:id="rId331"/>
+    <hyperlink ref="B361" r:id="rId332"/>
+    <hyperlink ref="B362" r:id="rId333"/>
+    <hyperlink ref="B363" r:id="rId334"/>
+    <hyperlink ref="B364" r:id="rId335"/>
+    <hyperlink ref="B365" r:id="rId336"/>
+    <hyperlink ref="B366" r:id="rId337"/>
+    <hyperlink ref="B367" r:id="rId338"/>
+    <hyperlink ref="B368" r:id="rId339"/>
+    <hyperlink ref="B369" r:id="rId340"/>
+    <hyperlink ref="B370" r:id="rId341"/>
+    <hyperlink ref="B371" r:id="rId342"/>
+    <hyperlink ref="B372" r:id="rId343"/>
+    <hyperlink ref="B373" r:id="rId344"/>
+    <hyperlink ref="B374" r:id="rId345"/>
+    <hyperlink ref="B375" r:id="rId346"/>
+    <hyperlink ref="B376" r:id="rId347"/>
+    <hyperlink ref="B377" r:id="rId348"/>
+    <hyperlink ref="B378" r:id="rId349"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B380" r:id="rId351"/>
+    <hyperlink ref="B381" r:id="rId352"/>
+    <hyperlink ref="B382" r:id="rId353"/>
+    <hyperlink ref="B383" r:id="rId354"/>
+    <hyperlink ref="B384" r:id="rId355"/>
+    <hyperlink ref="B385" r:id="rId356"/>
+    <hyperlink ref="B386" r:id="rId357"/>
+    <hyperlink ref="B387" r:id="rId358"/>
+    <hyperlink ref="B388" r:id="rId359"/>
+    <hyperlink ref="B389" r:id="rId360"/>
+    <hyperlink ref="B390" r:id="rId361"/>
+    <hyperlink ref="B391" r:id="rId362"/>
+    <hyperlink ref="B392" r:id="rId363"/>
+    <hyperlink ref="B393" r:id="rId364"/>
+    <hyperlink ref="B394" r:id="rId365"/>
+    <hyperlink ref="B395" r:id="rId366"/>
+    <hyperlink ref="B396" r:id="rId367"/>
+    <hyperlink ref="B397" r:id="rId368"/>
+    <hyperlink ref="B398" r:id="rId369"/>
+    <hyperlink ref="B399" r:id="rId370"/>
+    <hyperlink ref="B402" r:id="rId371"/>
+    <hyperlink ref="B403" r:id="rId372"/>
+    <hyperlink ref="B404" r:id="rId373"/>
+    <hyperlink ref="B405" r:id="rId374"/>
+    <hyperlink ref="B406" r:id="rId375"/>
+    <hyperlink ref="B407" r:id="rId376"/>
+    <hyperlink ref="B410" r:id="rId377"/>
+    <hyperlink ref="B411" r:id="rId378"/>
+    <hyperlink ref="B412" r:id="rId379"/>
+    <hyperlink ref="B413" r:id="rId380"/>
+    <hyperlink ref="B414" r:id="rId381"/>
+    <hyperlink ref="B415" r:id="rId382"/>
+    <hyperlink ref="B416" r:id="rId383"/>
+    <hyperlink ref="B417" r:id="rId384"/>
+    <hyperlink ref="B418" r:id="rId385"/>
+    <hyperlink ref="B419" r:id="rId386"/>
+    <hyperlink ref="B420" r:id="rId387"/>
+    <hyperlink ref="B421" r:id="rId388"/>
+    <hyperlink ref="B422" r:id="rId389"/>
+    <hyperlink ref="B423" r:id="rId390"/>
+    <hyperlink ref="B424" r:id="rId391"/>
+    <hyperlink ref="B425" r:id="rId392"/>
+    <hyperlink ref="B426" r:id="rId393"/>
+    <hyperlink ref="B427" r:id="rId394"/>
+    <hyperlink ref="B428" r:id="rId395"/>
+    <hyperlink ref="B429" r:id="rId396"/>
+    <hyperlink ref="B430" r:id="rId397"/>
+    <hyperlink ref="B431" r:id="rId398"/>
+    <hyperlink ref="B432" r:id="rId399"/>
+    <hyperlink ref="B433" r:id="rId400"/>
+    <hyperlink ref="B434" r:id="rId401"/>
+    <hyperlink ref="B435" r:id="rId402"/>
+    <hyperlink ref="B436" r:id="rId403"/>
+    <hyperlink ref="B437" r:id="rId404"/>
+    <hyperlink ref="B438" r:id="rId405"/>
+    <hyperlink ref="B439" r:id="rId406"/>
+    <hyperlink ref="B440" r:id="rId407"/>
+    <hyperlink ref="B441" r:id="rId408"/>
+    <hyperlink ref="B442" r:id="rId409"/>
+    <hyperlink ref="B443" r:id="rId410"/>
+    <hyperlink ref="B444" r:id="rId411"/>
+    <hyperlink ref="B445" r:id="rId412"/>
+    <hyperlink ref="B446" r:id="rId413"/>
+    <hyperlink ref="B447" r:id="rId414"/>
+    <hyperlink ref="B448" r:id="rId415"/>
+    <hyperlink ref="B449" r:id="rId416"/>
+    <hyperlink ref="B450" r:id="rId417"/>
+    <hyperlink ref="B451" r:id="rId418"/>
+    <hyperlink ref="B452" r:id="rId419"/>
+    <hyperlink ref="B453" r:id="rId420"/>
+    <hyperlink ref="B454" r:id="rId421"/>
+    <hyperlink ref="B455" r:id="rId422"/>
+    <hyperlink ref="B456" r:id="rId423"/>
+    <hyperlink ref="B457" r:id="rId424"/>
+    <hyperlink ref="B458" r:id="rId425"/>
+    <hyperlink ref="B459" r:id="rId426"/>
+    <hyperlink ref="B460" r:id="rId427"/>
+    <hyperlink ref="B461" r:id="rId428"/>
+    <hyperlink ref="B462" r:id="rId429"/>
+    <hyperlink ref="B463" r:id="rId430"/>
+    <hyperlink ref="B464" r:id="rId431"/>
+    <hyperlink ref="B465" r:id="rId432"/>
+    <hyperlink ref="B466" r:id="rId433"/>
+    <hyperlink ref="B467" r:id="rId434"/>
+    <hyperlink ref="B468" r:id="rId435"/>
+    <hyperlink ref="B469" r:id="rId436"/>
+    <hyperlink ref="B472" r:id="rId437"/>
+    <hyperlink ref="B473" r:id="rId438"/>
+    <hyperlink ref="B474" r:id="rId439"/>
+    <hyperlink ref="B475" r:id="rId440"/>
+    <hyperlink ref="B476" r:id="rId441"/>
+    <hyperlink ref="B477" r:id="rId442"/>
+    <hyperlink ref="B478" r:id="rId443"/>
+    <hyperlink ref="B479" r:id="rId444"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B481" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\Codes\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3AA39D-A1CC-4421-9ECE-9676247A6514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23556" windowHeight="13344"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1425,7 +1426,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1752,42 +1753,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="97.21875" customWidth="1"/>
-    <col min="4" max="4" width="55.21875" customWidth="1"/>
+    <col min="2" max="2" width="97.23046875" customWidth="1"/>
+    <col min="4" max="4" width="55.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1798,11 +1799,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6" t="s">
         <v>5</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6" t="s">
         <v>5</v>
       </c>
@@ -2198,21 +2199,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="10"/>
       <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -2220,10 +2219,10 @@
         <v>46</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -2231,10 +2230,10 @@
         <v>47</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -2245,7 +2244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6" t="s">
         <v>45</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
@@ -2289,7 +2288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6" t="s">
         <v>45</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6" t="s">
         <v>45</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6" t="s">
         <v>45</v>
       </c>
@@ -2322,17 +2321,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6"/>
       <c r="B55" s="10"/>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
@@ -2365,7 +2364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6" t="s">
         <v>56</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6" t="s">
         <v>56</v>
       </c>
@@ -2387,7 +2386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6" t="s">
         <v>56</v>
       </c>
@@ -2398,7 +2397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6" t="s">
         <v>56</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6" t="s">
         <v>56</v>
       </c>
@@ -2428,10 +2427,10 @@
         <v>65</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6" t="s">
         <v>56</v>
       </c>
@@ -2442,7 +2441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6" t="s">
         <v>56</v>
       </c>
@@ -2450,10 +2449,10 @@
         <v>67</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
@@ -2461,10 +2460,10 @@
         <v>68</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="6" t="s">
         <v>56</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6" t="s">
         <v>56</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="6" t="s">
         <v>56</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="6" t="s">
         <v>56</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="6" t="s">
         <v>56</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="6" t="s">
         <v>56</v>
       </c>
@@ -2541,7 +2540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="6" t="s">
         <v>56</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="6" t="s">
         <v>56</v>
       </c>
@@ -2563,7 +2562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="6" t="s">
         <v>56</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="6" t="s">
         <v>56</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6" t="s">
         <v>56</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="6" t="s">
         <v>56</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6" t="s">
         <v>56</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="6" t="s">
         <v>56</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="6" t="s">
         <v>56</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="6" t="s">
         <v>56</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="6" t="s">
         <v>56</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6" t="s">
         <v>56</v>
       </c>
@@ -2673,7 +2672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6" t="s">
         <v>56</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="6" t="s">
         <v>56</v>
       </c>
@@ -2695,7 +2694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="6" t="s">
         <v>56</v>
       </c>
@@ -2706,7 +2705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="6" t="s">
         <v>56</v>
       </c>
@@ -2717,7 +2716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6" t="s">
         <v>56</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="6" t="s">
         <v>56</v>
       </c>
@@ -2739,7 +2738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="6" t="s">
         <v>56</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="6" t="s">
         <v>56</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="6" t="s">
         <v>56</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="6" t="s">
         <v>56</v>
       </c>
@@ -2783,7 +2782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="6" t="s">
         <v>56</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="6" t="s">
         <v>56</v>
       </c>
@@ -2805,17 +2804,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="6"/>
       <c r="B100" s="10"/>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="6" t="s">
         <v>100</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="6" t="s">
         <v>100</v>
       </c>
@@ -2859,7 +2858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6" t="s">
         <v>100</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="6" t="s">
         <v>100</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="6" t="s">
         <v>100</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="6" t="s">
         <v>100</v>
       </c>
@@ -2914,7 +2913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6" t="s">
         <v>100</v>
       </c>
@@ -2925,7 +2924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6" t="s">
         <v>100</v>
       </c>
@@ -2936,7 +2935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="6" t="s">
         <v>100</v>
       </c>
@@ -2947,7 +2946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="6" t="s">
         <v>100</v>
       </c>
@@ -2958,7 +2957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="6" t="s">
         <v>100</v>
       </c>
@@ -2980,7 +2979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="6" t="s">
         <v>100</v>
       </c>
@@ -2991,7 +2990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="6" t="s">
         <v>100</v>
       </c>
@@ -3002,7 +3001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="6" t="s">
         <v>100</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6" t="s">
         <v>100</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="6" t="s">
         <v>100</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="6" t="s">
         <v>100</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6" t="s">
         <v>100</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="6" t="s">
         <v>100</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="6" t="s">
         <v>100</v>
       </c>
@@ -3079,7 +3078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="6" t="s">
         <v>100</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6" t="s">
         <v>100</v>
       </c>
@@ -3101,7 +3100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="6" t="s">
         <v>100</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="6" t="s">
         <v>100</v>
       </c>
@@ -3123,7 +3122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="6" t="s">
         <v>100</v>
       </c>
@@ -3134,7 +3133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="6" t="s">
         <v>100</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="6" t="s">
         <v>100</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="6" t="s">
         <v>100</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="6" t="s">
         <v>100</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="6" t="s">
         <v>100</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="6" t="s">
         <v>100</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="6" t="s">
         <v>100</v>
       </c>
@@ -3211,17 +3210,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1"/>
       <c r="B138" s="10"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="6" t="s">
         <v>137</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="6" t="s">
         <v>137</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="6" t="s">
         <v>137</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="6" t="s">
         <v>137</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="6" t="s">
         <v>137</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="6" t="s">
         <v>137</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="6" t="s">
         <v>137</v>
       </c>
@@ -3309,7 +3308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="6" t="s">
         <v>137</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="6" t="s">
         <v>137</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="6" t="s">
         <v>137</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="6" t="s">
         <v>137</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="6" t="s">
         <v>137</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="6" t="s">
         <v>137</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="6" t="s">
         <v>137</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="6" t="s">
         <v>137</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="6" t="s">
         <v>137</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="6" t="s">
         <v>137</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="6" t="s">
         <v>137</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="6" t="s">
         <v>137</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="6" t="s">
         <v>137</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="6" t="s">
         <v>137</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="6" t="s">
         <v>137</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="6" t="s">
         <v>137</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="6" t="s">
         <v>137</v>
       </c>
@@ -3496,7 +3495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="6" t="s">
         <v>137</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="6" t="s">
         <v>137</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="6" t="s">
         <v>137</v>
       </c>
@@ -3529,7 +3528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="6" t="s">
         <v>137</v>
       </c>
@@ -3540,7 +3539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="6" t="s">
         <v>137</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="6" t="s">
         <v>137</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="6" t="s">
         <v>137</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="6" t="s">
         <v>137</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="6" t="s">
         <v>137</v>
       </c>
@@ -3595,7 +3594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="6" t="s">
         <v>137</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="6" t="s">
         <v>137</v>
       </c>
@@ -3617,17 +3616,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1"/>
       <c r="B176" s="10"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="6" t="s">
         <v>174</v>
       </c>
@@ -3638,7 +3637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="6" t="s">
         <v>174</v>
       </c>
@@ -3649,7 +3648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="6" t="s">
         <v>174</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="6" t="s">
         <v>174</v>
       </c>
@@ -3671,7 +3670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="6" t="s">
         <v>174</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="6" t="s">
         <v>174</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="6" t="s">
         <v>174</v>
       </c>
@@ -3704,7 +3703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="6" t="s">
         <v>174</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="6" t="s">
         <v>174</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="6" t="s">
         <v>174</v>
       </c>
@@ -3737,7 +3736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="6" t="s">
         <v>174</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="6" t="s">
         <v>174</v>
       </c>
@@ -3759,7 +3758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="6" t="s">
         <v>174</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="6" t="s">
         <v>174</v>
       </c>
@@ -3781,7 +3780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="6" t="s">
         <v>174</v>
       </c>
@@ -3792,7 +3791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="6" t="s">
         <v>174</v>
       </c>
@@ -3803,7 +3802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="6" t="s">
         <v>174</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="6" t="s">
         <v>174</v>
       </c>
@@ -3836,7 +3835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="6" t="s">
         <v>174</v>
       </c>
@@ -3847,7 +3846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="6" t="s">
         <v>174</v>
       </c>
@@ -3858,7 +3857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="6" t="s">
         <v>174</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="6" t="s">
         <v>174</v>
       </c>
@@ -3880,7 +3879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="6" t="s">
         <v>174</v>
       </c>
@@ -3891,7 +3890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="6" t="s">
         <v>174</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="6" t="s">
         <v>174</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="6" t="s">
         <v>174</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="6" t="s">
         <v>174</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="6" t="s">
         <v>174</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="6" t="s">
         <v>174</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="6" t="s">
         <v>174</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="6" t="s">
         <v>174</v>
       </c>
@@ -3979,7 +3978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="6" t="s">
         <v>174</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="6" t="s">
         <v>174</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="6" t="s">
         <v>174</v>
       </c>
@@ -4012,17 +4011,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="6"/>
       <c r="B212" s="10"/>
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="6"/>
       <c r="B213" s="10"/>
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="6" t="s">
         <v>210</v>
       </c>
@@ -4033,7 +4032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="6" t="s">
         <v>210</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="6" t="s">
         <v>210</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="6" t="s">
         <v>210</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="6" t="s">
         <v>210</v>
       </c>
@@ -4077,7 +4076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="6" t="s">
         <v>210</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="6" t="s">
         <v>210</v>
       </c>
@@ -4099,7 +4098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="6" t="s">
         <v>210</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="6" t="s">
         <v>210</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="6" t="s">
         <v>210</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="6" t="s">
         <v>210</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="6" t="s">
         <v>210</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="6" t="s">
         <v>210</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="6" t="s">
         <v>210</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="6" t="s">
         <v>210</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="6" t="s">
         <v>210</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="6" t="s">
         <v>210</v>
       </c>
@@ -4209,7 +4208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="6" t="s">
         <v>210</v>
       </c>
@@ -4220,7 +4219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="6" t="s">
         <v>210</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="6" t="s">
         <v>210</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="6" t="s">
         <v>210</v>
       </c>
@@ -4253,7 +4252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="6" t="s">
         <v>210</v>
       </c>
@@ -4264,17 +4263,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1"/>
       <c r="B237" s="10"/>
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="6" t="s">
         <v>233</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="6" t="s">
         <v>233</v>
       </c>
@@ -4296,7 +4295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="6" t="s">
         <v>233</v>
       </c>
@@ -4307,7 +4306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="6" t="s">
         <v>233</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="6" t="s">
         <v>233</v>
       </c>
@@ -4329,7 +4328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="6" t="s">
         <v>233</v>
       </c>
@@ -4340,7 +4339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="6" t="s">
         <v>233</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="6" t="s">
         <v>233</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="6" t="s">
         <v>233</v>
       </c>
@@ -4373,7 +4372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="6" t="s">
         <v>233</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="6" t="s">
         <v>233</v>
       </c>
@@ -4395,7 +4394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="6" t="s">
         <v>233</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="6" t="s">
         <v>233</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="6" t="s">
         <v>233</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="6" t="s">
         <v>233</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="6" t="s">
         <v>233</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="6" t="s">
         <v>233</v>
       </c>
@@ -4461,7 +4460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="6" t="s">
         <v>233</v>
       </c>
@@ -4472,7 +4471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="6" t="s">
         <v>233</v>
       </c>
@@ -4483,7 +4482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="6" t="s">
         <v>233</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="6" t="s">
         <v>233</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="6" t="s">
         <v>233</v>
       </c>
@@ -4516,7 +4515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="6" t="s">
         <v>233</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="6" t="s">
         <v>233</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="6" t="s">
         <v>233</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="6" t="s">
         <v>233</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="6" t="s">
         <v>233</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="6" t="s">
         <v>233</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="6" t="s">
         <v>233</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="6" t="s">
         <v>233</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="6" t="s">
         <v>233</v>
       </c>
@@ -4615,7 +4614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="6" t="s">
         <v>233</v>
       </c>
@@ -4626,7 +4625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="6" t="s">
         <v>233</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="6" t="s">
         <v>233</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="6" t="s">
         <v>233</v>
       </c>
@@ -4659,17 +4658,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1"/>
       <c r="B273" s="10"/>
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1"/>
       <c r="B274" s="10"/>
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="6" t="s">
         <v>268</v>
       </c>
@@ -4680,7 +4679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="6" t="s">
         <v>268</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="6" t="s">
         <v>268</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="6" t="s">
         <v>268</v>
       </c>
@@ -4713,7 +4712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="6" t="s">
         <v>268</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="6" t="s">
         <v>268</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="6" t="s">
         <v>268</v>
       </c>
@@ -4746,7 +4745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="6" t="s">
         <v>268</v>
       </c>
@@ -4757,7 +4756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="6" t="s">
         <v>268</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="6" t="s">
         <v>268</v>
       </c>
@@ -4779,7 +4778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="6" t="s">
         <v>268</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="6" t="s">
         <v>268</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="6" t="s">
         <v>268</v>
       </c>
@@ -4812,7 +4811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="6" t="s">
         <v>268</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="6" t="s">
         <v>268</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="6" t="s">
         <v>268</v>
       </c>
@@ -4845,7 +4844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="6" t="s">
         <v>268</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="6" t="s">
         <v>268</v>
       </c>
@@ -4867,7 +4866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="6" t="s">
         <v>268</v>
       </c>
@@ -4878,17 +4877,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1"/>
       <c r="B294" s="10"/>
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1"/>
       <c r="B295" s="10"/>
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="6" t="s">
         <v>288</v>
       </c>
@@ -4899,7 +4898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="6" t="s">
         <v>288</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="6" t="s">
         <v>288</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="6" t="s">
         <v>288</v>
       </c>
@@ -4932,7 +4931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="6" t="s">
         <v>288</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="6" t="s">
         <v>288</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="6" t="s">
         <v>288</v>
       </c>
@@ -4965,7 +4964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="6" t="s">
         <v>288</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="6" t="s">
         <v>288</v>
       </c>
@@ -4987,7 +4986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="6" t="s">
         <v>288</v>
       </c>
@@ -4998,7 +4997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="6" t="s">
         <v>288</v>
       </c>
@@ -5009,7 +5008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="6" t="s">
         <v>288</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="6" t="s">
         <v>288</v>
       </c>
@@ -5031,7 +5030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="6" t="s">
         <v>288</v>
       </c>
@@ -5042,7 +5041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="6" t="s">
         <v>288</v>
       </c>
@@ -5053,7 +5052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="6" t="s">
         <v>288</v>
       </c>
@@ -5064,7 +5063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="6" t="s">
         <v>288</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="6" t="s">
         <v>288</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="6" t="s">
         <v>288</v>
       </c>
@@ -5097,7 +5096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="6" t="s">
         <v>288</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="6" t="s">
         <v>288</v>
       </c>
@@ -5119,7 +5118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="6" t="s">
         <v>288</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="6" t="s">
         <v>288</v>
       </c>
@@ -5141,7 +5140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="6" t="s">
         <v>288</v>
       </c>
@@ -5152,7 +5151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="6" t="s">
         <v>288</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="6" t="s">
         <v>288</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="6" t="s">
         <v>288</v>
       </c>
@@ -5185,7 +5184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="6" t="s">
         <v>288</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="6" t="s">
         <v>288</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="6" t="s">
         <v>288</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="6" t="s">
         <v>288</v>
       </c>
@@ -5229,7 +5228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="6" t="s">
         <v>288</v>
       </c>
@@ -5240,7 +5239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="6" t="s">
         <v>288</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="6" t="s">
         <v>288</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="6" t="s">
         <v>288</v>
       </c>
@@ -5273,7 +5272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="6" t="s">
         <v>288</v>
       </c>
@@ -5284,7 +5283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="6" t="s">
         <v>288</v>
       </c>
@@ -5295,7 +5294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="6" t="s">
         <v>288</v>
       </c>
@@ -5306,17 +5305,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1"/>
       <c r="B334" s="10"/>
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1"/>
       <c r="B335" s="10"/>
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="6" t="s">
         <v>327</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="6" t="s">
         <v>327</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="6" t="s">
         <v>327</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="6" t="s">
         <v>327</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="6" t="s">
         <v>327</v>
       </c>
@@ -5371,7 +5370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="6" t="s">
         <v>327</v>
       </c>
@@ -5382,7 +5381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="6" t="s">
         <v>327</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="6" t="s">
         <v>327</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="6" t="s">
         <v>327</v>
       </c>
@@ -5415,7 +5414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="6" t="s">
         <v>327</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="6" t="s">
         <v>327</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="6" t="s">
         <v>327</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="6" t="s">
         <v>327</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="6" t="s">
         <v>327</v>
       </c>
@@ -5470,7 +5469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="6" t="s">
         <v>327</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="6" t="s">
         <v>327</v>
       </c>
@@ -5492,7 +5491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="6" t="s">
         <v>327</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="6" t="s">
         <v>327</v>
       </c>
@@ -5514,17 +5513,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1"/>
       <c r="B354" s="10"/>
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1"/>
       <c r="B355" s="10"/>
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="6" t="s">
         <v>346</v>
       </c>
@@ -5535,7 +5534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="6" t="s">
         <v>346</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="6" t="s">
         <v>346</v>
       </c>
@@ -5557,7 +5556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="6" t="s">
         <v>346</v>
       </c>
@@ -5568,7 +5567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="6" t="s">
         <v>346</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="6" t="s">
         <v>346</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="6" t="s">
         <v>346</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="6" t="s">
         <v>346</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="6" t="s">
         <v>346</v>
       </c>
@@ -5623,7 +5622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="6" t="s">
         <v>346</v>
       </c>
@@ -5634,7 +5633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="6" t="s">
         <v>346</v>
       </c>
@@ -5645,7 +5644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="6" t="s">
         <v>346</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="6" t="s">
         <v>346</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="6" t="s">
         <v>346</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="6" t="s">
         <v>346</v>
       </c>
@@ -5689,7 +5688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="6" t="s">
         <v>346</v>
       </c>
@@ -5700,7 +5699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="6" t="s">
         <v>346</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="6" t="s">
         <v>346</v>
       </c>
@@ -5722,7 +5721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="6" t="s">
         <v>346</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="6" t="s">
         <v>346</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="6" t="s">
         <v>346</v>
       </c>
@@ -5755,7 +5754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="6" t="s">
         <v>346</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="6" t="s">
         <v>346</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="6" t="s">
         <v>346</v>
       </c>
@@ -5788,7 +5787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="6" t="s">
         <v>346</v>
       </c>
@@ -5799,7 +5798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="6" t="s">
         <v>346</v>
       </c>
@@ -5810,7 +5809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="6" t="s">
         <v>346</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="6" t="s">
         <v>346</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="6" t="s">
         <v>346</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="6" t="s">
         <v>346</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="6" t="s">
         <v>346</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="6" t="s">
         <v>346</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="6" t="s">
         <v>346</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="6" t="s">
         <v>346</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="6" t="s">
         <v>346</v>
       </c>
@@ -5909,7 +5908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="6" t="s">
         <v>346</v>
       </c>
@@ -5920,7 +5919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="6" t="s">
         <v>346</v>
       </c>
@@ -5931,7 +5930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="6" t="s">
         <v>346</v>
       </c>
@@ -5942,7 +5941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="6" t="s">
         <v>346</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="6" t="s">
         <v>346</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="6" t="s">
         <v>346</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="6" t="s">
         <v>346</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="6" t="s">
         <v>346</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="6" t="s">
         <v>346</v>
       </c>
@@ -6008,17 +6007,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1"/>
       <c r="B400" s="10"/>
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1"/>
       <c r="B401" s="10"/>
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="6" t="s">
         <v>390</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="6" t="s">
         <v>390</v>
       </c>
@@ -6040,7 +6039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="6" t="s">
         <v>390</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="6" t="s">
         <v>390</v>
       </c>
@@ -6062,7 +6061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="6" t="s">
         <v>390</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="6" t="s">
         <v>390</v>
       </c>
@@ -6084,17 +6083,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1"/>
       <c r="B408" s="10"/>
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1"/>
       <c r="B409" s="10"/>
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="6" t="s">
         <v>396</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="6" t="s">
         <v>396</v>
       </c>
@@ -6116,7 +6115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="6" t="s">
         <v>396</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="6" t="s">
         <v>396</v>
       </c>
@@ -6138,7 +6137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="6" t="s">
         <v>396</v>
       </c>
@@ -6149,7 +6148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="6" t="s">
         <v>396</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="6" t="s">
         <v>396</v>
       </c>
@@ -6171,7 +6170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="6" t="s">
         <v>396</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="6" t="s">
         <v>396</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="6" t="s">
         <v>396</v>
       </c>
@@ -6204,7 +6203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="6" t="s">
         <v>396</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="6" t="s">
         <v>396</v>
       </c>
@@ -6226,7 +6225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="6" t="s">
         <v>396</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="6" t="s">
         <v>396</v>
       </c>
@@ -6248,7 +6247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="6" t="s">
         <v>396</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="6" t="s">
         <v>396</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="6" t="s">
         <v>396</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="6" t="s">
         <v>396</v>
       </c>
@@ -6292,7 +6291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="6" t="s">
         <v>396</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="6" t="s">
         <v>396</v>
       </c>
@@ -6314,7 +6313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="6" t="s">
         <v>396</v>
       </c>
@@ -6325,7 +6324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="6" t="s">
         <v>396</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="6" t="s">
         <v>396</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="6" t="s">
         <v>396</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="6" t="s">
         <v>396</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="6" t="s">
         <v>396</v>
       </c>
@@ -6380,7 +6379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="6" t="s">
         <v>396</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="6" t="s">
         <v>396</v>
       </c>
@@ -6402,7 +6401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="6" t="s">
         <v>396</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="6" t="s">
         <v>396</v>
       </c>
@@ -6424,7 +6423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="6" t="s">
         <v>396</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="6" t="s">
         <v>396</v>
       </c>
@@ -6446,7 +6445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="6" t="s">
         <v>396</v>
       </c>
@@ -6457,7 +6456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="6" t="s">
         <v>396</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="6" t="s">
         <v>396</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="6" t="s">
         <v>396</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="6" t="s">
         <v>396</v>
       </c>
@@ -6501,7 +6500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="6" t="s">
         <v>396</v>
       </c>
@@ -6512,7 +6511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="6" t="s">
         <v>396</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="6" t="s">
         <v>396</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="6" t="s">
         <v>396</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="6" t="s">
         <v>396</v>
       </c>
@@ -6556,7 +6555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="6" t="s">
         <v>396</v>
       </c>
@@ -6567,7 +6566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="6" t="s">
         <v>396</v>
       </c>
@@ -6578,7 +6577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="6" t="s">
         <v>396</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="6" t="s">
         <v>396</v>
       </c>
@@ -6600,7 +6599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="6" t="s">
         <v>396</v>
       </c>
@@ -6611,7 +6610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="6" t="s">
         <v>396</v>
       </c>
@@ -6622,7 +6621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="6" t="s">
         <v>396</v>
       </c>
@@ -6633,7 +6632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="6" t="s">
         <v>396</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="6" t="s">
         <v>396</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="6" t="s">
         <v>396</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="6" t="s">
         <v>396</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="6" t="s">
         <v>396</v>
       </c>
@@ -6688,7 +6687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="6" t="s">
         <v>396</v>
       </c>
@@ -6699,7 +6698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="6" t="s">
         <v>396</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="6" t="s">
         <v>396</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="6" t="s">
         <v>396</v>
       </c>
@@ -6732,7 +6731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="6" t="s">
         <v>396</v>
       </c>
@@ -6743,7 +6742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="6" t="s">
         <v>396</v>
       </c>
@@ -6754,17 +6753,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1"/>
       <c r="B470" s="10"/>
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="6"/>
       <c r="B471" s="10"/>
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="6" t="s">
         <v>456</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="6" t="s">
         <v>456</v>
       </c>
@@ -6786,7 +6785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="6" t="s">
         <v>456</v>
       </c>
@@ -6797,7 +6796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="6" t="s">
         <v>456</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="6" t="s">
         <v>456</v>
       </c>
@@ -6819,7 +6818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="6" t="s">
         <v>456</v>
       </c>
@@ -6830,7 +6829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="6" t="s">
         <v>456</v>
       </c>
@@ -6841,7 +6840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="6" t="s">
         <v>456</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="6" t="s">
         <v>456</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="6" t="s">
         <v>456</v>
       </c>
@@ -6876,452 +6875,452 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12"/>
-    <hyperlink ref="B17" r:id="rId13"/>
-    <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B19" r:id="rId15"/>
-    <hyperlink ref="B20" r:id="rId16"/>
-    <hyperlink ref="B21" r:id="rId17"/>
-    <hyperlink ref="B22" r:id="rId18"/>
-    <hyperlink ref="B23" r:id="rId19"/>
-    <hyperlink ref="B24" r:id="rId20"/>
-    <hyperlink ref="B25" r:id="rId21"/>
-    <hyperlink ref="B26" r:id="rId22"/>
-    <hyperlink ref="B27" r:id="rId23"/>
-    <hyperlink ref="B28" r:id="rId24"/>
-    <hyperlink ref="B29" r:id="rId25"/>
-    <hyperlink ref="B30" r:id="rId26"/>
-    <hyperlink ref="B31" r:id="rId27"/>
-    <hyperlink ref="B32" r:id="rId28"/>
-    <hyperlink ref="B33" r:id="rId29"/>
-    <hyperlink ref="B34" r:id="rId30"/>
-    <hyperlink ref="B35" r:id="rId31"/>
-    <hyperlink ref="B36" r:id="rId32"/>
-    <hyperlink ref="B37" r:id="rId33"/>
-    <hyperlink ref="B38" r:id="rId34"/>
-    <hyperlink ref="B39" r:id="rId35"/>
-    <hyperlink ref="B40" r:id="rId36"/>
-    <hyperlink ref="B41" r:id="rId37"/>
-    <hyperlink ref="B44" r:id="rId38"/>
-    <hyperlink ref="B45" r:id="rId39"/>
-    <hyperlink ref="B46" r:id="rId40"/>
-    <hyperlink ref="B47" r:id="rId41"/>
-    <hyperlink ref="B48" r:id="rId42"/>
-    <hyperlink ref="B49" r:id="rId43"/>
-    <hyperlink ref="B50" r:id="rId44"/>
-    <hyperlink ref="B51" r:id="rId45"/>
-    <hyperlink ref="B52" r:id="rId46"/>
-    <hyperlink ref="B53" r:id="rId47"/>
-    <hyperlink ref="B56" r:id="rId48"/>
-    <hyperlink ref="B57" r:id="rId49"/>
-    <hyperlink ref="B58" r:id="rId50"/>
-    <hyperlink ref="B60" r:id="rId51"/>
-    <hyperlink ref="B61" r:id="rId52"/>
-    <hyperlink ref="B62" r:id="rId53"/>
-    <hyperlink ref="B63" r:id="rId54"/>
-    <hyperlink ref="B64" r:id="rId55"/>
-    <hyperlink ref="B65" r:id="rId56"/>
-    <hyperlink ref="B66" r:id="rId57"/>
-    <hyperlink ref="B67" r:id="rId58"/>
-    <hyperlink ref="B68" r:id="rId59"/>
-    <hyperlink ref="B69" r:id="rId60"/>
-    <hyperlink ref="B70" r:id="rId61"/>
-    <hyperlink ref="B71" r:id="rId62"/>
-    <hyperlink ref="B72" r:id="rId63"/>
-    <hyperlink ref="B73" r:id="rId64"/>
-    <hyperlink ref="B74" r:id="rId65"/>
-    <hyperlink ref="B75" r:id="rId66"/>
-    <hyperlink ref="B76" r:id="rId67"/>
-    <hyperlink ref="B77" r:id="rId68"/>
-    <hyperlink ref="B78" r:id="rId69"/>
-    <hyperlink ref="B79" r:id="rId70"/>
-    <hyperlink ref="B80" r:id="rId71"/>
-    <hyperlink ref="B81" r:id="rId72"/>
-    <hyperlink ref="B82" r:id="rId73"/>
-    <hyperlink ref="B83" r:id="rId74"/>
-    <hyperlink ref="B84" r:id="rId75"/>
-    <hyperlink ref="B85" r:id="rId76"/>
-    <hyperlink ref="B86" r:id="rId77"/>
-    <hyperlink ref="B87" r:id="rId78"/>
-    <hyperlink ref="B88" r:id="rId79"/>
-    <hyperlink ref="B89" r:id="rId80"/>
-    <hyperlink ref="B90" r:id="rId81"/>
-    <hyperlink ref="B91" r:id="rId82"/>
-    <hyperlink ref="B92" r:id="rId83"/>
-    <hyperlink ref="B93" r:id="rId84"/>
-    <hyperlink ref="B94" r:id="rId85"/>
-    <hyperlink ref="B95" r:id="rId86"/>
-    <hyperlink ref="B96" r:id="rId87"/>
-    <hyperlink ref="B97" r:id="rId88"/>
-    <hyperlink ref="B98" r:id="rId89"/>
-    <hyperlink ref="B101" r:id="rId90"/>
-    <hyperlink ref="B102" r:id="rId91"/>
-    <hyperlink ref="B103" r:id="rId92"/>
-    <hyperlink ref="B104" r:id="rId93"/>
-    <hyperlink ref="B105" r:id="rId94"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B107" r:id="rId96"/>
-    <hyperlink ref="B108" r:id="rId97"/>
-    <hyperlink ref="B109" r:id="rId98"/>
-    <hyperlink ref="B110" r:id="rId99"/>
-    <hyperlink ref="B111" r:id="rId100"/>
-    <hyperlink ref="B112" r:id="rId101"/>
-    <hyperlink ref="B113" r:id="rId102"/>
-    <hyperlink ref="B114" r:id="rId103"/>
-    <hyperlink ref="B115" r:id="rId104"/>
-    <hyperlink ref="B116" r:id="rId105"/>
-    <hyperlink ref="B117" r:id="rId106"/>
-    <hyperlink ref="B118" r:id="rId107"/>
-    <hyperlink ref="B119" r:id="rId108"/>
-    <hyperlink ref="B120" r:id="rId109"/>
-    <hyperlink ref="B121" r:id="rId110"/>
-    <hyperlink ref="B122" r:id="rId111"/>
-    <hyperlink ref="B123" r:id="rId112"/>
-    <hyperlink ref="B124" r:id="rId113"/>
-    <hyperlink ref="B125" r:id="rId114"/>
-    <hyperlink ref="B126" r:id="rId115"/>
-    <hyperlink ref="B127" r:id="rId116"/>
-    <hyperlink ref="B128" r:id="rId117"/>
-    <hyperlink ref="B129" r:id="rId118"/>
-    <hyperlink ref="B130" r:id="rId119"/>
-    <hyperlink ref="B131" r:id="rId120"/>
-    <hyperlink ref="B132" r:id="rId121"/>
-    <hyperlink ref="B133" r:id="rId122"/>
-    <hyperlink ref="B134" r:id="rId123"/>
-    <hyperlink ref="B135" r:id="rId124"/>
-    <hyperlink ref="B136" r:id="rId125"/>
-    <hyperlink ref="B139" r:id="rId126"/>
-    <hyperlink ref="B140" r:id="rId127"/>
-    <hyperlink ref="B141" r:id="rId128"/>
-    <hyperlink ref="B142" r:id="rId129"/>
-    <hyperlink ref="B143" r:id="rId130"/>
-    <hyperlink ref="B144" r:id="rId131"/>
-    <hyperlink ref="B145" r:id="rId132"/>
-    <hyperlink ref="B146" r:id="rId133"/>
-    <hyperlink ref="B147" r:id="rId134"/>
-    <hyperlink ref="B148" r:id="rId135"/>
-    <hyperlink ref="B149" r:id="rId136"/>
-    <hyperlink ref="B150" r:id="rId137"/>
-    <hyperlink ref="B151" r:id="rId138"/>
-    <hyperlink ref="B152" r:id="rId139"/>
-    <hyperlink ref="B153" r:id="rId140"/>
-    <hyperlink ref="B154" r:id="rId141"/>
-    <hyperlink ref="B155" r:id="rId142"/>
-    <hyperlink ref="B156" r:id="rId143"/>
-    <hyperlink ref="B157" r:id="rId144"/>
-    <hyperlink ref="B158" r:id="rId145"/>
-    <hyperlink ref="B159" r:id="rId146"/>
-    <hyperlink ref="B160" r:id="rId147"/>
-    <hyperlink ref="B161" r:id="rId148"/>
-    <hyperlink ref="B162" r:id="rId149"/>
-    <hyperlink ref="B163" r:id="rId150"/>
-    <hyperlink ref="B166" r:id="rId151"/>
-    <hyperlink ref="B167" r:id="rId152"/>
-    <hyperlink ref="B168" r:id="rId153"/>
-    <hyperlink ref="B169" r:id="rId154"/>
-    <hyperlink ref="B170" r:id="rId155"/>
-    <hyperlink ref="B171" r:id="rId156"/>
-    <hyperlink ref="B172" r:id="rId157"/>
-    <hyperlink ref="B173" r:id="rId158"/>
-    <hyperlink ref="B174" r:id="rId159"/>
-    <hyperlink ref="B177" r:id="rId160"/>
-    <hyperlink ref="B178" r:id="rId161"/>
-    <hyperlink ref="B179" r:id="rId162"/>
-    <hyperlink ref="B180" r:id="rId163"/>
-    <hyperlink ref="B181" r:id="rId164"/>
-    <hyperlink ref="B182" r:id="rId165"/>
-    <hyperlink ref="B183" r:id="rId166"/>
-    <hyperlink ref="B184" r:id="rId167"/>
-    <hyperlink ref="B185" r:id="rId168"/>
-    <hyperlink ref="B186" r:id="rId169"/>
-    <hyperlink ref="B187" r:id="rId170"/>
-    <hyperlink ref="B188" r:id="rId171"/>
-    <hyperlink ref="B189" r:id="rId172"/>
-    <hyperlink ref="B190" r:id="rId173"/>
-    <hyperlink ref="B191" r:id="rId174"/>
-    <hyperlink ref="B192" r:id="rId175"/>
-    <hyperlink ref="B193" r:id="rId176"/>
-    <hyperlink ref="B194" r:id="rId177"/>
-    <hyperlink ref="B195" r:id="rId178"/>
-    <hyperlink ref="B196" r:id="rId179"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B198" r:id="rId181"/>
-    <hyperlink ref="B199" r:id="rId182"/>
-    <hyperlink ref="B200" r:id="rId183"/>
-    <hyperlink ref="B201" r:id="rId184"/>
-    <hyperlink ref="B202" r:id="rId185"/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B204" r:id="rId187"/>
-    <hyperlink ref="B205" r:id="rId188"/>
-    <hyperlink ref="B206" r:id="rId189"/>
-    <hyperlink ref="B207" r:id="rId190"/>
-    <hyperlink ref="B208" r:id="rId191"/>
-    <hyperlink ref="B209" r:id="rId192"/>
-    <hyperlink ref="B210" r:id="rId193"/>
-    <hyperlink ref="B211" r:id="rId194"/>
-    <hyperlink ref="B214" r:id="rId195"/>
-    <hyperlink ref="B215" r:id="rId196"/>
-    <hyperlink ref="B216" r:id="rId197"/>
-    <hyperlink ref="B217" r:id="rId198"/>
-    <hyperlink ref="B218" r:id="rId199"/>
-    <hyperlink ref="B219" r:id="rId200"/>
-    <hyperlink ref="B220" r:id="rId201"/>
-    <hyperlink ref="B221" r:id="rId202"/>
-    <hyperlink ref="B222" r:id="rId203"/>
-    <hyperlink ref="B223" r:id="rId204"/>
-    <hyperlink ref="B224" r:id="rId205"/>
-    <hyperlink ref="B225" r:id="rId206"/>
-    <hyperlink ref="B226" r:id="rId207"/>
-    <hyperlink ref="B227" r:id="rId208"/>
-    <hyperlink ref="B228" r:id="rId209"/>
-    <hyperlink ref="B229" r:id="rId210"/>
-    <hyperlink ref="B230" r:id="rId211"/>
-    <hyperlink ref="B231" r:id="rId212"/>
-    <hyperlink ref="B232" r:id="rId213"/>
-    <hyperlink ref="B233" r:id="rId214"/>
-    <hyperlink ref="B234" r:id="rId215"/>
-    <hyperlink ref="B235" r:id="rId216"/>
-    <hyperlink ref="B238" r:id="rId217"/>
-    <hyperlink ref="B239" r:id="rId218"/>
-    <hyperlink ref="B240" r:id="rId219"/>
-    <hyperlink ref="B241" r:id="rId220"/>
-    <hyperlink ref="B242" r:id="rId221"/>
-    <hyperlink ref="B243" r:id="rId222"/>
-    <hyperlink ref="B244" r:id="rId223"/>
-    <hyperlink ref="B245" r:id="rId224"/>
-    <hyperlink ref="B246" r:id="rId225"/>
-    <hyperlink ref="B247" r:id="rId226"/>
-    <hyperlink ref="B248" r:id="rId227"/>
-    <hyperlink ref="B249" r:id="rId228"/>
-    <hyperlink ref="B250" r:id="rId229"/>
-    <hyperlink ref="B251" r:id="rId230"/>
-    <hyperlink ref="B252" r:id="rId231"/>
-    <hyperlink ref="B253" r:id="rId232"/>
-    <hyperlink ref="B254" r:id="rId233"/>
-    <hyperlink ref="B255" r:id="rId234"/>
-    <hyperlink ref="B256" r:id="rId235"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B258" r:id="rId237"/>
-    <hyperlink ref="B259" r:id="rId238"/>
-    <hyperlink ref="B260" r:id="rId239"/>
-    <hyperlink ref="B261" r:id="rId240"/>
-    <hyperlink ref="B262" r:id="rId241"/>
-    <hyperlink ref="B263" r:id="rId242"/>
-    <hyperlink ref="B264" r:id="rId243"/>
-    <hyperlink ref="B265" r:id="rId244"/>
-    <hyperlink ref="B266" r:id="rId245"/>
-    <hyperlink ref="B267" r:id="rId246"/>
-    <hyperlink ref="B268" r:id="rId247"/>
-    <hyperlink ref="B269" r:id="rId248"/>
-    <hyperlink ref="B270" r:id="rId249"/>
-    <hyperlink ref="B271" r:id="rId250"/>
-    <hyperlink ref="B272" r:id="rId251"/>
-    <hyperlink ref="B275" r:id="rId252"/>
-    <hyperlink ref="B276" r:id="rId253"/>
-    <hyperlink ref="B277" r:id="rId254"/>
-    <hyperlink ref="B278" r:id="rId255"/>
-    <hyperlink ref="B279" r:id="rId256"/>
-    <hyperlink ref="B280" r:id="rId257"/>
-    <hyperlink ref="B281" r:id="rId258"/>
-    <hyperlink ref="B282" r:id="rId259"/>
-    <hyperlink ref="B283" r:id="rId260"/>
-    <hyperlink ref="B284" r:id="rId261"/>
-    <hyperlink ref="B285" r:id="rId262"/>
-    <hyperlink ref="B286" r:id="rId263"/>
-    <hyperlink ref="B287" r:id="rId264"/>
-    <hyperlink ref="B288" r:id="rId265"/>
-    <hyperlink ref="B289" r:id="rId266"/>
-    <hyperlink ref="B290" r:id="rId267"/>
-    <hyperlink ref="B291" r:id="rId268"/>
-    <hyperlink ref="B292" r:id="rId269"/>
-    <hyperlink ref="B293" r:id="rId270"/>
-    <hyperlink ref="B296" r:id="rId271"/>
-    <hyperlink ref="B297" r:id="rId272"/>
-    <hyperlink ref="B298" r:id="rId273"/>
-    <hyperlink ref="B299" r:id="rId274"/>
-    <hyperlink ref="B300" r:id="rId275"/>
-    <hyperlink ref="B301" r:id="rId276"/>
-    <hyperlink ref="B302" r:id="rId277"/>
-    <hyperlink ref="B303" r:id="rId278"/>
-    <hyperlink ref="B304" r:id="rId279"/>
-    <hyperlink ref="B305" r:id="rId280"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B307" r:id="rId282"/>
-    <hyperlink ref="B308" r:id="rId283"/>
-    <hyperlink ref="B309" r:id="rId284"/>
-    <hyperlink ref="B310" r:id="rId285"/>
-    <hyperlink ref="B311" r:id="rId286"/>
-    <hyperlink ref="B312" r:id="rId287"/>
-    <hyperlink ref="B313" r:id="rId288"/>
-    <hyperlink ref="B314" r:id="rId289"/>
-    <hyperlink ref="B315" r:id="rId290"/>
-    <hyperlink ref="B316" r:id="rId291"/>
-    <hyperlink ref="B317" r:id="rId292"/>
-    <hyperlink ref="B318" r:id="rId293"/>
-    <hyperlink ref="B319" r:id="rId294"/>
-    <hyperlink ref="B320" r:id="rId295"/>
-    <hyperlink ref="B321" r:id="rId296"/>
-    <hyperlink ref="B322" r:id="rId297"/>
-    <hyperlink ref="B323" r:id="rId298"/>
-    <hyperlink ref="B324" r:id="rId299"/>
-    <hyperlink ref="B325" r:id="rId300"/>
-    <hyperlink ref="B326" r:id="rId301"/>
-    <hyperlink ref="B327" r:id="rId302"/>
-    <hyperlink ref="B328" r:id="rId303"/>
-    <hyperlink ref="B329" r:id="rId304"/>
-    <hyperlink ref="B330" r:id="rId305"/>
-    <hyperlink ref="B331" r:id="rId306"/>
-    <hyperlink ref="B332" r:id="rId307"/>
-    <hyperlink ref="B333" r:id="rId308"/>
-    <hyperlink ref="B336" r:id="rId309"/>
-    <hyperlink ref="B337" r:id="rId310"/>
-    <hyperlink ref="B338" r:id="rId311"/>
-    <hyperlink ref="B339" r:id="rId312"/>
-    <hyperlink ref="B340" r:id="rId313"/>
-    <hyperlink ref="B341" r:id="rId314"/>
-    <hyperlink ref="B342" r:id="rId315"/>
-    <hyperlink ref="B343" r:id="rId316"/>
-    <hyperlink ref="B344" r:id="rId317"/>
-    <hyperlink ref="B345" r:id="rId318"/>
-    <hyperlink ref="B346" r:id="rId319"/>
-    <hyperlink ref="B347" r:id="rId320"/>
-    <hyperlink ref="B348" r:id="rId321"/>
-    <hyperlink ref="B349" r:id="rId322"/>
-    <hyperlink ref="B350" r:id="rId323"/>
-    <hyperlink ref="B351" r:id="rId324"/>
-    <hyperlink ref="B352" r:id="rId325"/>
-    <hyperlink ref="B353" r:id="rId326"/>
-    <hyperlink ref="B356" r:id="rId327"/>
-    <hyperlink ref="B357" r:id="rId328"/>
-    <hyperlink ref="B358" r:id="rId329"/>
-    <hyperlink ref="B359" r:id="rId330"/>
-    <hyperlink ref="B360" r:id="rId331"/>
-    <hyperlink ref="B361" r:id="rId332"/>
-    <hyperlink ref="B362" r:id="rId333"/>
-    <hyperlink ref="B363" r:id="rId334"/>
-    <hyperlink ref="B364" r:id="rId335"/>
-    <hyperlink ref="B365" r:id="rId336"/>
-    <hyperlink ref="B366" r:id="rId337"/>
-    <hyperlink ref="B367" r:id="rId338"/>
-    <hyperlink ref="B368" r:id="rId339"/>
-    <hyperlink ref="B369" r:id="rId340"/>
-    <hyperlink ref="B370" r:id="rId341"/>
-    <hyperlink ref="B371" r:id="rId342"/>
-    <hyperlink ref="B372" r:id="rId343"/>
-    <hyperlink ref="B373" r:id="rId344"/>
-    <hyperlink ref="B374" r:id="rId345"/>
-    <hyperlink ref="B375" r:id="rId346"/>
-    <hyperlink ref="B376" r:id="rId347"/>
-    <hyperlink ref="B377" r:id="rId348"/>
-    <hyperlink ref="B378" r:id="rId349"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId351"/>
-    <hyperlink ref="B381" r:id="rId352"/>
-    <hyperlink ref="B382" r:id="rId353"/>
-    <hyperlink ref="B383" r:id="rId354"/>
-    <hyperlink ref="B384" r:id="rId355"/>
-    <hyperlink ref="B385" r:id="rId356"/>
-    <hyperlink ref="B386" r:id="rId357"/>
-    <hyperlink ref="B387" r:id="rId358"/>
-    <hyperlink ref="B388" r:id="rId359"/>
-    <hyperlink ref="B389" r:id="rId360"/>
-    <hyperlink ref="B390" r:id="rId361"/>
-    <hyperlink ref="B391" r:id="rId362"/>
-    <hyperlink ref="B392" r:id="rId363"/>
-    <hyperlink ref="B393" r:id="rId364"/>
-    <hyperlink ref="B394" r:id="rId365"/>
-    <hyperlink ref="B395" r:id="rId366"/>
-    <hyperlink ref="B396" r:id="rId367"/>
-    <hyperlink ref="B397" r:id="rId368"/>
-    <hyperlink ref="B398" r:id="rId369"/>
-    <hyperlink ref="B399" r:id="rId370"/>
-    <hyperlink ref="B402" r:id="rId371"/>
-    <hyperlink ref="B403" r:id="rId372"/>
-    <hyperlink ref="B404" r:id="rId373"/>
-    <hyperlink ref="B405" r:id="rId374"/>
-    <hyperlink ref="B406" r:id="rId375"/>
-    <hyperlink ref="B407" r:id="rId376"/>
-    <hyperlink ref="B410" r:id="rId377"/>
-    <hyperlink ref="B411" r:id="rId378"/>
-    <hyperlink ref="B412" r:id="rId379"/>
-    <hyperlink ref="B413" r:id="rId380"/>
-    <hyperlink ref="B414" r:id="rId381"/>
-    <hyperlink ref="B415" r:id="rId382"/>
-    <hyperlink ref="B416" r:id="rId383"/>
-    <hyperlink ref="B417" r:id="rId384"/>
-    <hyperlink ref="B418" r:id="rId385"/>
-    <hyperlink ref="B419" r:id="rId386"/>
-    <hyperlink ref="B420" r:id="rId387"/>
-    <hyperlink ref="B421" r:id="rId388"/>
-    <hyperlink ref="B422" r:id="rId389"/>
-    <hyperlink ref="B423" r:id="rId390"/>
-    <hyperlink ref="B424" r:id="rId391"/>
-    <hyperlink ref="B425" r:id="rId392"/>
-    <hyperlink ref="B426" r:id="rId393"/>
-    <hyperlink ref="B427" r:id="rId394"/>
-    <hyperlink ref="B428" r:id="rId395"/>
-    <hyperlink ref="B429" r:id="rId396"/>
-    <hyperlink ref="B430" r:id="rId397"/>
-    <hyperlink ref="B431" r:id="rId398"/>
-    <hyperlink ref="B432" r:id="rId399"/>
-    <hyperlink ref="B433" r:id="rId400"/>
-    <hyperlink ref="B434" r:id="rId401"/>
-    <hyperlink ref="B435" r:id="rId402"/>
-    <hyperlink ref="B436" r:id="rId403"/>
-    <hyperlink ref="B437" r:id="rId404"/>
-    <hyperlink ref="B438" r:id="rId405"/>
-    <hyperlink ref="B439" r:id="rId406"/>
-    <hyperlink ref="B440" r:id="rId407"/>
-    <hyperlink ref="B441" r:id="rId408"/>
-    <hyperlink ref="B442" r:id="rId409"/>
-    <hyperlink ref="B443" r:id="rId410"/>
-    <hyperlink ref="B444" r:id="rId411"/>
-    <hyperlink ref="B445" r:id="rId412"/>
-    <hyperlink ref="B446" r:id="rId413"/>
-    <hyperlink ref="B447" r:id="rId414"/>
-    <hyperlink ref="B448" r:id="rId415"/>
-    <hyperlink ref="B449" r:id="rId416"/>
-    <hyperlink ref="B450" r:id="rId417"/>
-    <hyperlink ref="B451" r:id="rId418"/>
-    <hyperlink ref="B452" r:id="rId419"/>
-    <hyperlink ref="B453" r:id="rId420"/>
-    <hyperlink ref="B454" r:id="rId421"/>
-    <hyperlink ref="B455" r:id="rId422"/>
-    <hyperlink ref="B456" r:id="rId423"/>
-    <hyperlink ref="B457" r:id="rId424"/>
-    <hyperlink ref="B458" r:id="rId425"/>
-    <hyperlink ref="B459" r:id="rId426"/>
-    <hyperlink ref="B460" r:id="rId427"/>
-    <hyperlink ref="B461" r:id="rId428"/>
-    <hyperlink ref="B462" r:id="rId429"/>
-    <hyperlink ref="B463" r:id="rId430"/>
-    <hyperlink ref="B464" r:id="rId431"/>
-    <hyperlink ref="B465" r:id="rId432"/>
-    <hyperlink ref="B466" r:id="rId433"/>
-    <hyperlink ref="B467" r:id="rId434"/>
-    <hyperlink ref="B468" r:id="rId435"/>
-    <hyperlink ref="B469" r:id="rId436"/>
-    <hyperlink ref="B472" r:id="rId437"/>
-    <hyperlink ref="B473" r:id="rId438"/>
-    <hyperlink ref="B474" r:id="rId439"/>
-    <hyperlink ref="B475" r:id="rId440"/>
-    <hyperlink ref="B476" r:id="rId441"/>
-    <hyperlink ref="B477" r:id="rId442"/>
-    <hyperlink ref="B478" r:id="rId443"/>
-    <hyperlink ref="B479" r:id="rId444"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B481" r:id="rId446"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Codes\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3AA39D-A1CC-4421-9ECE-9676247A6514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A28234-9183-4078-A772-A47C8381966E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1421,6 +1421,9 @@
   </si>
   <si>
     <t>Power Set</t>
+  </si>
+  <si>
+    <t>Last revision date</t>
   </si>
 </sst>
 </file>
@@ -1461,13 +1464,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1495,6 +1491,14 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1516,7 +1520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1526,18 +1530,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1757,5119 +1767,5135 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="97.23046875" customWidth="1"/>
-    <col min="4" max="4" width="55.23046875" customWidth="1"/>
+    <col min="2" max="2" width="97.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="13">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="13">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="6" t="s">
+      <c r="D18" s="13">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="6" t="s">
+      <c r="D19" s="13">
+        <v>45263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6" t="s">
+      <c r="C23" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="6" t="s">
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="6" t="s">
+      <c r="C25" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="6" t="s">
+      <c r="C26" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="6" t="s">
+      <c r="C27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="6" t="s">
+      <c r="C28" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="6" t="s">
+      <c r="C29" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="6" t="s">
+      <c r="C30" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="6" t="s">
+      <c r="C31" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="6" t="s">
+      <c r="C32" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="6" t="s">
+      <c r="C33" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="6" t="s">
+      <c r="C34" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="6" t="s">
+      <c r="C35" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="6" t="s">
+      <c r="C36" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="6" t="s">
+      <c r="C37" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="6" t="s">
+      <c r="C38" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="6" t="s">
+      <c r="C39" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="6" t="s">
+      <c r="C40" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="6"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="6" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A43" s="5"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="6" t="s">
+      <c r="C46" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="6" t="s">
+      <c r="C47" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="6" t="s">
+      <c r="C48" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="6" t="s">
+      <c r="C49" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A50" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="6" t="s">
+      <c r="C50" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="6" t="s">
+      <c r="C51" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A52" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="6" t="s">
+      <c r="C52" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="C53" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="6"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="6" t="s">
+    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A55" s="5"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A64" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="6" t="s">
+      <c r="C68" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="6" t="s">
+      <c r="C69" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="6" t="s">
+      <c r="C70" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="6" t="s">
+      <c r="C71" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A72" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="6" t="s">
+      <c r="C72" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A73" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="6" t="s">
+      <c r="C73" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A74" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="6" t="s">
+      <c r="C74" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A75" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="6" t="s">
+      <c r="C75" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="6" t="s">
+      <c r="C76" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A77" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="6" t="s">
+      <c r="C77" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A78" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="6" t="s">
+      <c r="C78" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A79" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="6" t="s">
+      <c r="C79" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A80" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="6" t="s">
+      <c r="C80" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A81" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="6" t="s">
+      <c r="C81" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A82" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="6" t="s">
+      <c r="C82" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A83" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="6" t="s">
+      <c r="C83" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A84" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="6" t="s">
+      <c r="C84" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A85" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="6" t="s">
+      <c r="C85" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A86" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="6" t="s">
+      <c r="C86" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A87" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="6" t="s">
+      <c r="C87" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A88" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="6" t="s">
+      <c r="C88" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A89" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="6" t="s">
+      <c r="C89" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A90" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="6" t="s">
+      <c r="C90" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="6" t="s">
+      <c r="C91" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A92" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="6" t="s">
+      <c r="C92" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A93" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="6" t="s">
+      <c r="C93" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A94" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="6" t="s">
+      <c r="C94" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A95" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="6" t="s">
+      <c r="C95" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A96" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="6" t="s">
+      <c r="C96" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A97" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="6" t="s">
+      <c r="C97" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A98" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="C98" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="6"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="8"/>
-    </row>
-    <row r="101" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="6" t="s">
+    <row r="100" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A100" s="5"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A101" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="6" t="s">
+    <row r="103" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A103" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="6" t="s">
+    <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A104" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="6" t="s">
+    <row r="105" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A105" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="6" t="s">
+      <c r="C105" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A106" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="6" t="s">
+      <c r="C106" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A107" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="6" t="s">
+      <c r="C107" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A108" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="6" t="s">
+      <c r="C108" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A109" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="6" t="s">
+      <c r="C109" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A110" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="6" t="s">
+      <c r="C110" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A111" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="6" t="s">
+      <c r="C111" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A112" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="6" t="s">
+      <c r="C112" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A113" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="6" t="s">
+      <c r="C113" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A114" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="6" t="s">
+      <c r="C114" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A115" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="6" t="s">
+      <c r="C115" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A116" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="6" t="s">
+      <c r="C116" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A117" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="6" t="s">
+      <c r="C117" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A118" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="6" t="s">
+      <c r="C118" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A119" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="6" t="s">
+      <c r="C119" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A120" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="6" t="s">
+      <c r="C120" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A121" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="6" t="s">
+      <c r="C121" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A122" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C122" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="6" t="s">
+      <c r="C122" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A123" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="6" t="s">
+      <c r="C123" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A124" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="6" t="s">
+      <c r="C124" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A125" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C125" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="6" t="s">
+      <c r="C125" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A126" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="6" t="s">
+      <c r="C126" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A127" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C127" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="6" t="s">
+      <c r="C127" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A128" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="6" t="s">
+      <c r="C128" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A129" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="6" t="s">
+      <c r="C129" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A130" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="6" t="s">
+      <c r="C130" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A131" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="6" t="s">
+      <c r="C131" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A132" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="6" t="s">
+      <c r="C132" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A133" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="6" t="s">
+      <c r="C133" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A134" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="6" t="s">
+      <c r="C134" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A135" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="6" t="s">
+      <c r="C135" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A136" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="C136" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="8"/>
-    </row>
-    <row r="139" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="6" t="s">
+      <c r="B138" s="9"/>
+      <c r="C138" s="7"/>
+    </row>
+    <row r="139" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A139" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="6" t="s">
+    <row r="140" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A140" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="6" t="s">
+    <row r="141" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A141" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="6" t="s">
+    <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A142" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="6" t="s">
+    <row r="143" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A143" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="6" t="s">
+      <c r="C143" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A144" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="6" t="s">
+      <c r="C144" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A145" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="6" t="s">
+      <c r="C145" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A146" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="6" t="s">
+      <c r="C146" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A147" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="6" t="s">
+      <c r="C147" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A148" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="6" t="s">
+      <c r="C148" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A149" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="6" t="s">
+      <c r="C149" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A150" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="6" t="s">
+      <c r="C150" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A151" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="6" t="s">
+      <c r="C151" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A152" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="6" t="s">
+      <c r="C152" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A153" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="6" t="s">
+      <c r="C153" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A154" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C154" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="6" t="s">
+      <c r="C154" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A155" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="6" t="s">
+      <c r="C155" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A156" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" s="6" t="s">
+      <c r="C156" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A157" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" s="6" t="s">
+      <c r="C157" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A158" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="6" t="s">
+      <c r="C158" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A159" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="6" t="s">
+      <c r="C159" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A160" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="6" t="s">
+      <c r="C160" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A161" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="6" t="s">
+      <c r="C161" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A162" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="6" t="s">
+      <c r="C162" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A163" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="6" t="s">
+      <c r="C163" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A164" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="6" t="s">
+      <c r="C164" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A165" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="6" t="s">
+      <c r="C165" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A166" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="6" t="s">
+      <c r="C166" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A167" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="6" t="s">
+      <c r="C167" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A168" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" s="6" t="s">
+      <c r="C168" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A169" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C169" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="6" t="s">
+      <c r="C169" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A170" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="6" t="s">
+      <c r="C170" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A171" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="6" t="s">
+      <c r="C171" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A172" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="6" t="s">
+      <c r="C172" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A173" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="6" t="s">
+      <c r="C173" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A174" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="C174" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A176" s="1"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="8"/>
-    </row>
-    <row r="177" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="6" t="s">
+      <c r="B176" s="9"/>
+      <c r="C176" s="7"/>
+    </row>
+    <row r="177" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A177" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C177" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="6" t="s">
+      <c r="C177" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A178" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C178" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="6" t="s">
+      <c r="C178" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A179" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C179" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="6" t="s">
+      <c r="C179" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A180" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C180" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="6" t="s">
+      <c r="C180" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A181" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C181" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="6" t="s">
+      <c r="C181" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A182" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="6" t="s">
+      <c r="C182" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A183" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C183" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="6" t="s">
+      <c r="C183" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A184" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C184" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="6" t="s">
+      <c r="C184" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A185" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C185" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="6" t="s">
+      <c r="C185" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A186" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C186" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="6" t="s">
+      <c r="C186" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A187" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="6" t="s">
+      <c r="C187" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A188" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C188" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="6" t="s">
+      <c r="C188" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A189" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C189" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="6" t="s">
+      <c r="C189" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A190" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C190" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="6" t="s">
+      <c r="C190" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A191" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C191" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="6" t="s">
+      <c r="C191" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A192" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C192" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" s="6" t="s">
+      <c r="C192" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A193" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C193" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="6" t="s">
+      <c r="C193" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A194" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C194" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A195" s="6" t="s">
+      <c r="C194" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A195" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C195" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A196" s="6" t="s">
+      <c r="C195" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A196" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C196" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A197" s="6" t="s">
+      <c r="C196" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A197" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C197" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A198" s="6" t="s">
+      <c r="C197" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A198" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C198" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" s="6" t="s">
+      <c r="C198" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A199" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A200" s="6" t="s">
+      <c r="C199" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A200" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C200" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A201" s="6" t="s">
+      <c r="C200" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A201" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C201" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" s="6" t="s">
+      <c r="C201" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A202" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C202" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A203" s="6" t="s">
+      <c r="C202" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A203" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C203" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204" s="6" t="s">
+      <c r="C203" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A204" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C204" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205" s="6" t="s">
+      <c r="C204" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A205" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C205" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A206" s="6" t="s">
+      <c r="C205" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A206" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C206" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207" s="6" t="s">
+      <c r="C206" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A207" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C207" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A208" s="6" t="s">
+      <c r="C207" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A208" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C208" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A209" s="6" t="s">
+      <c r="C208" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A209" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C209" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A210" s="6" t="s">
+      <c r="C209" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A210" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C210" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A211" s="6" t="s">
+      <c r="C210" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A211" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C211" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A212" s="6"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="8"/>
-    </row>
-    <row r="213" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A213" s="6"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="8"/>
-    </row>
-    <row r="214" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A214" s="6" t="s">
+      <c r="C211" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A212" s="5"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="7"/>
+    </row>
+    <row r="213" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A213" s="5"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="7"/>
+    </row>
+    <row r="214" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A214" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C214" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A215" s="6" t="s">
+      <c r="C214" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A215" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C215" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A216" s="6" t="s">
+      <c r="C215" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A216" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C216" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A217" s="6" t="s">
+      <c r="C216" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A217" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C217" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A218" s="6" t="s">
+      <c r="C217" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A218" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C218" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A219" s="6" t="s">
+      <c r="C218" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A219" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C219" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A220" s="6" t="s">
+      <c r="C219" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A220" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C220" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A221" s="6" t="s">
+      <c r="C220" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A221" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C221" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A222" s="6" t="s">
+      <c r="C221" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A222" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C222" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A223" s="6" t="s">
+      <c r="C222" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A223" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C223" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A224" s="6" t="s">
+      <c r="C223" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A224" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C224" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A225" s="6" t="s">
+      <c r="C224" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A225" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C225" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A226" s="6" t="s">
+      <c r="C225" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A226" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C226" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A227" s="6" t="s">
+      <c r="C226" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A227" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C227" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A228" s="6" t="s">
+      <c r="C227" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A228" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B228" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C228" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A229" s="6" t="s">
+      <c r="C228" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A229" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C229" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A230" s="6" t="s">
+      <c r="C229" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A230" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B230" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C230" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" s="6" t="s">
+      <c r="C230" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A231" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C231" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232" s="6" t="s">
+      <c r="C231" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A232" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C232" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A233" s="6" t="s">
+      <c r="C232" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A233" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C233" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A234" s="6" t="s">
+      <c r="C233" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A234" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C234" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A235" s="6" t="s">
+      <c r="C234" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A235" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C235" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C235" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A236" s="1"/>
-      <c r="B236" s="10"/>
-      <c r="C236" s="8"/>
-    </row>
-    <row r="237" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B236" s="9"/>
+      <c r="C236" s="7"/>
+    </row>
+    <row r="237" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A237" s="1"/>
-      <c r="B237" s="10"/>
-      <c r="C237" s="8"/>
-    </row>
-    <row r="238" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" s="6" t="s">
+      <c r="B237" s="9"/>
+      <c r="C237" s="7"/>
+    </row>
+    <row r="238" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A238" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C238" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A239" s="6" t="s">
+      <c r="C238" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A239" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B239" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C239" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A240" s="6" t="s">
+      <c r="C239" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A240" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C240" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A241" s="6" t="s">
+      <c r="C240" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A241" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B241" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C241" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A242" s="6" t="s">
+      <c r="C241" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A242" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B242" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C242" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A243" s="6" t="s">
+      <c r="C242" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A243" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C243" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A244" s="6" t="s">
+      <c r="C243" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A244" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B244" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C244" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A245" s="6" t="s">
+      <c r="C244" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A245" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B245" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C245" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A246" s="6" t="s">
+      <c r="C245" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A246" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C246" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A247" s="6" t="s">
+      <c r="C246" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A247" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C247" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A248" s="6" t="s">
+      <c r="C247" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A248" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B248" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C248" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A249" s="6" t="s">
+      <c r="C248" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A249" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B249" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C249" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A250" s="6" t="s">
+      <c r="C249" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A250" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B250" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C250" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A251" s="6" t="s">
+      <c r="C250" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A251" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B251" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C251" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A252" s="6" t="s">
+      <c r="C251" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A252" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B252" s="7" t="s">
+      <c r="B252" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C252" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A253" s="6" t="s">
+      <c r="C252" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A253" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B253" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C253" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A254" s="6" t="s">
+      <c r="C253" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A254" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B254" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C254" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A255" s="6" t="s">
+      <c r="C254" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A255" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C255" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A256" s="6" t="s">
+      <c r="C255" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A256" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B256" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C256" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A257" s="6" t="s">
+      <c r="C256" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A257" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B257" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C257" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A258" s="6" t="s">
+      <c r="C257" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A258" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C258" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A259" s="6" t="s">
+      <c r="C258" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A259" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C259" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A260" s="6" t="s">
+      <c r="C259" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A260" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C260" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A261" s="6" t="s">
+      <c r="C260" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A261" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C261" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A262" s="6" t="s">
+      <c r="C261" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A262" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C262" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A263" s="6" t="s">
+      <c r="C262" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A263" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C263" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A264" s="6" t="s">
+      <c r="C263" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A264" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C264" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A265" s="6" t="s">
+      <c r="C264" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A265" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B265" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C265" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A266" s="6" t="s">
+      <c r="C265" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A266" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C266" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A267" s="6" t="s">
+      <c r="C266" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A267" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C267" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A268" s="6" t="s">
+      <c r="C267" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A268" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B268" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C268" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A269" s="6" t="s">
+      <c r="C268" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A269" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C269" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A270" s="6" t="s">
+      <c r="C269" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A270" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B270" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C270" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A271" s="6" t="s">
+      <c r="C270" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A271" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C271" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A272" s="6" t="s">
+      <c r="C271" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A272" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B272" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C272" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C272" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A273" s="1"/>
-      <c r="B273" s="10"/>
-      <c r="C273" s="8"/>
-    </row>
-    <row r="274" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B273" s="9"/>
+      <c r="C273" s="7"/>
+    </row>
+    <row r="274" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A274" s="1"/>
-      <c r="B274" s="10"/>
-      <c r="C274" s="8"/>
-    </row>
-    <row r="275" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A275" s="6" t="s">
+      <c r="B274" s="9"/>
+      <c r="C274" s="7"/>
+    </row>
+    <row r="275" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A275" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C275" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A276" s="6" t="s">
+      <c r="C275" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A276" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B276" s="7" t="s">
+      <c r="B276" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C276" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A277" s="6" t="s">
+      <c r="C276" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A277" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C277" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A278" s="6" t="s">
+      <c r="C277" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A278" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B278" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C278" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A279" s="6" t="s">
+      <c r="C278" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A279" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C279" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A280" s="6" t="s">
+      <c r="C279" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A280" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B280" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C280" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A281" s="6" t="s">
+      <c r="C280" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A281" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C281" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A282" s="6" t="s">
+      <c r="C281" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A282" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="B282" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C282" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A283" s="6" t="s">
+      <c r="C282" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A283" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B283" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C283" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A284" s="6" t="s">
+      <c r="C283" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A284" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B284" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C284" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A285" s="6" t="s">
+      <c r="C284" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A285" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C285" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A286" s="6" t="s">
+      <c r="C285" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A286" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C286" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A287" s="6" t="s">
+      <c r="C286" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A287" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C287" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A288" s="6" t="s">
+      <c r="C287" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A288" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C288" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A289" s="6" t="s">
+      <c r="C288" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A289" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C289" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A290" s="6" t="s">
+      <c r="C289" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A290" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B290" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C290" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A291" s="6" t="s">
+      <c r="C290" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A291" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B291" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C291" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A292" s="6" t="s">
+      <c r="C291" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A292" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B292" s="7" t="s">
+      <c r="B292" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C292" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="6" t="s">
+      <c r="C292" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A293" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B293" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C293" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C293" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A294" s="1"/>
-      <c r="B294" s="10"/>
-      <c r="C294" s="8"/>
-    </row>
-    <row r="295" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B294" s="9"/>
+      <c r="C294" s="7"/>
+    </row>
+    <row r="295" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A295" s="1"/>
-      <c r="B295" s="10"/>
-      <c r="C295" s="8"/>
-    </row>
-    <row r="296" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A296" s="6" t="s">
+      <c r="B295" s="9"/>
+      <c r="C295" s="7"/>
+    </row>
+    <row r="296" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A296" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C296" s="8" t="s">
+      <c r="C296" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A297" s="6" t="s">
+    <row r="297" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A297" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B297" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C297" s="8" t="s">
+      <c r="C297" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A298" s="6" t="s">
+    <row r="298" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A298" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C298" s="8" t="s">
+      <c r="C298" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A299" s="6" t="s">
+    <row r="299" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A299" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B299" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C299" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A300" s="6" t="s">
+      <c r="C299" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A300" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="B300" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C300" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A301" s="6" t="s">
+      <c r="C300" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A301" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B301" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C301" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A302" s="6" t="s">
+      <c r="C301" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A302" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="B302" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C302" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A303" s="6" t="s">
+      <c r="C302" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A303" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C303" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A304" s="6" t="s">
+      <c r="C303" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A304" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C304" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A305" s="6" t="s">
+      <c r="C304" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A305" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B305" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C305" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A306" s="6" t="s">
+      <c r="C305" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A306" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B306" s="7" t="s">
+      <c r="B306" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C306" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A307" s="6" t="s">
+      <c r="C306" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A307" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B307" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C307" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A308" s="6" t="s">
+      <c r="C307" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A308" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B308" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C308" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A309" s="6" t="s">
+      <c r="C308" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A309" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B309" s="11" t="s">
+      <c r="B309" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C309" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A310" s="6" t="s">
+      <c r="C309" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A310" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B310" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C310" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A311" s="6" t="s">
+      <c r="C310" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A311" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B311" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C311" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A312" s="6" t="s">
+      <c r="C311" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A312" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B312" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C312" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A313" s="6" t="s">
+      <c r="C312" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A313" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C313" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A314" s="6" t="s">
+      <c r="C313" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A314" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B314" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C314" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A315" s="6" t="s">
+      <c r="C314" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A315" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B315" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C315" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A316" s="6" t="s">
+      <c r="C315" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A316" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="B316" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C316" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A317" s="6" t="s">
+      <c r="C316" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A317" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="B317" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C317" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A318" s="6" t="s">
+      <c r="C317" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A318" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B318" s="7" t="s">
+      <c r="B318" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C318" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A319" s="6" t="s">
+      <c r="C318" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A319" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C319" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A320" s="6" t="s">
+      <c r="C319" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A320" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B320" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C320" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A321" s="6" t="s">
+      <c r="C320" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A321" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B321" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C321" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A322" s="6" t="s">
+      <c r="C321" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A322" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="B322" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C322" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A323" s="6" t="s">
+      <c r="C322" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A323" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B323" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C323" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A324" s="6" t="s">
+      <c r="C323" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A324" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B324" s="7" t="s">
+      <c r="B324" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C324" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A325" s="6" t="s">
+      <c r="C324" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A325" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B325" s="7" t="s">
+      <c r="B325" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C325" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A326" s="6" t="s">
+      <c r="C325" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A326" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B326" s="7" t="s">
+      <c r="B326" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C326" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A327" s="6" t="s">
+      <c r="C326" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A327" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B327" s="7" t="s">
+      <c r="B327" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C327" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A328" s="6" t="s">
+      <c r="C327" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A328" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B328" s="7" t="s">
+      <c r="B328" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C328" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A329" s="6" t="s">
+      <c r="C328" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A329" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="B329" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C329" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A330" s="6" t="s">
+      <c r="C329" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A330" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B330" s="7" t="s">
+      <c r="B330" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C330" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A331" s="6" t="s">
+      <c r="C330" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A331" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B331" s="7" t="s">
+      <c r="B331" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C331" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A332" s="6" t="s">
+      <c r="C331" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A332" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="B332" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C332" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A333" s="6" t="s">
+      <c r="C332" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A333" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="B333" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C333" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C333" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A334" s="1"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="8"/>
-    </row>
-    <row r="335" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B334" s="9"/>
+      <c r="C334" s="7"/>
+    </row>
+    <row r="335" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A335" s="1"/>
-      <c r="B335" s="10"/>
-      <c r="C335" s="8"/>
-    </row>
-    <row r="336" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A336" s="6" t="s">
+      <c r="B335" s="9"/>
+      <c r="C335" s="7"/>
+    </row>
+    <row r="336" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A336" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B336" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C336" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A337" s="6" t="s">
+      <c r="C336" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A337" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C337" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A338" s="6" t="s">
+      <c r="C337" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A338" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="B338" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C338" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A339" s="6" t="s">
+      <c r="C338" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A339" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="B339" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C339" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A340" s="6" t="s">
+      <c r="C339" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A340" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="B340" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C340" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A341" s="6" t="s">
+      <c r="C340" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A341" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="B341" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C341" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A342" s="6" t="s">
+      <c r="C341" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A342" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="B342" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C342" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A343" s="6" t="s">
+      <c r="C342" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A343" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="B343" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C343" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A344" s="6" t="s">
+      <c r="C343" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A344" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B344" s="11" t="s">
+      <c r="B344" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C344" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A345" s="6" t="s">
+      <c r="C344" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A345" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="B345" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C345" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A346" s="6" t="s">
+      <c r="C345" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A346" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B346" s="7" t="s">
+      <c r="B346" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C346" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A347" s="6" t="s">
+      <c r="C346" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A347" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="B347" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C347" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A348" s="6" t="s">
+      <c r="C347" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A348" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B348" s="7" t="s">
+      <c r="B348" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C348" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A349" s="6" t="s">
+      <c r="C348" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A349" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="B349" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C349" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A350" s="6" t="s">
+      <c r="C349" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A350" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="B350" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C350" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A351" s="6" t="s">
+      <c r="C350" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A351" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B351" s="7" t="s">
+      <c r="B351" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C351" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A352" s="6" t="s">
+      <c r="C351" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A352" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B352" s="7" t="s">
+      <c r="B352" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C352" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A353" s="6" t="s">
+      <c r="C352" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A353" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B353" s="7" t="s">
+      <c r="B353" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C353" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C353" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A354" s="1"/>
-      <c r="B354" s="10"/>
-      <c r="C354" s="8"/>
-    </row>
-    <row r="355" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B354" s="9"/>
+      <c r="C354" s="7"/>
+    </row>
+    <row r="355" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A355" s="1"/>
-      <c r="B355" s="10"/>
-      <c r="C355" s="8"/>
-    </row>
-    <row r="356" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A356" s="6" t="s">
+      <c r="B355" s="9"/>
+      <c r="C355" s="7"/>
+    </row>
+    <row r="356" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A356" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="B356" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C356" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A357" s="6" t="s">
+      <c r="C356" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A357" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="B357" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C357" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A358" s="6" t="s">
+      <c r="C357" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A358" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="B358" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C358" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A359" s="6" t="s">
+      <c r="C358" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A359" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="B359" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C359" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A360" s="6" t="s">
+      <c r="C359" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A360" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="B360" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C360" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A361" s="6" t="s">
+      <c r="C360" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A361" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="B361" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C361" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A362" s="6" t="s">
+      <c r="C361" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A362" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B362" s="7" t="s">
+      <c r="B362" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C362" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A363" s="6" t="s">
+      <c r="C362" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A363" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B363" s="7" t="s">
+      <c r="B363" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C363" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A364" s="6" t="s">
+      <c r="C363" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A364" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B364" s="7" t="s">
+      <c r="B364" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C364" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A365" s="6" t="s">
+      <c r="C364" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A365" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B365" s="7" t="s">
+      <c r="B365" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C365" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A366" s="6" t="s">
+      <c r="C365" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A366" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B366" s="7" t="s">
+      <c r="B366" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C366" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A367" s="6" t="s">
+      <c r="C366" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A367" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B367" s="7" t="s">
+      <c r="B367" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C367" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A368" s="6" t="s">
+      <c r="C367" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A368" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B368" s="7" t="s">
+      <c r="B368" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C368" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A369" s="6" t="s">
+      <c r="C368" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A369" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B369" s="7" t="s">
+      <c r="B369" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C369" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A370" s="6" t="s">
+      <c r="C369" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A370" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B370" s="7" t="s">
+      <c r="B370" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C370" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A371" s="6" t="s">
+      <c r="C370" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A371" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B371" s="7" t="s">
+      <c r="B371" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C371" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A372" s="6" t="s">
+      <c r="C371" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A372" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B372" s="7" t="s">
+      <c r="B372" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C372" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A373" s="6" t="s">
+      <c r="C372" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A373" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B373" s="7" t="s">
+      <c r="B373" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C373" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A374" s="6" t="s">
+      <c r="C373" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A374" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B374" s="7" t="s">
+      <c r="B374" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C374" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A375" s="6" t="s">
+      <c r="C374" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A375" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B375" s="7" t="s">
+      <c r="B375" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C375" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A376" s="6" t="s">
+      <c r="C375" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A376" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="B376" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C376" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A377" s="6" t="s">
+      <c r="C376" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A377" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B377" s="7" t="s">
+      <c r="B377" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C377" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A378" s="6" t="s">
+      <c r="C377" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A378" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B378" s="7" t="s">
+      <c r="B378" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C378" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A379" s="6" t="s">
+      <c r="C378" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A379" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B379" s="7" t="s">
+      <c r="B379" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C379" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A380" s="6" t="s">
+      <c r="C379" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A380" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B380" s="7" t="s">
+      <c r="B380" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C380" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A381" s="6" t="s">
+      <c r="C380" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A381" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B381" s="7" t="s">
+      <c r="B381" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C381" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A382" s="6" t="s">
+      <c r="C381" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A382" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="B382" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C382" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A383" s="6" t="s">
+      <c r="C382" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A383" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B383" s="7" t="s">
+      <c r="B383" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C383" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A384" s="6" t="s">
+      <c r="C383" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A384" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="B384" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C384" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A385" s="6" t="s">
+      <c r="C384" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A385" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B385" s="7" t="s">
+      <c r="B385" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C385" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A386" s="6" t="s">
+      <c r="C385" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A386" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B386" s="7" t="s">
+      <c r="B386" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C386" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A387" s="6" t="s">
+      <c r="C386" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A387" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B387" s="7" t="s">
+      <c r="B387" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C387" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A388" s="6" t="s">
+      <c r="C387" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A388" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B388" s="7" t="s">
+      <c r="B388" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C388" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A389" s="6" t="s">
+      <c r="C388" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A389" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B389" s="7" t="s">
+      <c r="B389" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C389" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A390" s="6" t="s">
+      <c r="C389" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A390" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B390" s="7" t="s">
+      <c r="B390" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C390" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A391" s="6" t="s">
+      <c r="C390" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A391" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B391" s="7" t="s">
+      <c r="B391" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C391" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A392" s="6" t="s">
+      <c r="C391" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A392" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B392" s="7" t="s">
+      <c r="B392" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C392" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A393" s="6" t="s">
+      <c r="C392" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A393" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B393" s="7" t="s">
+      <c r="B393" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C393" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A394" s="6" t="s">
+      <c r="C393" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A394" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B394" s="7" t="s">
+      <c r="B394" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C394" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A395" s="6" t="s">
+      <c r="C394" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A395" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B395" s="7" t="s">
+      <c r="B395" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C395" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A396" s="6" t="s">
+      <c r="C395" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A396" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B396" s="7" t="s">
+      <c r="B396" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C396" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A397" s="6" t="s">
+      <c r="C396" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A397" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B397" s="7" t="s">
+      <c r="B397" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C397" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A398" s="6" t="s">
+      <c r="C397" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A398" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B398" s="7" t="s">
+      <c r="B398" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C398" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A399" s="6" t="s">
+      <c r="C398" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A399" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B399" s="7" t="s">
+      <c r="B399" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C399" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C399" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A400" s="1"/>
-      <c r="B400" s="10"/>
-      <c r="C400" s="8"/>
-    </row>
-    <row r="401" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B400" s="9"/>
+      <c r="C400" s="7"/>
+    </row>
+    <row r="401" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A401" s="1"/>
-      <c r="B401" s="10"/>
-      <c r="C401" s="8"/>
-    </row>
-    <row r="402" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A402" s="6" t="s">
+      <c r="B401" s="9"/>
+      <c r="C401" s="7"/>
+    </row>
+    <row r="402" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A402" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B402" s="7" t="s">
+      <c r="B402" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C402" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A403" s="6" t="s">
+      <c r="C402" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A403" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B403" s="7" t="s">
+      <c r="B403" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C403" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A404" s="6" t="s">
+      <c r="C403" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A404" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B404" s="7" t="s">
+      <c r="B404" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C404" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A405" s="6" t="s">
+      <c r="C404" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A405" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B405" s="7" t="s">
+      <c r="B405" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C405" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A406" s="6" t="s">
+      <c r="C405" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A406" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="B406" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C406" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A407" s="6" t="s">
+      <c r="C406" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A407" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B407" s="7" t="s">
+      <c r="B407" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C407" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C407" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A408" s="1"/>
-      <c r="B408" s="10"/>
-      <c r="C408" s="8"/>
-    </row>
-    <row r="409" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B408" s="9"/>
+      <c r="C408" s="7"/>
+    </row>
+    <row r="409" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A409" s="1"/>
-      <c r="B409" s="10"/>
-      <c r="C409" s="8"/>
-    </row>
-    <row r="410" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A410" s="6" t="s">
+      <c r="B409" s="9"/>
+      <c r="C409" s="7"/>
+    </row>
+    <row r="410" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A410" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B410" s="7" t="s">
+      <c r="B410" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C410" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A411" s="6" t="s">
+      <c r="C410" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A411" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B411" s="7" t="s">
+      <c r="B411" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C411" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A412" s="6" t="s">
+      <c r="C411" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A412" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B412" s="7" t="s">
+      <c r="B412" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C412" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A413" s="6" t="s">
+      <c r="C412" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A413" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B413" s="7" t="s">
+      <c r="B413" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C413" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A414" s="6" t="s">
+      <c r="C413" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A414" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B414" s="7" t="s">
+      <c r="B414" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C414" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A415" s="6" t="s">
+      <c r="C414" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A415" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B415" s="7" t="s">
+      <c r="B415" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C415" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A416" s="6" t="s">
+      <c r="C415" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A416" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B416" s="7" t="s">
+      <c r="B416" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C416" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A417" s="6" t="s">
+      <c r="C416" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A417" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B417" s="7" t="s">
+      <c r="B417" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C417" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A418" s="6" t="s">
+      <c r="C417" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A418" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B418" s="7" t="s">
+      <c r="B418" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C418" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A419" s="6" t="s">
+      <c r="C418" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A419" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B419" s="7" t="s">
+      <c r="B419" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C419" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A420" s="6" t="s">
+      <c r="C419" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A420" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B420" s="7" t="s">
+      <c r="B420" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C420" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A421" s="6" t="s">
+      <c r="C420" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A421" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B421" s="7" t="s">
+      <c r="B421" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C421" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A422" s="6" t="s">
+      <c r="C421" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A422" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B422" s="7" t="s">
+      <c r="B422" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C422" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A423" s="6" t="s">
+      <c r="C422" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A423" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B423" s="7" t="s">
+      <c r="B423" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C423" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A424" s="6" t="s">
+      <c r="C423" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A424" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="B424" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C424" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A425" s="6" t="s">
+      <c r="C424" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A425" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B425" s="7" t="s">
+      <c r="B425" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C425" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A426" s="6" t="s">
+      <c r="C425" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A426" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B426" s="7" t="s">
+      <c r="B426" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C426" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A427" s="6" t="s">
+      <c r="C426" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A427" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B427" s="7" t="s">
+      <c r="B427" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C427" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A428" s="6" t="s">
+      <c r="C427" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A428" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B428" s="7" t="s">
+      <c r="B428" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C428" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A429" s="6" t="s">
+      <c r="C428" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A429" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B429" s="7" t="s">
+      <c r="B429" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C429" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A430" s="6" t="s">
+      <c r="C429" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A430" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B430" s="7" t="s">
+      <c r="B430" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C430" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A431" s="6" t="s">
+      <c r="C430" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A431" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B431" s="7" t="s">
+      <c r="B431" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C431" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A432" s="6" t="s">
+      <c r="C431" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A432" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B432" s="7" t="s">
+      <c r="B432" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C432" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A433" s="6" t="s">
+      <c r="C432" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A433" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B433" s="7" t="s">
+      <c r="B433" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C433" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A434" s="6" t="s">
+      <c r="C433" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A434" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B434" s="7" t="s">
+      <c r="B434" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C434" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A435" s="6" t="s">
+      <c r="C434" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A435" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B435" s="7" t="s">
+      <c r="B435" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C435" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A436" s="6" t="s">
+      <c r="C435" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A436" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B436" s="7" t="s">
+      <c r="B436" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C436" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A437" s="6" t="s">
+      <c r="C436" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A437" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="B437" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C437" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A438" s="6" t="s">
+      <c r="C437" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A438" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B438" s="7" t="s">
+      <c r="B438" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C438" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A439" s="6" t="s">
+      <c r="C438" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A439" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="B439" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C439" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A440" s="6" t="s">
+      <c r="C439" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A440" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B440" s="7" t="s">
+      <c r="B440" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C440" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A441" s="6" t="s">
+      <c r="C440" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A441" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B441" s="7" t="s">
+      <c r="B441" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C441" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A442" s="6" t="s">
+      <c r="C441" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A442" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B442" s="7" t="s">
+      <c r="B442" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C442" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A443" s="6" t="s">
+      <c r="C442" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A443" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B443" s="7" t="s">
+      <c r="B443" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C443" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A444" s="6" t="s">
+      <c r="C443" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A444" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B444" s="7" t="s">
+      <c r="B444" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C444" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A445" s="6" t="s">
+      <c r="C444" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A445" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B445" s="7" t="s">
+      <c r="B445" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C445" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A446" s="6" t="s">
+      <c r="C445" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A446" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="B446" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C446" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A447" s="6" t="s">
+      <c r="C446" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A447" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B447" s="7" t="s">
+      <c r="B447" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C447" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A448" s="6" t="s">
+      <c r="C447" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A448" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B448" s="7" t="s">
+      <c r="B448" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C448" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A449" s="6" t="s">
+      <c r="C448" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A449" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B449" s="7" t="s">
+      <c r="B449" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C449" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A450" s="6" t="s">
+      <c r="C449" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A450" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B450" s="7" t="s">
+      <c r="B450" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C450" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A451" s="6" t="s">
+      <c r="C450" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A451" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B451" s="7" t="s">
+      <c r="B451" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C451" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A452" s="6" t="s">
+      <c r="C451" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A452" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B452" s="7" t="s">
+      <c r="B452" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C452" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A453" s="6" t="s">
+      <c r="C452" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A453" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B453" s="7" t="s">
+      <c r="B453" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C453" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A454" s="6" t="s">
+      <c r="C453" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A454" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B454" s="7" t="s">
+      <c r="B454" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C454" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A455" s="6" t="s">
+      <c r="C454" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A455" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B455" s="7" t="s">
+      <c r="B455" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C455" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A456" s="6" t="s">
+      <c r="C455" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A456" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B456" s="7" t="s">
+      <c r="B456" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C456" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A457" s="6" t="s">
+      <c r="C456" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A457" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="B457" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C457" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A458" s="6" t="s">
+      <c r="C457" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A458" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="B458" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C458" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A459" s="6" t="s">
+      <c r="C458" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A459" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B459" s="7" t="s">
+      <c r="B459" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C459" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A460" s="6" t="s">
+      <c r="C459" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A460" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B460" s="7" t="s">
+      <c r="B460" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C460" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A461" s="6" t="s">
+      <c r="C460" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A461" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B461" s="7" t="s">
+      <c r="B461" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C461" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A462" s="6" t="s">
+      <c r="C461" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A462" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B462" s="7" t="s">
+      <c r="B462" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C462" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A463" s="6" t="s">
+      <c r="C462" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A463" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B463" s="7" t="s">
+      <c r="B463" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C463" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A464" s="6" t="s">
+      <c r="C463" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A464" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B464" s="7" t="s">
+      <c r="B464" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C464" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A465" s="6" t="s">
+      <c r="C464" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A465" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B465" s="7" t="s">
+      <c r="B465" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C465" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A466" s="6" t="s">
+      <c r="C465" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A466" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B466" s="7" t="s">
+      <c r="B466" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C466" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A467" s="6" t="s">
+      <c r="C466" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A467" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B467" s="7" t="s">
+      <c r="B467" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C467" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A468" s="6" t="s">
+      <c r="C467" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A468" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B468" s="7" t="s">
+      <c r="B468" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C468" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A469" s="6" t="s">
+      <c r="C468" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A469" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="B469" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C469" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C469" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A470" s="1"/>
-      <c r="B470" s="10"/>
-      <c r="C470" s="8"/>
-    </row>
-    <row r="471" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A471" s="6"/>
-      <c r="B471" s="10"/>
-      <c r="C471" s="8"/>
-    </row>
-    <row r="472" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A472" s="6" t="s">
+      <c r="B470" s="9"/>
+      <c r="C470" s="7"/>
+    </row>
+    <row r="471" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A471" s="5"/>
+      <c r="B471" s="9"/>
+      <c r="C471" s="7"/>
+    </row>
+    <row r="472" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A472" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B472" s="7" t="s">
+      <c r="B472" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C472" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A473" s="6" t="s">
+      <c r="C472" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A473" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B473" s="7" t="s">
+      <c r="B473" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C473" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A474" s="6" t="s">
+      <c r="C473" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A474" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B474" s="7" t="s">
+      <c r="B474" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C474" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A475" s="6" t="s">
+      <c r="C474" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A475" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B475" s="7" t="s">
+      <c r="B475" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C475" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A476" s="6" t="s">
+      <c r="C475" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A476" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B476" s="7" t="s">
+      <c r="B476" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C476" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A477" s="6" t="s">
+      <c r="C476" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A477" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B477" s="7" t="s">
+      <c r="B477" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C477" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A478" s="6" t="s">
+      <c r="C477" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A478" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B478" s="7" t="s">
+      <c r="B478" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C478" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A479" s="6" t="s">
+      <c r="C478" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A479" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B479" s="7" t="s">
+      <c r="B479" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C479" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A480" s="6" t="s">
+      <c r="C479" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A480" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B480" s="7" t="s">
+      <c r="B480" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C480" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A481" s="6" t="s">
+      <c r="C480" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A481" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B481" s="7" t="s">
+      <c r="B481" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C481" s="8" t="s">
+      <c r="C481" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7323,5 +7349,6 @@
     <hyperlink ref="B481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/Love Babbar Sheet.xlsx
+++ b/Love Babbar Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3AA39D-A1CC-4421-9ECE-9676247A6514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D975E22-7425-47E3-B217-21ABB45A4109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23550" windowHeight="13342" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1760,13 +1760,13 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="97.23046875" customWidth="1"/>
-    <col min="4" max="4" width="55.23046875" customWidth="1"/>
+    <col min="2" max="2" width="97.25" customWidth="1"/>
+    <col min="4" max="4" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1776,19 +1776,19 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1799,11 +1799,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A37" s="6" t="s">
         <v>5</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A41" s="6" t="s">
         <v>5</v>
       </c>
@@ -2199,19 +2199,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="B42" s="10"/>
       <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A43" s="6"/>
       <c r="B43" s="10"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -2241,10 +2241,10 @@
         <v>48</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A48" s="6" t="s">
         <v>45</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A51" s="6" t="s">
         <v>45</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A52" s="6" t="s">
         <v>45</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A53" s="6" t="s">
         <v>45</v>
       </c>
@@ -2321,17 +2321,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A55" s="6"/>
       <c r="B55" s="10"/>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A59" s="6" t="s">
         <v>56</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A60" s="6" t="s">
         <v>56</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A61" s="6" t="s">
         <v>56</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A63" s="6" t="s">
         <v>56</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A64" s="6" t="s">
         <v>56</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A65" s="6" t="s">
         <v>56</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A66" s="6" t="s">
         <v>56</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A69" s="6" t="s">
         <v>56</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A70" s="6" t="s">
         <v>56</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A71" s="6" t="s">
         <v>56</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A72" s="6" t="s">
         <v>56</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A73" s="6" t="s">
         <v>56</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A74" s="6" t="s">
         <v>56</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A75" s="6" t="s">
         <v>56</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A76" s="6" t="s">
         <v>56</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A77" s="6" t="s">
         <v>56</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A78" s="6" t="s">
         <v>56</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A79" s="6" t="s">
         <v>56</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A80" s="6" t="s">
         <v>56</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A81" s="6" t="s">
         <v>56</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A82" s="6" t="s">
         <v>56</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A83" s="6" t="s">
         <v>56</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A84" s="6" t="s">
         <v>56</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A85" s="6" t="s">
         <v>56</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A86" s="6" t="s">
         <v>56</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A87" s="6" t="s">
         <v>56</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A88" s="6" t="s">
         <v>56</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A89" s="6" t="s">
         <v>56</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A90" s="6" t="s">
         <v>56</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A91" s="6" t="s">
         <v>56</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A92" s="6" t="s">
         <v>56</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A93" s="6" t="s">
         <v>56</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A94" s="6" t="s">
         <v>56</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A95" s="6" t="s">
         <v>56</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A96" s="6" t="s">
         <v>56</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A97" s="6" t="s">
         <v>56</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A98" s="6" t="s">
         <v>56</v>
       </c>
@@ -2804,17 +2804,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A100" s="6"/>
       <c r="B100" s="10"/>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A103" s="6" t="s">
         <v>100</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A104" s="6" t="s">
         <v>100</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A105" s="6" t="s">
         <v>100</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A107" s="6" t="s">
         <v>100</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A108" s="6" t="s">
         <v>100</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A109" s="6" t="s">
         <v>100</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A110" s="6" t="s">
         <v>100</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A111" s="6" t="s">
         <v>100</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A112" s="6" t="s">
         <v>100</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A113" s="6" t="s">
         <v>100</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A115" s="6" t="s">
         <v>100</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A116" s="6" t="s">
         <v>100</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A117" s="6" t="s">
         <v>100</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A118" s="6" t="s">
         <v>100</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A119" s="6" t="s">
         <v>100</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A120" s="6" t="s">
         <v>100</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A121" s="6" t="s">
         <v>100</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A122" s="6" t="s">
         <v>100</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A123" s="6" t="s">
         <v>100</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A124" s="6" t="s">
         <v>100</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A125" s="6" t="s">
         <v>100</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A126" s="6" t="s">
         <v>100</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A127" s="6" t="s">
         <v>100</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A128" s="6" t="s">
         <v>100</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A129" s="6" t="s">
         <v>100</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A130" s="6" t="s">
         <v>100</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A131" s="6" t="s">
         <v>100</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A132" s="6" t="s">
         <v>100</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A133" s="6" t="s">
         <v>100</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A134" s="6" t="s">
         <v>100</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A135" s="6" t="s">
         <v>100</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A136" s="6" t="s">
         <v>100</v>
       </c>
@@ -3210,17 +3210,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="B138" s="10"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A140" s="6" t="s">
         <v>137</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A141" s="6" t="s">
         <v>137</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A142" s="6" t="s">
         <v>137</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A143" s="6" t="s">
         <v>137</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A144" s="6" t="s">
         <v>137</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A145" s="6" t="s">
         <v>137</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A146" s="6" t="s">
         <v>137</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A147" s="6" t="s">
         <v>137</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A148" s="6" t="s">
         <v>137</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A149" s="6" t="s">
         <v>137</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A150" s="6" t="s">
         <v>137</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A151" s="6" t="s">
         <v>137</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A152" s="6" t="s">
         <v>137</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A153" s="6" t="s">
         <v>137</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A154" s="6" t="s">
         <v>137</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A155" s="6" t="s">
         <v>137</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A156" s="6" t="s">
         <v>137</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A157" s="6" t="s">
         <v>137</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A158" s="6" t="s">
         <v>137</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A159" s="6" t="s">
         <v>137</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A160" s="6" t="s">
         <v>137</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A161" s="6" t="s">
         <v>137</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A162" s="6" t="s">
         <v>137</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A163" s="6" t="s">
         <v>137</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A164" s="6" t="s">
         <v>137</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A165" s="6" t="s">
         <v>137</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A166" s="6" t="s">
         <v>137</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A167" s="6" t="s">
         <v>137</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A168" s="6" t="s">
         <v>137</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A169" s="6" t="s">
         <v>137</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A170" s="6" t="s">
         <v>137</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A171" s="6" t="s">
         <v>137</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A172" s="6" t="s">
         <v>137</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A173" s="6" t="s">
         <v>137</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A174" s="6" t="s">
         <v>137</v>
       </c>
@@ -3616,17 +3616,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A176" s="1"/>
       <c r="B176" s="10"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A177" s="6" t="s">
         <v>174</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A178" s="6" t="s">
         <v>174</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A179" s="6" t="s">
         <v>174</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A180" s="6" t="s">
         <v>174</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A181" s="6" t="s">
         <v>174</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A182" s="6" t="s">
         <v>174</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A183" s="6" t="s">
         <v>174</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A184" s="6" t="s">
         <v>174</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A185" s="6" t="s">
         <v>174</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A186" s="6" t="s">
         <v>174</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A187" s="6" t="s">
         <v>174</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A188" s="6" t="s">
         <v>174</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A189" s="6" t="s">
         <v>174</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A190" s="6" t="s">
         <v>174</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A191" s="6" t="s">
         <v>174</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A192" s="6" t="s">
         <v>174</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A194" s="6" t="s">
         <v>174</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A195" s="6" t="s">
         <v>174</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A196" s="6" t="s">
         <v>174</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A197" s="6" t="s">
         <v>174</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A198" s="6" t="s">
         <v>174</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A199" s="6" t="s">
         <v>174</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A200" s="6" t="s">
         <v>174</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A201" s="6" t="s">
         <v>174</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A202" s="6" t="s">
         <v>174</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A203" s="6" t="s">
         <v>174</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A204" s="6" t="s">
         <v>174</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A205" s="6" t="s">
         <v>174</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A206" s="6" t="s">
         <v>174</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A207" s="6" t="s">
         <v>174</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A208" s="6" t="s">
         <v>174</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A209" s="6" t="s">
         <v>174</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A210" s="6" t="s">
         <v>174</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A211" s="6" t="s">
         <v>174</v>
       </c>
@@ -4011,17 +4011,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A212" s="6"/>
       <c r="B212" s="10"/>
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A213" s="6"/>
       <c r="B213" s="10"/>
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A214" s="6" t="s">
         <v>210</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A215" s="6" t="s">
         <v>210</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A216" s="6" t="s">
         <v>210</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A217" s="6" t="s">
         <v>210</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A218" s="6" t="s">
         <v>210</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A219" s="6" t="s">
         <v>210</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A220" s="6" t="s">
         <v>210</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A221" s="6" t="s">
         <v>210</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A222" s="6" t="s">
         <v>210</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A223" s="6" t="s">
         <v>210</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A224" s="6" t="s">
         <v>210</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A225" s="6" t="s">
         <v>210</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A226" s="6" t="s">
         <v>210</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A227" s="6" t="s">
         <v>210</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A228" s="6" t="s">
         <v>210</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A229" s="6" t="s">
         <v>210</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A230" s="6" t="s">
         <v>210</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A231" s="6" t="s">
         <v>210</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A232" s="6" t="s">
         <v>210</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A233" s="6" t="s">
         <v>210</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A234" s="6" t="s">
         <v>210</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A235" s="6" t="s">
         <v>210</v>
       </c>
@@ -4263,17 +4263,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="B237" s="10"/>
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A238" s="6" t="s">
         <v>233</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A239" s="6" t="s">
         <v>233</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A240" s="6" t="s">
         <v>233</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A241" s="6" t="s">
         <v>233</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A242" s="6" t="s">
         <v>233</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A243" s="6" t="s">
         <v>233</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A244" s="6" t="s">
         <v>233</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A245" s="6" t="s">
         <v>233</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A246" s="6" t="s">
         <v>233</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A247" s="6" t="s">
         <v>233</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A248" s="6" t="s">
         <v>233</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A249" s="6" t="s">
         <v>233</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A250" s="6" t="s">
         <v>233</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A251" s="6" t="s">
         <v>233</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A252" s="6" t="s">
         <v>233</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A253" s="6" t="s">
         <v>233</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A254" s="6" t="s">
         <v>233</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A255" s="6" t="s">
         <v>233</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A256" s="6" t="s">
         <v>233</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A257" s="6" t="s">
         <v>233</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A258" s="6" t="s">
         <v>233</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A259" s="6" t="s">
         <v>233</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A260" s="6" t="s">
         <v>233</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A261" s="6" t="s">
         <v>233</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A262" s="6" t="s">
         <v>233</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A263" s="6" t="s">
         <v>233</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A264" s="6" t="s">
         <v>233</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A265" s="6" t="s">
         <v>233</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A266" s="6" t="s">
         <v>233</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A267" s="6" t="s">
         <v>233</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A268" s="6" t="s">
         <v>233</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A269" s="6" t="s">
         <v>233</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A270" s="6" t="s">
         <v>233</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A271" s="6" t="s">
         <v>233</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A272" s="6" t="s">
         <v>233</v>
       </c>
@@ -4658,17 +4658,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A273" s="1"/>
       <c r="B273" s="10"/>
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A274" s="1"/>
       <c r="B274" s="10"/>
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A275" s="6" t="s">
         <v>268</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A276" s="6" t="s">
         <v>268</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A277" s="6" t="s">
         <v>268</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A278" s="6" t="s">
         <v>268</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A279" s="6" t="s">
         <v>268</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A280" s="6" t="s">
         <v>268</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A281" s="6" t="s">
         <v>268</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A282" s="6" t="s">
         <v>268</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A283" s="6" t="s">
         <v>268</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A284" s="6" t="s">
         <v>268</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A285" s="6" t="s">
         <v>268</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A286" s="6" t="s">
         <v>268</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A287" s="6" t="s">
         <v>268</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A288" s="6" t="s">
         <v>268</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A289" s="6" t="s">
         <v>268</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A290" s="6" t="s">
         <v>268</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A291" s="6" t="s">
         <v>268</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A292" s="6" t="s">
         <v>268</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A293" s="6" t="s">
         <v>268</v>
       </c>
@@ -4877,17 +4877,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A294" s="1"/>
       <c r="B294" s="10"/>
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A295" s="1"/>
       <c r="B295" s="10"/>
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A296" s="6" t="s">
         <v>288</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A297" s="6" t="s">
         <v>288</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A298" s="6" t="s">
         <v>288</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A299" s="6" t="s">
         <v>288</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A300" s="6" t="s">
         <v>288</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A301" s="6" t="s">
         <v>288</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A302" s="6" t="s">
         <v>288</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A303" s="6" t="s">
         <v>288</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A304" s="6" t="s">
         <v>288</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A305" s="6" t="s">
         <v>288</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A306" s="6" t="s">
         <v>288</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A307" s="6" t="s">
         <v>288</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A308" s="6" t="s">
         <v>288</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A309" s="6" t="s">
         <v>288</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A310" s="6" t="s">
         <v>288</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A311" s="6" t="s">
         <v>288</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A312" s="6" t="s">
         <v>288</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A313" s="6" t="s">
         <v>288</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A314" s="6" t="s">
         <v>288</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A315" s="6" t="s">
         <v>288</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A316" s="6" t="s">
         <v>288</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A317" s="6" t="s">
         <v>288</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A318" s="6" t="s">
         <v>288</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A319" s="6" t="s">
         <v>288</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A320" s="6" t="s">
         <v>288</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A321" s="6" t="s">
         <v>288</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A322" s="6" t="s">
         <v>288</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A323" s="6" t="s">
         <v>288</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A324" s="6" t="s">
         <v>288</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A325" s="6" t="s">
         <v>288</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A326" s="6" t="s">
         <v>288</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A327" s="6" t="s">
         <v>288</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A328" s="6" t="s">
         <v>288</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A329" s="6" t="s">
         <v>288</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A330" s="6" t="s">
         <v>288</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A331" s="6" t="s">
         <v>288</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A332" s="6" t="s">
         <v>288</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A333" s="6" t="s">
         <v>288</v>
       </c>
@@ -5305,17 +5305,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A334" s="1"/>
       <c r="B334" s="10"/>
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A335" s="1"/>
       <c r="B335" s="10"/>
       <c r="C335" s="8"/>
     </row>
-    <row r="336" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A336" s="6" t="s">
         <v>327</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A337" s="6" t="s">
         <v>327</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A338" s="6" t="s">
         <v>327</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A339" s="6" t="s">
         <v>327</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A340" s="6" t="s">
         <v>327</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A341" s="6" t="s">
         <v>327</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A342" s="6" t="s">
         <v>327</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A343" s="6" t="s">
         <v>327</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A344" s="6" t="s">
         <v>327</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A345" s="6" t="s">
         <v>327</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A346" s="6" t="s">
         <v>327</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A347" s="6" t="s">
         <v>327</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A348" s="6" t="s">
         <v>327</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A349" s="6" t="s">
         <v>327</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A350" s="6" t="s">
         <v>327</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A351" s="6" t="s">
         <v>327</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A352" s="6" t="s">
         <v>327</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A353" s="6" t="s">
         <v>327</v>
       </c>
@@ -5513,17 +5513,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A354" s="1"/>
       <c r="B354" s="10"/>
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A355" s="1"/>
       <c r="B355" s="10"/>
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A356" s="6" t="s">
         <v>346</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A357" s="6" t="s">
         <v>346</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A358" s="6" t="s">
         <v>346</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A359" s="6" t="s">
         <v>346</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A360" s="6" t="s">
         <v>346</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A361" s="6" t="s">
         <v>346</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A362" s="6" t="s">
         <v>346</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A363" s="6" t="s">
         <v>346</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A364" s="6" t="s">
         <v>346</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A365" s="6" t="s">
         <v>346</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A366" s="6" t="s">
         <v>346</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A367" s="6" t="s">
         <v>346</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A368" s="6" t="s">
         <v>346</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A369" s="6" t="s">
         <v>346</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A370" s="6" t="s">
         <v>346</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A371" s="6" t="s">
         <v>346</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A372" s="6" t="s">
         <v>346</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A373" s="6" t="s">
         <v>346</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A374" s="6" t="s">
         <v>346</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A375" s="6" t="s">
         <v>346</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A376" s="6" t="s">
         <v>346</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A377" s="6" t="s">
         <v>346</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A378" s="6" t="s">
         <v>346</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A379" s="6" t="s">
         <v>346</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A380" s="6" t="s">
         <v>346</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A381" s="6" t="s">
         <v>346</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A382" s="6" t="s">
         <v>346</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A383" s="6" t="s">
         <v>346</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A384" s="6" t="s">
         <v>346</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A385" s="6" t="s">
         <v>346</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A386" s="6" t="s">
         <v>346</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A387" s="6" t="s">
         <v>346</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A388" s="6" t="s">
         <v>346</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A389" s="6" t="s">
         <v>346</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A390" s="6" t="s">
         <v>346</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A391" s="6" t="s">
         <v>346</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A392" s="6" t="s">
         <v>346</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A393" s="6" t="s">
         <v>346</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A394" s="6" t="s">
         <v>346</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A395" s="6" t="s">
         <v>346</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A396" s="6" t="s">
         <v>346</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A397" s="6" t="s">
         <v>346</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A398" s="6" t="s">
         <v>346</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A399" s="6" t="s">
         <v>346</v>
       </c>
@@ -6007,17 +6007,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A400" s="1"/>
       <c r="B400" s="10"/>
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A401" s="1"/>
       <c r="B401" s="10"/>
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A402" s="6" t="s">
         <v>390</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A403" s="6" t="s">
         <v>390</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A404" s="6" t="s">
         <v>390</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A405" s="6" t="s">
         <v>390</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A406" s="6" t="s">
         <v>390</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A407" s="6" t="s">
         <v>390</v>
       </c>
@@ -6083,17 +6083,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A408" s="1"/>
       <c r="B408" s="10"/>
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A409" s="1"/>
       <c r="B409" s="10"/>
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A410" s="6" t="s">
         <v>396</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A411" s="6" t="s">
         <v>396</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A412" s="6" t="s">
         <v>396</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A413" s="6" t="s">
         <v>396</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A414" s="6" t="s">
         <v>396</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A415" s="6" t="s">
         <v>396</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A416" s="6" t="s">
         <v>396</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A417" s="6" t="s">
         <v>396</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A418" s="6" t="s">
         <v>396</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A419" s="6" t="s">
         <v>396</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A420" s="6" t="s">
         <v>396</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A421" s="6" t="s">
         <v>396</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A422" s="6" t="s">
         <v>396</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A423" s="6" t="s">
         <v>396</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A424" s="6" t="s">
         <v>396</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A425" s="6" t="s">
         <v>396</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A426" s="6" t="s">
         <v>396</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A427" s="6" t="s">
         <v>396</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A428" s="6" t="s">
         <v>396</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A429" s="6" t="s">
         <v>396</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A430" s="6" t="s">
         <v>396</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A431" s="6" t="s">
         <v>396</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A432" s="6" t="s">
         <v>396</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A433" s="6" t="s">
         <v>396</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A434" s="6" t="s">
         <v>396</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A435" s="6" t="s">
         <v>396</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A436" s="6" t="s">
         <v>396</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A437" s="6" t="s">
         <v>396</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A438" s="6" t="s">
         <v>396</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A439" s="6" t="s">
         <v>396</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A440" s="6" t="s">
         <v>396</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A441" s="6" t="s">
         <v>396</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A442" s="6" t="s">
         <v>396</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A443" s="6" t="s">
         <v>396</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A444" s="6" t="s">
         <v>396</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A445" s="6" t="s">
         <v>396</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A446" s="6" t="s">
         <v>396</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A447" s="6" t="s">
         <v>396</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A448" s="6" t="s">
         <v>396</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A449" s="6" t="s">
         <v>396</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A450" s="6" t="s">
         <v>396</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A451" s="6" t="s">
         <v>396</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A452" s="6" t="s">
         <v>396</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A453" s="6" t="s">
         <v>396</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A454" s="6" t="s">
         <v>396</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A455" s="6" t="s">
         <v>396</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A456" s="6" t="s">
         <v>396</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A457" s="6" t="s">
         <v>396</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A458" s="6" t="s">
         <v>396</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A459" s="6" t="s">
         <v>396</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A460" s="6" t="s">
         <v>396</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A461" s="6" t="s">
         <v>396</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A462" s="6" t="s">
         <v>396</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A463" s="6" t="s">
         <v>396</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A464" s="6" t="s">
         <v>396</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A465" s="6" t="s">
         <v>396</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A466" s="6" t="s">
         <v>396</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A467" s="6" t="s">
         <v>396</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A468" s="6" t="s">
         <v>396</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A469" s="6" t="s">
         <v>396</v>
       </c>
@@ -6753,17 +6753,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A470" s="1"/>
       <c r="B470" s="10"/>
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A471" s="6"/>
       <c r="B471" s="10"/>
       <c r="C471" s="8"/>
     </row>
-    <row r="472" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A472" s="6" t="s">
         <v>456</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A473" s="6" t="s">
         <v>456</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A474" s="6" t="s">
         <v>456</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A475" s="6" t="s">
         <v>456</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A476" s="6" t="s">
         <v>456</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A477" s="6" t="s">
         <v>456</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A478" s="6" t="s">
         <v>456</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A479" s="6" t="s">
         <v>456</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A480" s="6" t="s">
         <v>456</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:3" ht="20.55" x14ac:dyDescent="0.5">
       <c r="A481" s="6" t="s">
         <v>456</v>
       </c>
